--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_666.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_666.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d217227-Reviews-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>211</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Rodeway-Inn-Suites-Near-Convention-Center.h41422.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_666.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_666.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="792">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2442 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r587565931-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>29092</t>
+  </si>
+  <si>
+    <t>217227</t>
+  </si>
+  <si>
+    <t>587565931</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>Hidden Jewel in Anaheim... Reviews do not do justice</t>
+  </si>
+  <si>
+    <t>The reviews do not do adequate justice to this place. Some of the reviews appear to be biased based on some personal prejudice. TRUST ME... YOU WILL NOT REGRET STAYING HERE.
+The hotel is very close to the Disney Land area and for the price, it is a great value. Room is EXCELLENT. The hotel has been renovated recently and furniture is new. The bathroom is very clean . Fridge and Microwave made it nice to heat leftovers from eating out. It's surrounded by fast food and restaurants, and an AM/PM just about 100 yards away. Walking distance to all the food varieties you could want. WIFI was one of the fastest I've encountered at any hotel. Was able to stream Netflix and Amazon videos with no problem.
+Breakfast was very good and  I was pleased with the muffins and donuts, danishes, cereals and toast. Coffee and Tea  is offered all day.  
+The Staff is JUST AMAZING.... Stacey, Armando and the Manager Bakul Patel, ensured my family were well taken care of. They took special care of my children and were very helpful, courteous and kind. 
+All in all, this is a great hotel for the money. It would be just fine for families needing a place that was comfortable and clean for a vacation. I'm looking forward for my next vacation in California and would DEFINITELY BOOK ONLY THIS HOTEL...  Thank you Rodeway Inn... you made my trip memorable.....YOU...The reviews do not do adequate justice to this place. Some of the reviews appear to be biased based on some personal prejudice. TRUST ME... YOU WILL NOT REGRET STAYING HERE.The hotel is very close to the Disney Land area and for the price, it is a great value. Room is EXCELLENT. The hotel has been renovated recently and furniture is new. The bathroom is very clean . Fridge and Microwave made it nice to heat leftovers from eating out. It's surrounded by fast food and restaurants, and an AM/PM just about 100 yards away. Walking distance to all the food varieties you could want. WIFI was one of the fastest I've encountered at any hotel. Was able to stream Netflix and Amazon videos with no problem.Breakfast was very good and  I was pleased with the muffins and donuts, danishes, cereals and toast. Coffee and Tea  is offered all day.  The Staff is JUST AMAZING.... Stacey, Armando and the Manager Bakul Patel, ensured my family were well taken care of. They took special care of my children and were very helpful, courteous and kind. All in all, this is a great hotel for the money. It would be just fine for families needing a place that was comfortable and clean for a vacation. I'm looking forward for my next vacation in California and would DEFINITELY BOOK ONLY THIS HOTEL...  Thank you Rodeway Inn... you made my trip memorable.....YOU ROCK!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Bakul P, General Manager at Rodeway Inn &amp; Suites Near Anaheim Convention Center, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>The reviews do not do adequate justice to this place. Some of the reviews appear to be biased based on some personal prejudice. TRUST ME... YOU WILL NOT REGRET STAYING HERE.
+The hotel is very close to the Disney Land area and for the price, it is a great value. Room is EXCELLENT. The hotel has been renovated recently and furniture is new. The bathroom is very clean . Fridge and Microwave made it nice to heat leftovers from eating out. It's surrounded by fast food and restaurants, and an AM/PM just about 100 yards away. Walking distance to all the food varieties you could want. WIFI was one of the fastest I've encountered at any hotel. Was able to stream Netflix and Amazon videos with no problem.
+Breakfast was very good and  I was pleased with the muffins and donuts, danishes, cereals and toast. Coffee and Tea  is offered all day.  
+The Staff is JUST AMAZING.... Stacey, Armando and the Manager Bakul Patel, ensured my family were well taken care of. They took special care of my children and were very helpful, courteous and kind. 
+All in all, this is a great hotel for the money. It would be just fine for families needing a place that was comfortable and clean for a vacation. I'm looking forward for my next vacation in California and would DEFINITELY BOOK ONLY THIS HOTEL...  Thank you Rodeway Inn... you made my trip memorable.....YOU...The reviews do not do adequate justice to this place. Some of the reviews appear to be biased based on some personal prejudice. TRUST ME... YOU WILL NOT REGRET STAYING HERE.The hotel is very close to the Disney Land area and for the price, it is a great value. Room is EXCELLENT. The hotel has been renovated recently and furniture is new. The bathroom is very clean . Fridge and Microwave made it nice to heat leftovers from eating out. It's surrounded by fast food and restaurants, and an AM/PM just about 100 yards away. Walking distance to all the food varieties you could want. WIFI was one of the fastest I've encountered at any hotel. Was able to stream Netflix and Amazon videos with no problem.Breakfast was very good and  I was pleased with the muffins and donuts, danishes, cereals and toast. Coffee and Tea  is offered all day.  The Staff is JUST AMAZING.... Stacey, Armando and the Manager Bakul Patel, ensured my family were well taken care of. They took special care of my children and were very helpful, courteous and kind. All in all, this is a great hotel for the money. It would be just fine for families needing a place that was comfortable and clean for a vacation. I'm looking forward for my next vacation in California and would DEFINITELY BOOK ONLY THIS HOTEL...  Thank you Rodeway Inn... you made my trip memorable.....YOU ROCK!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r586090777-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>586090777</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Very poor customer service, staff doesn’t tell the truth</t>
+  </si>
+  <si>
+    <t>Do yourself a favor and don’t stay here. We got in late at night, so just wanted to check in. The gal at the front desk looked like she would rather be somewhere else. Barely said hi to us. Got a room. Went back down to ask where the coffee maker and wi-fi password was that were BOTH promoted as having on their website. No coffee maker, and wi-fi was pretty much non-existent. To add to that, bathroom had hair all over the floor. Asked to be transferred to another room where wi-fi would be better. It wasn’t. And this room wasn’t any cleaner. Spare TP roll was stained as well. Just great. Went down to ask if we could get a refund, and the gal copped an attitude and said she would have to talk to manager. Asked her to contact manager, and she said he was not available. How many hotels don’t have a manager on call!! Totally unacceptable. In the end, they never offered refund so we could leave and find a hotel where they actually wanted to help their guests, so we ended up staying there. Very unenjoyable stay, especially for the high rates. Found out there were plenty more hotels with similar rates, much nicer accommodations, and wi-fi!! Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Do yourself a favor and don’t stay here. We got in late at night, so just wanted to check in. The gal at the front desk looked like she would rather be somewhere else. Barely said hi to us. Got a room. Went back down to ask where the coffee maker and wi-fi password was that were BOTH promoted as having on their website. No coffee maker, and wi-fi was pretty much non-existent. To add to that, bathroom had hair all over the floor. Asked to be transferred to another room where wi-fi would be better. It wasn’t. And this room wasn’t any cleaner. Spare TP roll was stained as well. Just great. Went down to ask if we could get a refund, and the gal copped an attitude and said she would have to talk to manager. Asked her to contact manager, and she said he was not available. How many hotels don’t have a manager on call!! Totally unacceptable. In the end, they never offered refund so we could leave and find a hotel where they actually wanted to help their guests, so we ended up staying there. Very unenjoyable stay, especially for the high rates. Found out there were plenty more hotels with similar rates, much nicer accommodations, and wi-fi!! Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r551364931-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>551364931</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick overnight </t>
+  </si>
+  <si>
+    <t>We just needed a place to sleepAfter a long day at the park.  I had stayed here before about 2 years ago.  The front desk staff is very nice.  It’s not the best room in the world but it’s ok.  The room looked like they had recently tried to renovate a few things.  But the beds were super hard! But you couldn’t beat it for the price.  MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Bakul P, Front Office Manager at Rodeway Inn &amp; Suites Near Anaheim Convention Center, responded to this reviewResponded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2018</t>
+  </si>
+  <si>
+    <t>We just needed a place to sleepAfter a long day at the park.  I had stayed here before about 2 years ago.  The front desk staff is very nice.  It’s not the best room in the world but it’s ok.  The room looked like they had recently tried to renovate a few things.  But the beds were super hard! But you couldn’t beat it for the price.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r528414558-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>528414558</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>spur of the moment</t>
+  </si>
+  <si>
+    <t>I stayed here recently and I will be more vigilant about reading reviews on anything anywhere I go from now on.  This motel's advertising is very deceiving.   The picture must be of the best and freshly renovated room they have.  And if there is a pool and/or hot tub,  we couldn't find it.  Couldn't even change the channel on the TV.  Adult cartoon channel was the only choice. The fridge didn't keep anything cold and we didn't bother trying the microwave The window was so dirty, ya could barely see through it.  Couldn't use the bath tub as a bath tub, only shower.  The positives were the AC worked well and there was hot water....no cold water, only hot and luke warm.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>I stayed here recently and I will be more vigilant about reading reviews on anything anywhere I go from now on.  This motel's advertising is very deceiving.   The picture must be of the best and freshly renovated room they have.  And if there is a pool and/or hot tub,  we couldn't find it.  Couldn't even change the channel on the TV.  Adult cartoon channel was the only choice. The fridge didn't keep anything cold and we didn't bother trying the microwave The window was so dirty, ya could barely see through it.  Couldn't use the bath tub as a bath tub, only shower.  The positives were the AC worked well and there was hot water....no cold water, only hot and luke warm.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r522059803-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>522059803</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>DO NOT GO THERE!</t>
+  </si>
+  <si>
+    <t>It was a nightmare arriving to that dump, we arrived on time, but when we saw the hotel we wanted to leave immediately, they said that we weren't going to get refunded that we had to cancel firs with Priceline and we had to wait more than an hour for them to answer, it was 109 temperature, in an office that didn't have air conditioner and smelled really bad, they showed the room to us and it smelled like pee !!!! we told them that we weren't going to sleep there with that smell, they told us that they were working on it ?????? some of the windows were covered with tarp plastic, there were no amenities or swimming pool and they said that there was no Wi-Fi  either they are a fraud and I will contest the charges,  we were going to a retreat and were late 4 hours thanks to them.  I think it should be illegal to advertise something that is not what they advertise in the website..MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>It was a nightmare arriving to that dump, we arrived on time, but when we saw the hotel we wanted to leave immediately, they said that we weren't going to get refunded that we had to cancel firs with Priceline and we had to wait more than an hour for them to answer, it was 109 temperature, in an office that didn't have air conditioner and smelled really bad, they showed the room to us and it smelled like pee !!!! we told them that we weren't going to sleep there with that smell, they told us that they were working on it ?????? some of the windows were covered with tarp plastic, there were no amenities or swimming pool and they said that there was no Wi-Fi  either they are a fraud and I will contest the charges,  we were going to a retreat and were late 4 hours thanks to them.  I think it should be illegal to advertise something that is not what they advertise in the website..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r505277824-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>505277824</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>My Navy daughter noticed an extra charge of $100 on her credit card  a couple of weeks after her stay.  She called the hotel and was told she had smoked in the room and several people confirmed the smell.  My daughter is Morman and has NEVER smoked a day in her life.  She tried talking with the manager as well after several calls that were not returned and was told she had no way of proving it.  How can they prove it?! She even returned the keys to the front desk when she left.  My daughter could take a pee test and could provide medical records to prove she has never smoked.  So now to dispute it with the credit card company.  So much hassle for a Sailor to go through when she just wanted to enjoy a Mariners Game!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>My Navy daughter noticed an extra charge of $100 on her credit card  a couple of weeks after her stay.  She called the hotel and was told she had smoked in the room and several people confirmed the smell.  My daughter is Morman and has NEVER smoked a day in her life.  She tried talking with the manager as well after several calls that were not returned and was told she had no way of proving it.  How can they prove it?! She even returned the keys to the front desk when she left.  My daughter could take a pee test and could provide medical records to prove she has never smoked.  So now to dispute it with the credit card company.  So much hassle for a Sailor to go through when she just wanted to enjoy a Mariners Game!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r493594259-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>493594259</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Do not book!</t>
+  </si>
+  <si>
+    <t>Do not think that you will have any protection from Choice Hotels when cancelling on this one.  This hotel will immediately charge your card and not refund for as long as possible. Their websites clearly states that cards will only be charged 24 hours prior to arrival.  This is a lie! They will hold your funds hostage.  I regret so strongly having booked this dump in the first place.  The reason I cancelled was due to the horrifying reviews of this place.  Rude staff is right!  My only hope is dealing with corporate.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r492362389-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>492362389</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Close to Disneyland</t>
+  </si>
+  <si>
+    <t>Reading all the bad reviews almost made me not stay here but I guess people only post when they have bad experiences.I actually had a great experience,stayed here for a trip to disneyland for a 3 day stay,clerk let us checked in early around noon only cuz it was a suite,had no problems the room was actually pretty clean,wood floors,pretty big,bathroom was really small,the only thing is the breakfast not so many good choices the only hot thing was coffee,wish they had a continental breakfast,other than that i loved this place.I will stay here again next time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r489115303-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>489115303</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>False Advertising and Unsavory Business Practices--Beware</t>
+  </si>
+  <si>
+    <t>I booked through booking.com, which said it was pay upon arrival.  However this property says the charge is "upon arrival of confirmation email." False. I use booking.com regularly and that is never the case. I've canceled and intend to stay somewhere else that doesn't try to cheat the system. Be sure to check your credit card statement if you do book here!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r472733128-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>472733128</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Tried to find a positive, honestly, I did...</t>
+  </si>
+  <si>
+    <t>But oh lordy, it was not possible. As our 1 night stay happened, I made a list of the negatives, and again, I tried hard to come up with a positive...thought I had one for the room being clean until my white socks turned black from the dirty floor. So here is what our experience was like: 
+1. Very little parking. Had to park down the street. Still free but a bummer. I know it said first come first serve on the parking, but know if you STILL pick this place, there is very limited parking and in the morning, lots of cars were double parked which was odd so you might get trapped. 
+2. There was a door connecting our room to another. THANKFULLY it was 3 female next door and not a couple (since I was with my daughter) and we heard everything they talked about well into the night. Yes, they were rude for talking fairly loud, but it wasn't muffled, we could hear all conversations, so there was no attempt from the hotel to put in proper doors. Needless to say, I did not worry about our voice level in the morning when they were still sleeping. 
+3. There was a bathtub, and after walking all day long, a bath sounded nice. But there was no way to plug the drain. I could have used a washcloth, but seriously, why should I have to shove it...But oh lordy, it was not possible. As our 1 night stay happened, I made a list of the negatives, and again, I tried hard to come up with a positive...thought I had one for the room being clean until my white socks turned black from the dirty floor. So here is what our experience was like: 1. Very little parking. Had to park down the street. Still free but a bummer. I know it said first come first serve on the parking, but know if you STILL pick this place, there is very limited parking and in the morning, lots of cars were double parked which was odd so you might get trapped. 2. There was a door connecting our room to another. THANKFULLY it was 3 female next door and not a couple (since I was with my daughter) and we heard everything they talked about well into the night. Yes, they were rude for talking fairly loud, but it wasn't muffled, we could hear all conversations, so there was no attempt from the hotel to put in proper doors. Needless to say, I did not worry about our voice level in the morning when they were still sleeping. 3. There was a bathtub, and after walking all day long, a bath sounded nice. But there was no way to plug the drain. I could have used a washcloth, but seriously, why should I have to shove it in to seal it up? There should be a drain stop provided since one was not built in. 4. The microwave button to open and close was half-way broken off. It was useable I believe, but looked awful. But it went with everything else, so not surprised I guess. 5. Furniture was old and scratched. The floor in front of the dresser was VERY scratched up. 6. Lamps look like something my grandmother might have had. VERY old looking and one had the knob broken off so it was not useable. 7. Wifi code didn't work on my phone, daughter's phone, or iPad. It was not worth asking about. 8. As stated in my title, the floors turned my socks black. My daughter was not wearing socks and I had her stand in the tub and we had to laugh at her black footprints when she washed them off. We had to wear shoes around. It looked clean, but if they are turning white socks black, how long as it been since they have been cleaned????? I did tell the woman at check out about this, but sadly, I am guessing if I went back today, it would not be clean. SO GROSS!!!! 9. My bed was fairly firm but when I sat on my daughter's, it was super soft, so clearly there is no consistency with quality. 10. Windows are cheap so we were close to the street and could hear every car go by, all night long! 11. The website won't load now, but says something very positive about their breakfast. We checked it out since it was included and ended up at Denny's. They had some cheap donuts, off brand cereals (2), some bread for toast, some "orange juice" and hardly warm coffee. I actually laughed when I tried the coffee and it wasn't even close to hot. At that point, I was expecting it to be bad. I so wish there was something positive. But nope. I would NEVER suggest staying here unless you truly don't mind paying for any of the above things.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>But oh lordy, it was not possible. As our 1 night stay happened, I made a list of the negatives, and again, I tried hard to come up with a positive...thought I had one for the room being clean until my white socks turned black from the dirty floor. So here is what our experience was like: 
+1. Very little parking. Had to park down the street. Still free but a bummer. I know it said first come first serve on the parking, but know if you STILL pick this place, there is very limited parking and in the morning, lots of cars were double parked which was odd so you might get trapped. 
+2. There was a door connecting our room to another. THANKFULLY it was 3 female next door and not a couple (since I was with my daughter) and we heard everything they talked about well into the night. Yes, they were rude for talking fairly loud, but it wasn't muffled, we could hear all conversations, so there was no attempt from the hotel to put in proper doors. Needless to say, I did not worry about our voice level in the morning when they were still sleeping. 
+3. There was a bathtub, and after walking all day long, a bath sounded nice. But there was no way to plug the drain. I could have used a washcloth, but seriously, why should I have to shove it...But oh lordy, it was not possible. As our 1 night stay happened, I made a list of the negatives, and again, I tried hard to come up with a positive...thought I had one for the room being clean until my white socks turned black from the dirty floor. So here is what our experience was like: 1. Very little parking. Had to park down the street. Still free but a bummer. I know it said first come first serve on the parking, but know if you STILL pick this place, there is very limited parking and in the morning, lots of cars were double parked which was odd so you might get trapped. 2. There was a door connecting our room to another. THANKFULLY it was 3 female next door and not a couple (since I was with my daughter) and we heard everything they talked about well into the night. Yes, they were rude for talking fairly loud, but it wasn't muffled, we could hear all conversations, so there was no attempt from the hotel to put in proper doors. Needless to say, I did not worry about our voice level in the morning when they were still sleeping. 3. There was a bathtub, and after walking all day long, a bath sounded nice. But there was no way to plug the drain. I could have used a washcloth, but seriously, why should I have to shove it in to seal it up? There should be a drain stop provided since one was not built in. 4. The microwave button to open and close was half-way broken off. It was useable I believe, but looked awful. But it went with everything else, so not surprised I guess. 5. Furniture was old and scratched. The floor in front of the dresser was VERY scratched up. 6. Lamps look like something my grandmother might have had. VERY old looking and one had the knob broken off so it was not useable. 7. Wifi code didn't work on my phone, daughter's phone, or iPad. It was not worth asking about. 8. As stated in my title, the floors turned my socks black. My daughter was not wearing socks and I had her stand in the tub and we had to laugh at her black footprints when she washed them off. We had to wear shoes around. It looked clean, but if they are turning white socks black, how long as it been since they have been cleaned????? I did tell the woman at check out about this, but sadly, I am guessing if I went back today, it would not be clean. SO GROSS!!!! 9. My bed was fairly firm but when I sat on my daughter's, it was super soft, so clearly there is no consistency with quality. 10. Windows are cheap so we were close to the street and could hear every car go by, all night long! 11. The website won't load now, but says something very positive about their breakfast. We checked it out since it was included and ended up at Denny's. They had some cheap donuts, off brand cereals (2), some bread for toast, some "orange juice" and hardly warm coffee. I actually laughed when I tried the coffee and it wasn't even close to hot. At that point, I was expecting it to be bad. I so wish there was something positive. But nope. I would NEVER suggest staying here unless you truly don't mind paying for any of the above things.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r468615318-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>468615318</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Room ok/Staff horrible</t>
+  </si>
+  <si>
+    <t>When we pulled up and went in the office. The young man behind the desk acted very put out that we showed up. Very short answers and not friendly at all. The room was very large, all hardwood floors. The buildings are older and due for a major uplift/repairs. The window in our bathroom was spray painted black. The breakfast was worthless, they were out of everything and again the person doing it and the person in the lobby acted like we just showed up at their house and demanded they make us breakfast. Got a good deal but now I know why. Was close but not worth the attitude.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>When we pulled up and went in the office. The young man behind the desk acted very put out that we showed up. Very short answers and not friendly at all. The room was very large, all hardwood floors. The buildings are older and due for a major uplift/repairs. The window in our bathroom was spray painted black. The breakfast was worthless, they were out of everything and again the person doing it and the person in the lobby acted like we just showed up at their house and demanded they make us breakfast. Got a good deal but now I know why. Was close but not worth the attitude.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r463025672-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>463025672</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>At least it was clean</t>
+  </si>
+  <si>
+    <t>My only positive thing I can say abou this hotel was that it was clean and it was right next door to the shuttle bus stop to/from Disneyland.
+Where do I begin. The room was in dire need of some upgrades.  The decor looked like it was right out the 1970s.  The lamp didn't work unless you jiggled the switch "just so."  To me that seems like a fire hazard.  When I went to hang up my coat I couldn't, no hangers.
+The bathroom vanity counter was coming detached from the wall.  I was afraid to put anything on the counter.  The sink didn't have a stopper so if anything fell in the sink it was a goner.
+The bed sagged, badly and wasn't even comfortable.  The sheets were stained with what looked like rust, not pleased.  And the pillows were terribly flat.
+The next morning we went to take our showers, the bathtub got backed up.  That in it self wasn't the worst thing, the tub drained but very slow.  We were going to mention this to the front desk when we checked out.  After 2 full days at Disneyland we called it a day and turned in early on Saturday, around 7pm.  At 8pm someone knoced on our door saying they were there to fix the clogged bathtub.  SERIOUSLY!  We told them to go away and to come back after we checked out, which was the next morning....My only positive thing I can say abou this hotel was that it was clean and it was right next door to the shuttle bus stop to/from Disneyland.Where do I begin. The room was in dire need of some upgrades.  The decor looked like it was right out the 1970s.  The lamp didn't work unless you jiggled the switch "just so."  To me that seems like a fire hazard.  When I went to hang up my coat I couldn't, no hangers.The bathroom vanity counter was coming detached from the wall.  I was afraid to put anything on the counter.  The sink didn't have a stopper so if anything fell in the sink it was a goner.The bed sagged, badly and wasn't even comfortable.  The sheets were stained with what looked like rust, not pleased.  And the pillows were terribly flat.The next morning we went to take our showers, the bathtub got backed up.  That in it self wasn't the worst thing, the tub drained but very slow.  We were going to mention this to the front desk when we checked out.  After 2 full days at Disneyland we called it a day and turned in early on Saturday, around 7pm.  At 8pm someone knoced on our door saying they were there to fix the clogged bathtub.  SERIOUSLY!  We told them to go away and to come back after we checked out, which was the next morning.  We weren't 100% sure if it truly was the maintenance guy - the door didn't have a peep hole and we weren't about to open it.  (Side note, we did find out that the guy truly was the maintenance man but still 8pm on a Satuday night?!?!)The final straw was when we were awakened at 4am the day we were planning on checking-out with someone screaming, "STOP HIM HE STOLE MY PURSE".  We looked out the front window and saw a lady runnign, trying to chase down a car backing out of the parking lot.  At that time my husband and I agreed it was time to check out and get away from that place.  We didn't feel safe.Guaranteed this was without one of the worst hotel experiences we have ever had and will NEVER return.MoreShow less</t>
+  </si>
+  <si>
+    <t>My only positive thing I can say abou this hotel was that it was clean and it was right next door to the shuttle bus stop to/from Disneyland.
+Where do I begin. The room was in dire need of some upgrades.  The decor looked like it was right out the 1970s.  The lamp didn't work unless you jiggled the switch "just so."  To me that seems like a fire hazard.  When I went to hang up my coat I couldn't, no hangers.
+The bathroom vanity counter was coming detached from the wall.  I was afraid to put anything on the counter.  The sink didn't have a stopper so if anything fell in the sink it was a goner.
+The bed sagged, badly and wasn't even comfortable.  The sheets were stained with what looked like rust, not pleased.  And the pillows were terribly flat.
+The next morning we went to take our showers, the bathtub got backed up.  That in it self wasn't the worst thing, the tub drained but very slow.  We were going to mention this to the front desk when we checked out.  After 2 full days at Disneyland we called it a day and turned in early on Saturday, around 7pm.  At 8pm someone knoced on our door saying they were there to fix the clogged bathtub.  SERIOUSLY!  We told them to go away and to come back after we checked out, which was the next morning....My only positive thing I can say abou this hotel was that it was clean and it was right next door to the shuttle bus stop to/from Disneyland.Where do I begin. The room was in dire need of some upgrades.  The decor looked like it was right out the 1970s.  The lamp didn't work unless you jiggled the switch "just so."  To me that seems like a fire hazard.  When I went to hang up my coat I couldn't, no hangers.The bathroom vanity counter was coming detached from the wall.  I was afraid to put anything on the counter.  The sink didn't have a stopper so if anything fell in the sink it was a goner.The bed sagged, badly and wasn't even comfortable.  The sheets were stained with what looked like rust, not pleased.  And the pillows were terribly flat.The next morning we went to take our showers, the bathtub got backed up.  That in it self wasn't the worst thing, the tub drained but very slow.  We were going to mention this to the front desk when we checked out.  After 2 full days at Disneyland we called it a day and turned in early on Saturday, around 7pm.  At 8pm someone knoced on our door saying they were there to fix the clogged bathtub.  SERIOUSLY!  We told them to go away and to come back after we checked out, which was the next morning.  We weren't 100% sure if it truly was the maintenance guy - the door didn't have a peep hole and we weren't about to open it.  (Side note, we did find out that the guy truly was the maintenance man but still 8pm on a Satuday night?!?!)The final straw was when we were awakened at 4am the day we were planning on checking-out with someone screaming, "STOP HIM HE STOLE MY PURSE".  We looked out the front window and saw a lady runnign, trying to chase down a car backing out of the parking lot.  At that time my husband and I agreed it was time to check out and get away from that place.  We didn't feel safe.Guaranteed this was without one of the worst hotel experiences we have ever had and will NEVER return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r403430854-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>403430854</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Quick Vacation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would definitely look for another hotel on my next visit. The quality of the room was poor, stained towels, holes in the wall, the room door didn't always close properly, the bathroom fan fixture was broken, the breakfast was almost non-existent, and there is not enough parking if the hotel is full (they double-park which means you get to be blocked in or block someone else in). </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r385069545-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>385069545</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No pool </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly staff, but trip advisor says outside pool, there is none!  Don't get tricked like me! Wifi is also really weak!  Location is good, walking distance to many things to do.  Just a HUGE disappointment to bring kids and trust they actually have a pool, because trip advisor states they do! </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r384426884-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>384426884</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Loved the room!</t>
+  </si>
+  <si>
+    <t>I checked in here last minute and i was VERY pleased it was so close to Disneyland and fast food restaurants all around here. Very clean and i booked it through priceline. Priceline site says free breakfast, fyi it's a Continental breakfast, but to us it was worth the money.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r350145970-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>350145970</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Meh!</t>
+  </si>
+  <si>
+    <t>While there was nothing wrong with this location, there is also nothing fantastic about it either. It is an old style motel that happens to be relatively close to Disneyland (we walked there in about 20 minutes) and happens to be one of the most affordable locations close to the park. If all you care about is a place to store your stuff while you tour the park and crash when you get Disneyed-out, then this will be just fine for you.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r333403096-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>333403096</t>
+  </si>
+  <si>
+    <t>12/16/2015</t>
+  </si>
+  <si>
+    <t>Disneyland trip</t>
+  </si>
+  <si>
+    <t>As others have stated I was very apprehensive about booking this motel due to its negative reviews. But, I'm glad I did. Its a motel, not a hotel and im rating it as such. I loved the fact that the floors were laminate and not carpeting. The beds were comfortable (firm) and it was clean. The staff were very helpful and nice. The pool is GONE...found that out when we got there. No biggie really, we were there to go to Disneyland. Breakfast is nothing to write home about but target is a couple blocks away and there's a fridge and microwave... Worked great for us. I will definitely stay again on my next trip....thanks guysMoreShow less</t>
+  </si>
+  <si>
+    <t>As others have stated I was very apprehensive about booking this motel due to its negative reviews. But, I'm glad I did. Its a motel, not a hotel and im rating it as such. I loved the fact that the floors were laminate and not carpeting. The beds were comfortable (firm) and it was clean. The staff were very helpful and nice. The pool is GONE...found that out when we got there. No biggie really, we were there to go to Disneyland. Breakfast is nothing to write home about but target is a couple blocks away and there's a fridge and microwave... Worked great for us. I will definitely stay again on my next trip....thanks guysMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r333104422-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>333104422</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Walking Distance To Convention Center</t>
+  </si>
+  <si>
+    <t>Stayed several times while working events at the Convention Center, Rooms are fine, breakfast included with cost. 10 minute walk to Metro 460 stop that originates in DTLA. The hotel manager is professional and kind, haven't been there really recently, though.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r315624446-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>315624446</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>Small, affordable, centric hotel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our reservation was ready as we arrived, our room was very near to the pool. The pool and jacuzzi looked clean, but we didn't have the time to use them. The room was standard but it had a fridge, Microwave and hairdryer. The breakfast consisted on cereal, bread, donuts, juice, tea and coffee. The only thing that was insufficient was the parking space,,2 23 had to park inf front of the reception. </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r308417179-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>308417179</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>Bed Bugs &amp; incompetent staff</t>
+  </si>
+  <si>
+    <t>I wasn't in the room for more than ten minutes!! I laid on bed watching my kids play on their tablet when I noticed a bug crawling my way. I when to smash it when I realized it was a bed bug!!! When to check out and was told I couldn't get refunded till the following day and there was no manager available to deal with the situation and was told there was nobody I could call or he could call to refund my stay. This is a picture of the actual bed bug.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r295965474-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>295965474</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filthy and disgusting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carpet are filthy found other guest Q tips, razors and used  straws  on the floor actually my toddler found them! Pool is a cloudy swamp no parking ! 60 rooms and 40 spots, I was asked to park 2 blocks down at Clancys bar at 2am with my  small children! Do not stay here my sister stayed  4 miles  away at budget  inn and I was so envious I will definitely  stay there  for my next Disney trip. Dirty linens, smell carpet  rusted everything  in the bathroom. </t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r285406077-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>285406077</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>Perfect Room 4 Large Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had 12 people, mostly children so booking rooms was ridiculously hard. This hotel offers rooms with three queens. The layout: a private room with a queen and a separate area with the other two queens. It was perfect for what we needed!!! The cleanliness and quality was ok. The breakfast options were not good. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r284596117-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>284596117</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Good enough...</t>
+  </si>
+  <si>
+    <t>My kids and I spend two nights, so we could go to Disneyland. My firts impression was not great. The receptionist was not very helpful, but we checked in around 10 pm, room was clean and well maintained. Had mini fridge, door was broken. Flat screen, iron, dryer, no coffee maker. Hot water and beds were ok. The big problem was the parking..the first night we found a parking, barely. The second night, we arrived after midnight, and no parking....so I went to reception office, and said that their was no parking, and again, the same receptionist with an attitude, said of course their is plenty, the parking next door. Not the alley he said, but another establishment, just don't move the paper from your car..the continental breakfast was ok, and coffee 24 hrs. a day....pretty good coffee..over all, ok, motel, but I would not stay again, I don't like risking my car.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>My kids and I spend two nights, so we could go to Disneyland. My firts impression was not great. The receptionist was not very helpful, but we checked in around 10 pm, room was clean and well maintained. Had mini fridge, door was broken. Flat screen, iron, dryer, no coffee maker. Hot water and beds were ok. The big problem was the parking..the first night we found a parking, barely. The second night, we arrived after midnight, and no parking....so I went to reception office, and said that their was no parking, and again, the same receptionist with an attitude, said of course their is plenty, the parking next door. Not the alley he said, but another establishment, just don't move the paper from your car..the continental breakfast was ok, and coffee 24 hrs. a day....pretty good coffee..over all, ok, motel, but I would not stay again, I don't like risking my car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r282247749-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>282247749</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>Think twice</t>
+  </si>
+  <si>
+    <t>Well don't depend on the wifi. It never works don't matter where your at. Parking is even worse. They double park cars that block you from getting out of parking space. Beware if you block someone they do go knock on your door at whatever hours so you can move your car. What a joy. Rooms are average some time clean sometimes not.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r271424478-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>271424478</t>
+  </si>
+  <si>
+    <t>05/11/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay away! </t>
+  </si>
+  <si>
+    <t>First let me start with the positive: Matilda one of the house keepers was VERY NICE!! Loved her. The older gentleman at the front desk was nice, the middle aged man, not so much. Now for the negative: This place was scary to stay in! Did not feel safe at all! Not a second lock on the door.  There was a woman that had a room, looks like a resident,  had different men going in and out at different times.  THE WHOLE TIME WE WERE THERE! another  young couple we're residents there as well and smoking constantly on the walk way and having parties and had plenty of guest in their room. One of the cars were parked right in the middle of the parking lot blaring the music and then in the morning the same car was still there blocking in other guest cars! I believe the manager lived there in the room right above the office and also other family members. Forget breakfast, its a joke. No coffee makers in rooms, I even called before going and asked them if they had them in their rooms, they said they did. I understand people can be picky, but my family and I are not at all! We just want a clean room to lay our heads that we will be safe in, AND THIS WAS NOT THAT PLACE!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>First let me start with the positive: Matilda one of the house keepers was VERY NICE!! Loved her. The older gentleman at the front desk was nice, the middle aged man, not so much. Now for the negative: This place was scary to stay in! Did not feel safe at all! Not a second lock on the door.  There was a woman that had a room, looks like a resident,  had different men going in and out at different times.  THE WHOLE TIME WE WERE THERE! another  young couple we're residents there as well and smoking constantly on the walk way and having parties and had plenty of guest in their room. One of the cars were parked right in the middle of the parking lot blaring the music and then in the morning the same car was still there blocking in other guest cars! I believe the manager lived there in the room right above the office and also other family members. Forget breakfast, its a joke. No coffee makers in rooms, I even called before going and asked them if they had them in their rooms, they said they did. I understand people can be picky, but my family and I are not at all! We just want a clean room to lay our heads that we will be safe in, AND THIS WAS NOT THAT PLACE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r270463703-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>270463703</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>Scared to sleep</t>
+  </si>
+  <si>
+    <t>I have never stayed in a place and been scared! 
+We had to book this place last min. the day of because we got to Disneyland a day early, it was a Saturday night and was the cheapest we could find. The price was about $90 ...it really should have been $60.
+The front desk staff were nice, the room was actually okay. The sheets look like maybe dog hair was stuck in it. The corners of the walls were broken off.
+The smell of the room was musky! I could smell cigarette smoke, I think it was coming from the other room next to us. So we stuffed towels under the door way that connected to the other room.
+The place was loud, guess we're out side walking around, smoking,  one car had like 6 people just hanging out. The maid was outside standing in her apron eating from the breakfast bar looking really messy. The other maid knocked on our door before check out asking for dirty towels but couldn't even ask us in English ,we had to play sign language to figure out what she wanted. 
+We were scared to even leave our personal stuff in the room during the day , we put all our personal stuff in our car and locked up room. Such a shady place!!
+Oh and how gross was the breakfast bar ahh, such a mess..food all over the floor! We couldn't...I have never stayed in a place and been scared! We had to book this place last min. the day of because we got to Disneyland a day early, it was a Saturday night and was the cheapest we could find. The price was about $90 ...it really should have been $60.The front desk staff were nice, the room was actually okay. The sheets look like maybe dog hair was stuck in it. The corners of the walls were broken off.The smell of the room was musky! I could smell cigarette smoke, I think it was coming from the other room next to us. So we stuffed towels under the door way that connected to the other room.The place was loud, guess we're out side walking around, smoking,  one car had like 6 people just hanging out. The maid was outside standing in her apron eating from the breakfast bar looking really messy. The other maid knocked on our door before check out asking for dirty towels but couldn't even ask us in English ,we had to play sign language to figure out what she wanted. We were scared to even leave our personal stuff in the room during the day , we put all our personal stuff in our car and locked up room. Such a shady place!!Oh and how gross was the breakfast bar ahh, such a mess..food all over the floor! We couldn't eat the food, too scared.I feel bad cause the hotel it's self seed okay but the staff and guess we're messy, loud and not taking care of. MoreShow less</t>
+  </si>
+  <si>
+    <t>I have never stayed in a place and been scared! 
+We had to book this place last min. the day of because we got to Disneyland a day early, it was a Saturday night and was the cheapest we could find. The price was about $90 ...it really should have been $60.
+The front desk staff were nice, the room was actually okay. The sheets look like maybe dog hair was stuck in it. The corners of the walls were broken off.
+The smell of the room was musky! I could smell cigarette smoke, I think it was coming from the other room next to us. So we stuffed towels under the door way that connected to the other room.
+The place was loud, guess we're out side walking around, smoking,  one car had like 6 people just hanging out. The maid was outside standing in her apron eating from the breakfast bar looking really messy. The other maid knocked on our door before check out asking for dirty towels but couldn't even ask us in English ,we had to play sign language to figure out what she wanted. 
+We were scared to even leave our personal stuff in the room during the day , we put all our personal stuff in our car and locked up room. Such a shady place!!
+Oh and how gross was the breakfast bar ahh, such a mess..food all over the floor! We couldn't...I have never stayed in a place and been scared! We had to book this place last min. the day of because we got to Disneyland a day early, it was a Saturday night and was the cheapest we could find. The price was about $90 ...it really should have been $60.The front desk staff were nice, the room was actually okay. The sheets look like maybe dog hair was stuck in it. The corners of the walls were broken off.The smell of the room was musky! I could smell cigarette smoke, I think it was coming from the other room next to us. So we stuffed towels under the door way that connected to the other room.The place was loud, guess we're out side walking around, smoking,  one car had like 6 people just hanging out. The maid was outside standing in her apron eating from the breakfast bar looking really messy. The other maid knocked on our door before check out asking for dirty towels but couldn't even ask us in English ,we had to play sign language to figure out what she wanted. We were scared to even leave our personal stuff in the room during the day , we put all our personal stuff in our car and locked up room. Such a shady place!!Oh and how gross was the breakfast bar ahh, such a mess..food all over the floor! We couldn't eat the food, too scared.I feel bad cause the hotel it's self seed okay but the staff and guess we're messy, loud and not taking care of. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r269606269-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>269606269</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t>Spend the extra bucks, don't stay here!</t>
+  </si>
+  <si>
+    <t>Save yourself a headache and do not stay here!  There were holes in the walls and people outside smoking at late hours of the night. Loud music was prevalent and you can hear everything through the walls. The beds feel like you are sleeping on springs. This is only the beginning of what I could say and oh yea, don't forget how unfriendly the staff is.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r259674062-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>259674062</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>Almost anything is better than this place!</t>
+  </si>
+  <si>
+    <t>You can pay the same amount, or just a little bit more, and find a MUCH better hotel.
+1) The driveway into the hotel is (barely) one car wide. If someone is coming out, you have to back up into oncoming traffic to clear the entry. It's more dangerous than driving in Italy.
+2) There is fascade construction going on all over the interior parking area. And this parking court is VERY cramped. Don't try it in an SUV or full-sized car. You may never get out.
+3) The room walls are so thin that you have no trouble hearing the TV in the next room, even when it is set at a moderate volume.
+4) One of the walls in the room had a hole punched in the sheet rock. No attempt at repair.
+5) TV is tiny - maybe 27 inches.
+6) There was no closet. Just a rack for you to hang things on.
+7) Thin carpets that looked like they were at least 10 years old.
+8) Cracks in the plaster everywhere.
+9) The bedspread was one of those cheap polyester ones that even Kmart won't carry.
+10) The microwave was stacked on top of the minifridge.
+11) About a 30+ minute hike to Disneyland entrance. Better to drive it and pay the for parking.
+This is the kind of "motel" room that used to be the standard in cut-rate about 40 years ago. Now, with...You can pay the same amount, or just a little bit more, and find a MUCH better hotel.1) The driveway into the hotel is (barely) one car wide. If someone is coming out, you have to back up into oncoming traffic to clear the entry. It's more dangerous than driving in Italy.2) There is fascade construction going on all over the interior parking area. And this parking court is VERY cramped. Don't try it in an SUV or full-sized car. You may never get out.3) The room walls are so thin that you have no trouble hearing the TV in the next room, even when it is set at a moderate volume.4) One of the walls in the room had a hole punched in the sheet rock. No attempt at repair.5) TV is tiny - maybe 27 inches.6) There was no closet. Just a rack for you to hang things on.7) Thin carpets that looked like they were at least 10 years old.8) Cracks in the plaster everywhere.9) The bedspread was one of those cheap polyester ones that even Kmart won't carry.10) The microwave was stacked on top of the minifridge.11) About a 30+ minute hike to Disneyland entrance. Better to drive it and pay the for parking.This is the kind of "motel" room that used to be the standard in cut-rate about 40 years ago. Now, with Comfort Inns, Quality Inns, Days Inns, etc., you are able to get far better quality for the same price. I have no idea why this place is part of the Choice Hotels family. Steer clear of it!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>You can pay the same amount, or just a little bit more, and find a MUCH better hotel.
+1) The driveway into the hotel is (barely) one car wide. If someone is coming out, you have to back up into oncoming traffic to clear the entry. It's more dangerous than driving in Italy.
+2) There is fascade construction going on all over the interior parking area. And this parking court is VERY cramped. Don't try it in an SUV or full-sized car. You may never get out.
+3) The room walls are so thin that you have no trouble hearing the TV in the next room, even when it is set at a moderate volume.
+4) One of the walls in the room had a hole punched in the sheet rock. No attempt at repair.
+5) TV is tiny - maybe 27 inches.
+6) There was no closet. Just a rack for you to hang things on.
+7) Thin carpets that looked like they were at least 10 years old.
+8) Cracks in the plaster everywhere.
+9) The bedspread was one of those cheap polyester ones that even Kmart won't carry.
+10) The microwave was stacked on top of the minifridge.
+11) About a 30+ minute hike to Disneyland entrance. Better to drive it and pay the for parking.
+This is the kind of "motel" room that used to be the standard in cut-rate about 40 years ago. Now, with...You can pay the same amount, or just a little bit more, and find a MUCH better hotel.1) The driveway into the hotel is (barely) one car wide. If someone is coming out, you have to back up into oncoming traffic to clear the entry. It's more dangerous than driving in Italy.2) There is fascade construction going on all over the interior parking area. And this parking court is VERY cramped. Don't try it in an SUV or full-sized car. You may never get out.3) The room walls are so thin that you have no trouble hearing the TV in the next room, even when it is set at a moderate volume.4) One of the walls in the room had a hole punched in the sheet rock. No attempt at repair.5) TV is tiny - maybe 27 inches.6) There was no closet. Just a rack for you to hang things on.7) Thin carpets that looked like they were at least 10 years old.8) Cracks in the plaster everywhere.9) The bedspread was one of those cheap polyester ones that even Kmart won't carry.10) The microwave was stacked on top of the minifridge.11) About a 30+ minute hike to Disneyland entrance. Better to drive it and pay the for parking.This is the kind of "motel" room that used to be the standard in cut-rate about 40 years ago. Now, with Comfort Inns, Quality Inns, Days Inns, etc., you are able to get far better quality for the same price. I have no idea why this place is part of the Choice Hotels family. Steer clear of it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r259171634-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>259171634</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>It Was Cheap</t>
+  </si>
+  <si>
+    <t>I made the reservations on Hotels.com and due to a change in plans my wife went with our daughter (Disneyland) instead of me. The clerk at check in was not helpful at all when I didn't show up, even though my wife has the same last name and same number on her credit card. So I had to call Hotels.com and they faxed that it was OK. The clerk was all bubbly then, but after driving all day my wife wasn't in the mood for fake friendliness. Bottom line - this place is an old crappy hotel that is in serious need of major upgrades. Carpet coming up, mattresses that are probably as old as the building, no parking, and overall dinginess.It's too far to walk to Disneyland, especially at the end of a long day, but there are some cheap restaurants within walking distance.There are a lot of other hotels nearby that are much nicer, although you are going to pay more. My wife says it's worth it and we wont be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>I made the reservations on Hotels.com and due to a change in plans my wife went with our daughter (Disneyland) instead of me. The clerk at check in was not helpful at all when I didn't show up, even though my wife has the same last name and same number on her credit card. So I had to call Hotels.com and they faxed that it was OK. The clerk was all bubbly then, but after driving all day my wife wasn't in the mood for fake friendliness. Bottom line - this place is an old crappy hotel that is in serious need of major upgrades. Carpet coming up, mattresses that are probably as old as the building, no parking, and overall dinginess.It's too far to walk to Disneyland, especially at the end of a long day, but there are some cheap restaurants within walking distance.There are a lot of other hotels nearby that are much nicer, although you are going to pay more. My wife says it's worth it and we wont be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r256849213-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>256849213</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>Cheap hotel if you're on a budget.</t>
+  </si>
+  <si>
+    <t>We spent 5 nights here, I didn't want to spend a lot of money on a hotel so I picked the rodeway inn. Room was clean, pillows were very uncomfortable, bed was hard and had a burn spot on the blanket. The handle for the shower fell off but the water got hot and had good pressure. No wash clothes the first 2 nights, and the towels were super thin. The people who don't know how to park bugged me the most isn't it a safety issue to block other people in? There was parking available behind the hotel but the guests decide they want to park behind other guests who are parked in the covered parking. The chick who stayed in the room next to us couldn't control her kids who made all kinds of noise and knocked on people's doors including ours. I guess that's what I get for trying to save money.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We spent 5 nights here, I didn't want to spend a lot of money on a hotel so I picked the rodeway inn. Room was clean, pillows were very uncomfortable, bed was hard and had a burn spot on the blanket. The handle for the shower fell off but the water got hot and had good pressure. No wash clothes the first 2 nights, and the towels were super thin. The people who don't know how to park bugged me the most isn't it a safety issue to block other people in? There was parking available behind the hotel but the guests decide they want to park behind other guests who are parked in the covered parking. The chick who stayed in the room next to us couldn't control her kids who made all kinds of noise and knocked on people's doors including ours. I guess that's what I get for trying to save money.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r243693488-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>243693488</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>Awful hotel - you get what you pay for</t>
+  </si>
+  <si>
+    <t>Pros: InexpensiveCons: 1. Rooms are old and dirty, 2. Sheets, blankets, and towels are cheap and uncomfortable, 3. Breakfast is abysmal, 4. A/C units are loud, 5. Internet hardly works so if you are traveling for business don't expect to get anything done, 6. Staff is not responsive. My toilet stopped working and maintenance never came, 7. Bathroom windows are covered in sharpie so people can't see in, 8. Cannot request a partial refund/fee to check out early and stay somewhere else - once you check in you're stuck. Don't check in.Stay somewhere else for $10-$20 more a night.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r235469687-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>235469687</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Inexpensive, near Disneyland. Good coffee</t>
+  </si>
+  <si>
+    <t>We needed an inexpensive place for a night near Disneyland and this was fine. A few oddities--because of the location of the air-conditioner and a wall, the cool air only blew on the foot of the bed, so I had to sleep sideways at the bottom to be cool enough. Otherwise it was fine. The staff were nice. Breakfast was cereal and prepackaged pastries, but the coffee was surprisingly good--we went back for seconds on that.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r233969956-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>233969956</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>Below Average, there is better</t>
+  </si>
+  <si>
+    <t>This place provides a comfortable room but it stops there. The car park is overcrowded, breakfast average, staff not the best. I would suggest you could get better value by spending $10 more. It is around a 20 minute walk from Disneyland and the area seems safe</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r220770244-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>220770244</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Does what it says on the tin!</t>
+  </si>
+  <si>
+    <t>We stayed in the sleeps 6 suite.  Two doubles and bunk beds.  Perfectly adequate  for sleeping before and after Disney.  Clean.  Quiet.  Comfortable.  Took us 20 mins brisk walk.  Breakfast fine.  Hot coffee,  cereal,  toast,  doughnuts.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r216389445-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>216389445</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>a place to stay</t>
+  </si>
+  <si>
+    <t>By reading the reviews here I've come to the conclusion that I must be one of the few people who stays at a hotel and doesn't look for things to complain about the entire time. Yes there are people who double-park and yes they're currently doing renovations and yes the breakfast is nothing to write home about but the staff were more than helpful to my family and I during our stay.They even let me print some Dodger tickets on their computer and didn't charge me a dime.Would I stay here again? The answer is yes.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r213857188-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>213857188</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>Nothing Special</t>
+  </si>
+  <si>
+    <t>I've stayed here a few times over the years and as the quality of sleep has vastly improved, management and staff have gotten progressively worse. 
+In June when I went they were doing some exterior rejuvenation and I'm hoping the inside is next. There was also a volleyball championship going on so the teenagers making a mess and screaming/running room to room at ALL hours was a bit much. The fact that management did absolutely nothing was sad. 
+Beds are ok and decently comfortable. Pillows need to be refreshed but I bring my own. The restroom was very clean and linens/towels were fresh and fairly new. They offer free pool towels. The mini fridge/freezer worked well. We also had a microwave, iron, ironing board, hair dryer, large desk and alarm clock. It was great. Not great at all was the Internet connection! It was horrible when it did work. The tv also had some issues but we were in and out so it didn't bother us. 
+Parking is tight but secluded so I felt safe. I checked in using a cash deposit and got it back immediately. Check in was to the point and not at all welcoming. Check out was pretty much the same, they didn't ask how our stay was or care that we didn't get any rest with the loud music from the room next door. I usually don't have any issues with neighbors when I stay...I've stayed here a few times over the years and as the quality of sleep has vastly improved, management and staff have gotten progressively worse. In June when I went they were doing some exterior rejuvenation and I'm hoping the inside is next. There was also a volleyball championship going on so the teenagers making a mess and screaming/running room to room at ALL hours was a bit much. The fact that management did absolutely nothing was sad. Beds are ok and decently comfortable. Pillows need to be refreshed but I bring my own. The restroom was very clean and linens/towels were fresh and fairly new. They offer free pool towels. The mini fridge/freezer worked well. We also had a microwave, iron, ironing board, hair dryer, large desk and alarm clock. It was great. Not great at all was the Internet connection! It was horrible when it did work. The tv also had some issues but we were in and out so it didn't bother us. Parking is tight but secluded so I felt safe. I checked in using a cash deposit and got it back immediately. Check in was to the point and not at all welcoming. Check out was pretty much the same, they didn't ask how our stay was or care that we didn't get any rest with the loud music from the room next door. I usually don't have any issues with neighbors when I stay but it was disappointing to know that when I did they made zero attempt to fix the situation. Continental breakfast was not that great and day 2 they served stale donuts before serving fresh. So in the end, I'll be back because of the rates and proximity to the park/toy story lot. The ART (Anaheim Resort Transit) is right out front and is near Target, fast food, Walgreens. I can't beat it but as soon as these people realize how far customer service goes I won't "highly suggest" a stay to just anyone anytime soon. I also don't suggest walking to the parks either, it's way to far considering all the walking you'll do inside. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I've stayed here a few times over the years and as the quality of sleep has vastly improved, management and staff have gotten progressively worse. 
+In June when I went they were doing some exterior rejuvenation and I'm hoping the inside is next. There was also a volleyball championship going on so the teenagers making a mess and screaming/running room to room at ALL hours was a bit much. The fact that management did absolutely nothing was sad. 
+Beds are ok and decently comfortable. Pillows need to be refreshed but I bring my own. The restroom was very clean and linens/towels were fresh and fairly new. They offer free pool towels. The mini fridge/freezer worked well. We also had a microwave, iron, ironing board, hair dryer, large desk and alarm clock. It was great. Not great at all was the Internet connection! It was horrible when it did work. The tv also had some issues but we were in and out so it didn't bother us. 
+Parking is tight but secluded so I felt safe. I checked in using a cash deposit and got it back immediately. Check in was to the point and not at all welcoming. Check out was pretty much the same, they didn't ask how our stay was or care that we didn't get any rest with the loud music from the room next door. I usually don't have any issues with neighbors when I stay...I've stayed here a few times over the years and as the quality of sleep has vastly improved, management and staff have gotten progressively worse. In June when I went they were doing some exterior rejuvenation and I'm hoping the inside is next. There was also a volleyball championship going on so the teenagers making a mess and screaming/running room to room at ALL hours was a bit much. The fact that management did absolutely nothing was sad. Beds are ok and decently comfortable. Pillows need to be refreshed but I bring my own. The restroom was very clean and linens/towels were fresh and fairly new. They offer free pool towels. The mini fridge/freezer worked well. We also had a microwave, iron, ironing board, hair dryer, large desk and alarm clock. It was great. Not great at all was the Internet connection! It was horrible when it did work. The tv also had some issues but we were in and out so it didn't bother us. Parking is tight but secluded so I felt safe. I checked in using a cash deposit and got it back immediately. Check in was to the point and not at all welcoming. Check out was pretty much the same, they didn't ask how our stay was or care that we didn't get any rest with the loud music from the room next door. I usually don't have any issues with neighbors when I stay but it was disappointing to know that when I did they made zero attempt to fix the situation. Continental breakfast was not that great and day 2 they served stale donuts before serving fresh. So in the end, I'll be back because of the rates and proximity to the park/toy story lot. The ART (Anaheim Resort Transit) is right out front and is near Target, fast food, Walgreens. I can't beat it but as soon as these people realize how far customer service goes I won't "highly suggest" a stay to just anyone anytime soon. I also don't suggest walking to the parks either, it's way to far considering all the walking you'll do inside. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r206638705-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>206638705</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>Do NOT stay here;  anywhere else is better!</t>
+  </si>
+  <si>
+    <t>Rude, horrible staff.  Scary place!  I understand a deal, but I decided not to stay here and eat my deposit, it was so bad.Stayed closer to Disney in much better place for the same price!  Skip this one and find another deal.  I stay in lots of "deal" hotels and have never had this poor of an experience.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r206244270-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>206244270</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Fair for the price.</t>
+  </si>
+  <si>
+    <t>I got two rooms on a discount site and then came to Trip Advisor and got really concerned when I saw the awful reviews. I Must say I am glad that things are better than some of these reviews. The rooms were recently renovated. Bathroom tile all new and fresh paint but they really need new mattresses.We got two rooms, one with two queens and a family room.
+The family room had 2 queens and a set of bunk beds. The room was spacious and great for the kids. There was even a kid sized table in the kids room. It was two rooms together with a sliding French door to separate. TV's in both rooms as well.
+The other room we rented was 2 queen beds. It was just average but good enough for our needs (just an over nighter). Both types of room had a mini fridge and a small microwave.  The beds were not so comfortable. I asked my girls that stayed in the family room and they had the same experience.
+There was a continental breakfast which was suitable, nothing special.
+The biggest bummer was lack of parking. I was told we could park next door but we managed to snag a spot when someone left. Some people double parked and didn't tell the office which cars were theirs, blocking some people in.
+We didn't try the swimming pool but there were a few people in...I got two rooms on a discount site and then came to Trip Advisor and got really concerned when I saw the awful reviews. I Must say I am glad that things are better than some of these reviews. The rooms were recently renovated. Bathroom tile all new and fresh paint but they really need new mattresses.We got two rooms, one with two queens and a family room.The family room had 2 queens and a set of bunk beds. The room was spacious and great for the kids. There was even a kid sized table in the kids room. It was two rooms together with a sliding French door to separate. TV's in both rooms as well.The other room we rented was 2 queen beds. It was just average but good enough for our needs (just an over nighter). Both types of room had a mini fridge and a small microwave.  The beds were not so comfortable. I asked my girls that stayed in the family room and they had the same experience.There was a continental breakfast which was suitable, nothing special.The biggest bummer was lack of parking. I was told we could park next door but we managed to snag a spot when someone left. Some people double parked and didn't tell the office which cars were theirs, blocking some people in.We didn't try the swimming pool but there were a few people in It.If you're going to Disneyland, don't plan on walking. It is doable but you'll need your energy for walking all day in the park.MoreShow less</t>
+  </si>
+  <si>
+    <t>I got two rooms on a discount site and then came to Trip Advisor and got really concerned when I saw the awful reviews. I Must say I am glad that things are better than some of these reviews. The rooms were recently renovated. Bathroom tile all new and fresh paint but they really need new mattresses.We got two rooms, one with two queens and a family room.
+The family room had 2 queens and a set of bunk beds. The room was spacious and great for the kids. There was even a kid sized table in the kids room. It was two rooms together with a sliding French door to separate. TV's in both rooms as well.
+The other room we rented was 2 queen beds. It was just average but good enough for our needs (just an over nighter). Both types of room had a mini fridge and a small microwave.  The beds were not so comfortable. I asked my girls that stayed in the family room and they had the same experience.
+There was a continental breakfast which was suitable, nothing special.
+The biggest bummer was lack of parking. I was told we could park next door but we managed to snag a spot when someone left. Some people double parked and didn't tell the office which cars were theirs, blocking some people in.
+We didn't try the swimming pool but there were a few people in...I got two rooms on a discount site and then came to Trip Advisor and got really concerned when I saw the awful reviews. I Must say I am glad that things are better than some of these reviews. The rooms were recently renovated. Bathroom tile all new and fresh paint but they really need new mattresses.We got two rooms, one with two queens and a family room.The family room had 2 queens and a set of bunk beds. The room was spacious and great for the kids. There was even a kid sized table in the kids room. It was two rooms together with a sliding French door to separate. TV's in both rooms as well.The other room we rented was 2 queen beds. It was just average but good enough for our needs (just an over nighter). Both types of room had a mini fridge and a small microwave.  The beds were not so comfortable. I asked my girls that stayed in the family room and they had the same experience.There was a continental breakfast which was suitable, nothing special.The biggest bummer was lack of parking. I was told we could park next door but we managed to snag a spot when someone left. Some people double parked and didn't tell the office which cars were theirs, blocking some people in.We didn't try the swimming pool but there were a few people in It.If you're going to Disneyland, don't plan on walking. It is doable but you'll need your energy for walking all day in the park.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r204956530-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>204956530</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>This hotel defiantly needs to be remodeled. They have given it paint, but the fixtures, just don't fit or work right. It was like a clean flop house. The tub leaked on the bathroom floor, the sink faucet was so small the water ran on the counter when brushing your teeth, the pool and hot tube are only open till 9 pm, and the door lock didn't work correctly. The toilet also clogged, and no one would come and plunge it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r198633759-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>198633759</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>Eh....</t>
+  </si>
+  <si>
+    <t>I stayed with a group of friends at the Rodeway. I am really not that picky about my hotel room in general. I always travel on a budget – and generally won’t spend more than $100 a night. Because of this – my standards are relatively simple – clean rooms, safe area, and polite staff. I don’t ask for much. 
+The service was mostly fine. It was nothing out of the ordinary, but the front desk workers were friendly enough and attentive enough (other than having to wait to check in because the woman was on a personal call and one staffer which will be addressed later). We had to replace our keys virtually every day because they never worked twice – so we were in there a lot. 
+It didn’t look ‘shady’, though it was clear that we weren’t the only ‘low budget’ stays. It was very close to Disney – and right on the main walk (where most of the hotels are) so the traffic was fairly high - and no reason to feel unsafe at any point. 
+Cleanliness? Fuggedaboutit. I don’t believe a vacuum had been used prior to our stay. Whatever, I’m not a bare-footer in a hotel room. I bleached the bathroom. Yup. I’d recommend you grab a cleaner if you stay here. The sinks were covered in muck and it was clear that they had not touched the toilet. It was just unclean. Whatever,...I stayed with a group of friends at the Rodeway. I am really not that picky about my hotel room in general. I always travel on a budget – and generally won’t spend more than $100 a night. Because of this – my standards are relatively simple – clean rooms, safe area, and polite staff. I don’t ask for much. The service was mostly fine. It was nothing out of the ordinary, but the front desk workers were friendly enough and attentive enough (other than having to wait to check in because the woman was on a personal call and one staffer which will be addressed later). We had to replace our keys virtually every day because they never worked twice – so we were in there a lot. It didn’t look ‘shady’, though it was clear that we weren’t the only ‘low budget’ stays. It was very close to Disney – and right on the main walk (where most of the hotels are) so the traffic was fairly high - and no reason to feel unsafe at any point. Cleanliness? Fuggedaboutit. I don’t believe a vacuum had been used prior to our stay. Whatever, I’m not a bare-footer in a hotel room. I bleached the bathroom. Yup. I’d recommend you grab a cleaner if you stay here. The sinks were covered in muck and it was clear that they had not touched the toilet. It was just unclean. Whatever, it’s gross. It bothered me – but I prefer my cleaning job and often do this regardless of how a bathroom looks. So moving on to the beds. Yuck. I picked the awesome bed with the burn hole in the blanket! Woohoo. What a prize, am I right? I went up to the service desk, they had ‘no idea’ it was there. They had no other blankets to offer me either. Needless to say, they didn’t wash them, or they would have noticed. So I requested the linens be rewashed – to which they said certainly. We left for the day, came back, and supposedly they had been washed. They hadn’t. I stuck a piece of paper in the middle of the bed and it hadn’t moved. They insisted they washed it. I just didn’t want to argue on vacation. I would have happily washed them myself, but their washer and dryer (guaranteed) were both broken – I’m guessing they had been for a while. Yuck, I say again. Overall, not a great stay. We sucked it up because there was nothing in the area anywhere near our price range that had a room available – but yeah, I wouldn’t recommend staying here. Needless to say, we are looking elsewhere for our next trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I stayed with a group of friends at the Rodeway. I am really not that picky about my hotel room in general. I always travel on a budget – and generally won’t spend more than $100 a night. Because of this – my standards are relatively simple – clean rooms, safe area, and polite staff. I don’t ask for much. 
+The service was mostly fine. It was nothing out of the ordinary, but the front desk workers were friendly enough and attentive enough (other than having to wait to check in because the woman was on a personal call and one staffer which will be addressed later). We had to replace our keys virtually every day because they never worked twice – so we were in there a lot. 
+It didn’t look ‘shady’, though it was clear that we weren’t the only ‘low budget’ stays. It was very close to Disney – and right on the main walk (where most of the hotels are) so the traffic was fairly high - and no reason to feel unsafe at any point. 
+Cleanliness? Fuggedaboutit. I don’t believe a vacuum had been used prior to our stay. Whatever, I’m not a bare-footer in a hotel room. I bleached the bathroom. Yup. I’d recommend you grab a cleaner if you stay here. The sinks were covered in muck and it was clear that they had not touched the toilet. It was just unclean. Whatever,...I stayed with a group of friends at the Rodeway. I am really not that picky about my hotel room in general. I always travel on a budget – and generally won’t spend more than $100 a night. Because of this – my standards are relatively simple – clean rooms, safe area, and polite staff. I don’t ask for much. The service was mostly fine. It was nothing out of the ordinary, but the front desk workers were friendly enough and attentive enough (other than having to wait to check in because the woman was on a personal call and one staffer which will be addressed later). We had to replace our keys virtually every day because they never worked twice – so we were in there a lot. It didn’t look ‘shady’, though it was clear that we weren’t the only ‘low budget’ stays. It was very close to Disney – and right on the main walk (where most of the hotels are) so the traffic was fairly high - and no reason to feel unsafe at any point. Cleanliness? Fuggedaboutit. I don’t believe a vacuum had been used prior to our stay. Whatever, I’m not a bare-footer in a hotel room. I bleached the bathroom. Yup. I’d recommend you grab a cleaner if you stay here. The sinks were covered in muck and it was clear that they had not touched the toilet. It was just unclean. Whatever, it’s gross. It bothered me – but I prefer my cleaning job and often do this regardless of how a bathroom looks. So moving on to the beds. Yuck. I picked the awesome bed with the burn hole in the blanket! Woohoo. What a prize, am I right? I went up to the service desk, they had ‘no idea’ it was there. They had no other blankets to offer me either. Needless to say, they didn’t wash them, or they would have noticed. So I requested the linens be rewashed – to which they said certainly. We left for the day, came back, and supposedly they had been washed. They hadn’t. I stuck a piece of paper in the middle of the bed and it hadn’t moved. They insisted they washed it. I just didn’t want to argue on vacation. I would have happily washed them myself, but their washer and dryer (guaranteed) were both broken – I’m guessing they had been for a while. Yuck, I say again. Overall, not a great stay. We sucked it up because there was nothing in the area anywhere near our price range that had a room available – but yeah, I wouldn’t recommend staying here. Needless to say, we are looking elsewhere for our next trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r191516128-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>191516128</t>
+  </si>
+  <si>
+    <t>01/20/2014</t>
+  </si>
+  <si>
+    <t>Poor Service. Will not stay again.</t>
+  </si>
+  <si>
+    <t>My card was declined prior to arrival (from Sacramento) and I never received a call or any notification that my room was then given up. When I got there I was told that my reservation had been cancelled and that IF they had any rooms they would be able to book it. Luckily, they had some rooms available and I was able to stay there. I would have been livid if I was pushed away. After I got my room, they had me double park for the night and asked if I would rather hand over my car keys and they would move my car if need be, or if they could come knock on my door in the middle of the night. I was not about to hand over my car keys. Thankfully, they did not have to have me move my vehicle but just the thought that they don't have enough space for their rooms is irritating. After everything was finally done, the main clerk pulled out a huge bag of pot and said "Look what I found in one of the rooms". I laughed it off initially out of being uncomfortable but after thinking about it I thought to myself what kind of employee would show that off? That obviously means you have shady addicts who stay there. That's not something you want to advertise. Overall, Rodeway left a sour taste in my mouth and from the...My card was declined prior to arrival (from Sacramento) and I never received a call or any notification that my room was then given up. When I got there I was told that my reservation had been cancelled and that IF they had any rooms they would be able to book it. Luckily, they had some rooms available and I was able to stay there. I would have been livid if I was pushed away. After I got my room, they had me double park for the night and asked if I would rather hand over my car keys and they would move my car if need be, or if they could come knock on my door in the middle of the night. I was not about to hand over my car keys. Thankfully, they did not have to have me move my vehicle but just the thought that they don't have enough space for their rooms is irritating. After everything was finally done, the main clerk pulled out a huge bag of pot and said "Look what I found in one of the rooms". I laughed it off initially out of being uncomfortable but after thinking about it I thought to myself what kind of employee would show that off? That obviously means you have shady addicts who stay there. That's not something you want to advertise. Overall, Rodeway left a sour taste in my mouth and from the awful service and mediocre room, I will not be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>My card was declined prior to arrival (from Sacramento) and I never received a call or any notification that my room was then given up. When I got there I was told that my reservation had been cancelled and that IF they had any rooms they would be able to book it. Luckily, they had some rooms available and I was able to stay there. I would have been livid if I was pushed away. After I got my room, they had me double park for the night and asked if I would rather hand over my car keys and they would move my car if need be, or if they could come knock on my door in the middle of the night. I was not about to hand over my car keys. Thankfully, they did not have to have me move my vehicle but just the thought that they don't have enough space for their rooms is irritating. After everything was finally done, the main clerk pulled out a huge bag of pot and said "Look what I found in one of the rooms". I laughed it off initially out of being uncomfortable but after thinking about it I thought to myself what kind of employee would show that off? That obviously means you have shady addicts who stay there. That's not something you want to advertise. Overall, Rodeway left a sour taste in my mouth and from the...My card was declined prior to arrival (from Sacramento) and I never received a call or any notification that my room was then given up. When I got there I was told that my reservation had been cancelled and that IF they had any rooms they would be able to book it. Luckily, they had some rooms available and I was able to stay there. I would have been livid if I was pushed away. After I got my room, they had me double park for the night and asked if I would rather hand over my car keys and they would move my car if need be, or if they could come knock on my door in the middle of the night. I was not about to hand over my car keys. Thankfully, they did not have to have me move my vehicle but just the thought that they don't have enough space for their rooms is irritating. After everything was finally done, the main clerk pulled out a huge bag of pot and said "Look what I found in one of the rooms". I laughed it off initially out of being uncomfortable but after thinking about it I thought to myself what kind of employee would show that off? That obviously means you have shady addicts who stay there. That's not something you want to advertise. Overall, Rodeway left a sour taste in my mouth and from the awful service and mediocre room, I will not be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r187899203-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>187899203</t>
+  </si>
+  <si>
+    <t>12/17/2013</t>
+  </si>
+  <si>
+    <t>Incredible value near Disneyland and Convention Center</t>
+  </si>
+  <si>
+    <t>The location is as close to ideal as a budget property can be: 10 minute walk from the Convention Center and 20 minute walk from Disneyland.  The free continental breakfast isn't fancy: pastry, toast, cereal but it's included in the room fee.  Coffee is available 24 hours a day.  Parking is free, too!  Carl's Jr. and Del Taco nearby for inexpensive meals on the go.  Would gladly return when in Anaheim again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r186486535-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>186486535</t>
+  </si>
+  <si>
+    <t>12/01/2013</t>
+  </si>
+  <si>
+    <t>I never stay this hotel!</t>
+  </si>
+  <si>
+    <t>First of all, I had cancelled first reservation from Venera. But the hotelman said not has been cancelled and charged me 2rooms.However, I had gotten cancellation mail from Venera exactly. Although I showed him the mail, he did not any apology to me. I tried ask another woman, but she was unkind and she did not care about my explanation. In addtion, she did not try to see my mail. Also I have not paid me back.This is really bad. I was disappointed and made me so angry.I never use this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r184432813-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>184432813</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>Go anywhere besides this hotel. Please!</t>
+  </si>
+  <si>
+    <t>I have never had such a bad experience with a hotel. I reserved 2 rooms and they overbooked the hotel so that there was one room left on the day I was to arrive. They conveniently called to tell me hours before check-in that there was only one room for me. The person I talked to proceeded to make it seem like my fault because my reservation for 2 rooms was "confusing." Although they found another room for me at another hotel (therefore splitting my family on our family vacation) they still charged me for the 2 rooms that I booked at the Rodeway Inn. The man I dealt with asked me, "What is the problem now?" when I called about getting a refund for the room that I did not stay in, as if I was some demanding customer who could not be pleased. The room was disgusting, smelled of smoke, had stains on the towels and carpets, and the shampoo and conditioner provided were half empty. After the whole ordeal, I didn't even get an apology. Please, for your own sanity, safety, and cleanliness, go to another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have never had such a bad experience with a hotel. I reserved 2 rooms and they overbooked the hotel so that there was one room left on the day I was to arrive. They conveniently called to tell me hours before check-in that there was only one room for me. The person I talked to proceeded to make it seem like my fault because my reservation for 2 rooms was "confusing." Although they found another room for me at another hotel (therefore splitting my family on our family vacation) they still charged me for the 2 rooms that I booked at the Rodeway Inn. The man I dealt with asked me, "What is the problem now?" when I called about getting a refund for the room that I did not stay in, as if I was some demanding customer who could not be pleased. The room was disgusting, smelled of smoke, had stains on the towels and carpets, and the shampoo and conditioner provided were half empty. After the whole ordeal, I didn't even get an apology. Please, for your own sanity, safety, and cleanliness, go to another hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r182098133-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>182098133</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>There were crickets in the sink and the room smelled like stale pesticides.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There were repeated crickets entering our room(through the sink somehow??) both nights. They kept us awake both nights. No hot water at all. The room smelled dirty and like some kind of strange smell, maybe pesticide. Not worth the money to stay somewhere dirty, smelly, and void of all comfort. I like a good deal, but I would much rather pay 50$ more a night for cleanliness and hot water. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r176068396-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>176068396</t>
+  </si>
+  <si>
+    <t>09/06/2013</t>
+  </si>
+  <si>
+    <t>COCKROACHES!!!!!</t>
+  </si>
+  <si>
+    <t>There was plastic covering the fire alarm, big saftey issue. Room looked clean initially, but found a dried bar of soap stuck to the side of the tub and the floors left dirt on the bottom of our feet and socks. Bathroom smelled of mildew after the first shower. Woke up in the middle of the night to find COCKROACHES!!! I took pictures of these! By morning the floor was wet all around the A/C unit in the room. When I went to complain and check out, the staff was very offensive about the situation. They were not helpful at all and told me that I should have complained to them in the middle of the night when I first found the cockroaches so they could have come and inspected the room despite the fact that I had small sleeping children that had been traveling all day. Because I didn't call them in the middle of the night they refused to issue me a refund. We checked out and found another motel to stay in! Were suppose to stay 6 nights, but one was too much! NEVER STAYING THERE AGAIN! This place was disgusting and I would never stay or recommend this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>There was plastic covering the fire alarm, big saftey issue. Room looked clean initially, but found a dried bar of soap stuck to the side of the tub and the floors left dirt on the bottom of our feet and socks. Bathroom smelled of mildew after the first shower. Woke up in the middle of the night to find COCKROACHES!!! I took pictures of these! By morning the floor was wet all around the A/C unit in the room. When I went to complain and check out, the staff was very offensive about the situation. They were not helpful at all and told me that I should have complained to them in the middle of the night when I first found the cockroaches so they could have come and inspected the room despite the fact that I had small sleeping children that had been traveling all day. Because I didn't call them in the middle of the night they refused to issue me a refund. We checked out and found another motel to stay in! Were suppose to stay 6 nights, but one was too much! NEVER STAYING THERE AGAIN! This place was disgusting and I would never stay or recommend this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r175567024-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>175567024</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Not worth it</t>
+  </si>
+  <si>
+    <t>My family and I needed a hotel to stay at for a one night stay.  I have stayed at other properties in this chain and had good experiences.  While the staff was very friendly the room itself had a lot to be desired.  The beds are incredibly uncomfortable and the pillows were either thick and rock hard or incredibly thin.  The bathroom was full of gnats.  The bathtub had more than a few that were dead and I had to rinse it out on multiple occasions.  The water temperature for the shower never got above lukewarm (after letting it run for a few minutes to see if it would get at least warm!).  The towels had visible stains as well.  Overall I would not stay at this property again unless they put considerable time and effort into making it livable for its guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>My family and I needed a hotel to stay at for a one night stay.  I have stayed at other properties in this chain and had good experiences.  While the staff was very friendly the room itself had a lot to be desired.  The beds are incredibly uncomfortable and the pillows were either thick and rock hard or incredibly thin.  The bathroom was full of gnats.  The bathtub had more than a few that were dead and I had to rinse it out on multiple occasions.  The water temperature for the shower never got above lukewarm (after letting it run for a few minutes to see if it would get at least warm!).  The towels had visible stains as well.  Overall I would not stay at this property again unless they put considerable time and effort into making it livable for its guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r173972978-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>173972978</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>Great Room and Location for Value Priced Hotel</t>
+  </si>
+  <si>
+    <t>This is a Rodeway Inn, not a Hilton or Hyatt,  and I'll add one of the cheapest rooms in the Disneyland area, offered on Hotels.com.  For the price, it is a great value.  Room is just fine for the price.  Bed was newer, though a bit firmer than I'm used to.  Fridge and Microwave made it nice to heat leftovers from eating out.  It's surrounded by fast food and restaurants, and an AM/PM just about 100 yards away.  Walking distance to all the food varieties you could want.  WIFI was one of the fastest I've encountered at any hotel.  Was able to stream Netflix and Amazon videos with no problem.Breakfast was adequate for the price.  I wasn't expecting gourmet, so I was pleased with the muffins and donuts, danishes, cereals and toast.  Coffee offered all day.  I was just fine with my small muffin, coffee and OJ to start the morning, until I was ready to go somewhere for a hot meal.  Pool area was nice, and looked well kept.  All in all, this is a great hotel for the money.  It would be just fine for families needing a place that was comfortable and clean, for the Disney and Knott's Berry Farm vacation.  I'd be happy to return with my kids for a Disney weekend.  Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a Rodeway Inn, not a Hilton or Hyatt,  and I'll add one of the cheapest rooms in the Disneyland area, offered on Hotels.com.  For the price, it is a great value.  Room is just fine for the price.  Bed was newer, though a bit firmer than I'm used to.  Fridge and Microwave made it nice to heat leftovers from eating out.  It's surrounded by fast food and restaurants, and an AM/PM just about 100 yards away.  Walking distance to all the food varieties you could want.  WIFI was one of the fastest I've encountered at any hotel.  Was able to stream Netflix and Amazon videos with no problem.Breakfast was adequate for the price.  I wasn't expecting gourmet, so I was pleased with the muffins and donuts, danishes, cereals and toast.  Coffee offered all day.  I was just fine with my small muffin, coffee and OJ to start the morning, until I was ready to go somewhere for a hot meal.  Pool area was nice, and looked well kept.  All in all, this is a great hotel for the money.  It would be just fine for families needing a place that was comfortable and clean, for the Disney and Knott's Berry Farm vacation.  I'd be happy to return with my kids for a Disney weekend.  Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r167562476-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>167562476</t>
+  </si>
+  <si>
+    <t>07/14/2013</t>
+  </si>
+  <si>
+    <t>Good location with great price</t>
+  </si>
+  <si>
+    <t>Friendly staff and good prices, great if you looking for budget stay near Disneyland, the option of having 2 bed room connected is useful for large families to save money.I recommend it only if you are not looking for fancy stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r166397100-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>166397100</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>Great room, great price</t>
+  </si>
+  <si>
+    <t>I was skeptical about this hotel, but boy was I wrong!  Huge clean spacious room with fridge, and microwave.  Nice comfy beds!  Very convenient to everything.  Staff was friendly and helpful,  Breakfast buffet is cold cereals, toast, fruit, and danish, coffee, juice and milk.  Convenient for a quick breakfast before the parks.  Super quiet rooms.  Can't say enough nice things about this hotel!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r158295148-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>158295148</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>I thought this place was great nice and clean they had a heated pool and a Jacuzzi the prices r great the rooms r big overall nice!! The manager was wonderfull! And surrounded by resturants theres carls jr next door and tacobell across the street these ppl on here r just hi class complainers ^ if u wanted a 5 star hotel u should of got one! Love this place def going back!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r150362691-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>150362691</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>new years stay</t>
+  </si>
+  <si>
+    <t>We picked this hotel because it said that it was close to Disneyland and because it offered a room that had three queen beds in it. The location was reasonably close to Disneyland, it was walkable but after a long day at Disneyland you will be glad if you drove and paid the $15 for parking. The room was clean and spacious with three queen beds, the third bed had a door that could be closed so privacy was available. 
+The morning "continental breakfast" if you want to call it that was less than desireable. The coffee was horrific, we drink a lot of coffee and had to go to 7-11 for exceptable coffee. They had bread for toast, a few fruit items, two choices of cereal and donuts. There were three small tables so not nearly enough space. The parking was extremely limited, in fact night office worker had to move their car just so that we could park one night upon our return from the park. Speaking of the night office person was extremely rude at times like she didn't want to be there and only was doing her job because she had to be, she did not make a good first impression on us. With that being said she did do her job and all that was required just felt like pulling teeth at times.
+I would recommend this hotel as it is in a good location,...We picked this hotel because it said that it was close to Disneyland and because it offered a room that had three queen beds in it. The location was reasonably close to Disneyland, it was walkable but after a long day at Disneyland you will be glad if you drove and paid the $15 for parking. The room was clean and spacious with three queen beds, the third bed had a door that could be closed so privacy was available. The morning "continental breakfast" if you want to call it that was less than desireable. The coffee was horrific, we drink a lot of coffee and had to go to 7-11 for exceptable coffee. They had bread for toast, a few fruit items, two choices of cereal and donuts. There were three small tables so not nearly enough space. The parking was extremely limited, in fact night office worker had to move their car just so that we could park one night upon our return from the park. Speaking of the night office person was extremely rude at times like she didn't want to be there and only was doing her job because she had to be, she did not make a good first impression on us. With that being said she did do her job and all that was required just felt like pulling teeth at times.I would recommend this hotel as it is in a good location, plenty of nearby restaurants with good coffee and food, easy access from the highway and to Disneyland. The room layout was perfect for our needs and saved us the cost of having a second room.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>We picked this hotel because it said that it was close to Disneyland and because it offered a room that had three queen beds in it. The location was reasonably close to Disneyland, it was walkable but after a long day at Disneyland you will be glad if you drove and paid the $15 for parking. The room was clean and spacious with three queen beds, the third bed had a door that could be closed so privacy was available. 
+The morning "continental breakfast" if you want to call it that was less than desireable. The coffee was horrific, we drink a lot of coffee and had to go to 7-11 for exceptable coffee. They had bread for toast, a few fruit items, two choices of cereal and donuts. There were three small tables so not nearly enough space. The parking was extremely limited, in fact night office worker had to move their car just so that we could park one night upon our return from the park. Speaking of the night office person was extremely rude at times like she didn't want to be there and only was doing her job because she had to be, she did not make a good first impression on us. With that being said she did do her job and all that was required just felt like pulling teeth at times.
+I would recommend this hotel as it is in a good location,...We picked this hotel because it said that it was close to Disneyland and because it offered a room that had three queen beds in it. The location was reasonably close to Disneyland, it was walkable but after a long day at Disneyland you will be glad if you drove and paid the $15 for parking. The room was clean and spacious with three queen beds, the third bed had a door that could be closed so privacy was available. The morning "continental breakfast" if you want to call it that was less than desireable. The coffee was horrific, we drink a lot of coffee and had to go to 7-11 for exceptable coffee. They had bread for toast, a few fruit items, two choices of cereal and donuts. There were three small tables so not nearly enough space. The parking was extremely limited, in fact night office worker had to move their car just so that we could park one night upon our return from the park. Speaking of the night office person was extremely rude at times like she didn't want to be there and only was doing her job because she had to be, she did not make a good first impression on us. With that being said she did do her job and all that was required just felt like pulling teeth at times.I would recommend this hotel as it is in a good location, plenty of nearby restaurants with good coffee and food, easy access from the highway and to Disneyland. The room layout was perfect for our needs and saved us the cost of having a second room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r148392010-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>148392010</t>
+  </si>
+  <si>
+    <t>12/30/2012</t>
+  </si>
+  <si>
+    <t>Get what you pay for</t>
+  </si>
+  <si>
+    <t>Stayed one night before heading over to Disneyland. The guy at front counter was good and helpful. The room isn't anything great but it was clean and quiet. We had continetal breakfast checked out and left car there all day and walked to Disneyland. So saved money on breakfast and parking.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r146049730-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>146049730</t>
+  </si>
+  <si>
+    <t>11/23/2012</t>
+  </si>
+  <si>
+    <t>Believe Every Bad Review About This Place</t>
+  </si>
+  <si>
+    <t>I have travelled a lot in my life, business and personal.  This place ranks dead last.  Let me give you a bottom 8 list:
+1.  Advertised heated pool.  My kids (nine years old) called the pool water "arctic".  When I complained to management, they said the pool man had checked it and it was working to 98 degrees.  OK.  They must have meant NEGATIVE 98.   And I did make clear to management that we were talking about the swim pool, not the jacuzzi.
+2.  The area around the pool is covered with debris due to lack of maintenance.  My daughter got a cut in her foot walking around the pool.  Ruined a hotel towel with the blood from her foot before we got it bandaged.
+3.  Given two keys at check-in.  Make sure you get two if you are unlucky enough to stay here, because one won't work.
+4.  Shower head sits about 4 1/2 foot up from the shower floor.
+5.  Taking a shower longer than 5 minutes?  Then prepare for a bath because the water does not drain very fast.
+6.  And since I'm on the shower, one last thing.  The water comes in two temps, hot and very hot.  The knob wont turn enough to allow any cold water.
+7.  Angry that you coundn't take a decent shower?  Then you better not go to bed right after your shower because the mattress is a remnant from the...I have travelled a lot in my life, business and personal.  This place ranks dead last.  Let me give you a bottom 8 list:1.  Advertised heated pool.  My kids (nine years old) called the pool water "arctic".  When I complained to management, they said the pool man had checked it and it was working to 98 degrees.  OK.  They must have meant NEGATIVE 98.   And I did make clear to management that we were talking about the swim pool, not the jacuzzi.2.  The area around the pool is covered with debris due to lack of maintenance.  My daughter got a cut in her foot walking around the pool.  Ruined a hotel towel with the blood from her foot before we got it bandaged.3.  Given two keys at check-in.  Make sure you get two if you are unlucky enough to stay here, because one won't work.4.  Shower head sits about 4 1/2 foot up from the shower floor.5.  Taking a shower longer than 5 minutes?  Then prepare for a bath because the water does not drain very fast.6.  And since I'm on the shower, one last thing.  The water comes in two temps, hot and very hot.  The knob wont turn enough to allow any cold water.7.  Angry that you coundn't take a decent shower?  Then you better not go to bed right after your shower because the mattress is a remnant from the 1850s.  Imagine a cheap mattress sold for a twin bed.  My daughter calls it unbelievably hard.  And she sleeps on one of those cheap mattresses at home.8.  Internet will disconnect constantly.  Don't run too many megs or it will throw tantrums by the minute and you will spend more time typing in your password than getting any work done.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>rodewayinnanaheimca, Webmaster at Rodeway Inn &amp; Suites Near Anaheim Convention Center, responded to this reviewResponded August 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2013</t>
+  </si>
+  <si>
+    <t>I have travelled a lot in my life, business and personal.  This place ranks dead last.  Let me give you a bottom 8 list:
+1.  Advertised heated pool.  My kids (nine years old) called the pool water "arctic".  When I complained to management, they said the pool man had checked it and it was working to 98 degrees.  OK.  They must have meant NEGATIVE 98.   And I did make clear to management that we were talking about the swim pool, not the jacuzzi.
+2.  The area around the pool is covered with debris due to lack of maintenance.  My daughter got a cut in her foot walking around the pool.  Ruined a hotel towel with the blood from her foot before we got it bandaged.
+3.  Given two keys at check-in.  Make sure you get two if you are unlucky enough to stay here, because one won't work.
+4.  Shower head sits about 4 1/2 foot up from the shower floor.
+5.  Taking a shower longer than 5 minutes?  Then prepare for a bath because the water does not drain very fast.
+6.  And since I'm on the shower, one last thing.  The water comes in two temps, hot and very hot.  The knob wont turn enough to allow any cold water.
+7.  Angry that you coundn't take a decent shower?  Then you better not go to bed right after your shower because the mattress is a remnant from the...I have travelled a lot in my life, business and personal.  This place ranks dead last.  Let me give you a bottom 8 list:1.  Advertised heated pool.  My kids (nine years old) called the pool water "arctic".  When I complained to management, they said the pool man had checked it and it was working to 98 degrees.  OK.  They must have meant NEGATIVE 98.   And I did make clear to management that we were talking about the swim pool, not the jacuzzi.2.  The area around the pool is covered with debris due to lack of maintenance.  My daughter got a cut in her foot walking around the pool.  Ruined a hotel towel with the blood from her foot before we got it bandaged.3.  Given two keys at check-in.  Make sure you get two if you are unlucky enough to stay here, because one won't work.4.  Shower head sits about 4 1/2 foot up from the shower floor.5.  Taking a shower longer than 5 minutes?  Then prepare for a bath because the water does not drain very fast.6.  And since I'm on the shower, one last thing.  The water comes in two temps, hot and very hot.  The knob wont turn enough to allow any cold water.7.  Angry that you coundn't take a decent shower?  Then you better not go to bed right after your shower because the mattress is a remnant from the 1850s.  Imagine a cheap mattress sold for a twin bed.  My daughter calls it unbelievably hard.  And she sleeps on one of those cheap mattresses at home.8.  Internet will disconnect constantly.  Don't run too many megs or it will throw tantrums by the minute and you will spend more time typing in your password than getting any work done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r143733620-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>143733620</t>
+  </si>
+  <si>
+    <t>10/25/2012</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>I stayed here for a conference in Anaheim.  It was fine - $50 for a king "suite" which meant there was a TV and microwave included. Wifi and breakfast were included in the cost.  The walk to the Disneyland area was probably a mile.  There was a Budget car rental right across the street which served us well.  Supershuttle delivered me roundtrip from LAX for $15.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r136861119-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>136861119</t>
+  </si>
+  <si>
+    <t>08/10/2012</t>
+  </si>
+  <si>
+    <t>Horrible room, even for the cheap rate!</t>
+  </si>
+  <si>
+    <t>If we had HOT water in the shower both (or, maybe even ONE of our days) the cheap rate MIGHT have been worth it.  Totally disappointed in how management and the owner have not responded or made it right.  I intend to dispute the charges on my credit card.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>If we had HOT water in the shower both (or, maybe even ONE of our days) the cheap rate MIGHT have been worth it.  Totally disappointed in how management and the owner have not responded or made it right.  I intend to dispute the charges on my credit card.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r133432161-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>133432161</t>
+  </si>
+  <si>
+    <t>07/04/2012</t>
+  </si>
+  <si>
+    <t>OK for the Price</t>
+  </si>
+  <si>
+    <t>There are much better motels around than this one, but if you are there for Disneyland and want to spend most of your money there this will do for the price.  The advantage is the location where it is about a straight walk on Harbor about 1 mile.  However, if you have smaller children that mile walk may not be so easy after a full day at Disney and doesn't allow you to easily leave Disney midday to rest at motel and come back later. There is public bus for $3 one way.   So one key of staying here is whether you can walk that mile, stay all day at Disney, and walk back a mile, and save $15 Disney parking.  Avoid rooms 221/222 which seem like an addition and was very musty.  Other rooms are ok.  The shower faucet broke off but they fixed it right away.  The staff is ok, I liked the night manager man.  Half the lot has covered parking to keep your car cool if you leave it there all day (you must put the parking sticker on the dash or get towed).  The wifi is password protected and only worked a quarter of the time for me.  There is no coffeemaker (you can get in the lobby) and no Gideon bibles.  The breakfast is just sweet rolls, toast, coffee, cereal and juice.  There is a Safeway grocery, cheaper eating places, and strip mall shopping...There are much better motels around than this one, but if you are there for Disneyland and want to spend most of your money there this will do for the price.  The advantage is the location where it is about a straight walk on Harbor about 1 mile.  However, if you have smaller children that mile walk may not be so easy after a full day at Disney and doesn't allow you to easily leave Disney midday to rest at motel and come back later. There is public bus for $3 one way.   So one key of staying here is whether you can walk that mile, stay all day at Disney, and walk back a mile, and save $15 Disney parking.  Avoid rooms 221/222 which seem like an addition and was very musty.  Other rooms are ok.  The shower faucet broke off but they fixed it right away.  The staff is ok, I liked the night manager man.  Half the lot has covered parking to keep your car cool if you leave it there all day (you must put the parking sticker on the dash or get towed).  The wifi is password protected and only worked a quarter of the time for me.  There is no coffeemaker (you can get in the lobby) and no Gideon bibles.  The breakfast is just sweet rolls, toast, coffee, cereal and juice.  There is a Safeway grocery, cheaper eating places, and strip mall shopping about a mile south on and near Harbor.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>There are much better motels around than this one, but if you are there for Disneyland and want to spend most of your money there this will do for the price.  The advantage is the location where it is about a straight walk on Harbor about 1 mile.  However, if you have smaller children that mile walk may not be so easy after a full day at Disney and doesn't allow you to easily leave Disney midday to rest at motel and come back later. There is public bus for $3 one way.   So one key of staying here is whether you can walk that mile, stay all day at Disney, and walk back a mile, and save $15 Disney parking.  Avoid rooms 221/222 which seem like an addition and was very musty.  Other rooms are ok.  The shower faucet broke off but they fixed it right away.  The staff is ok, I liked the night manager man.  Half the lot has covered parking to keep your car cool if you leave it there all day (you must put the parking sticker on the dash or get towed).  The wifi is password protected and only worked a quarter of the time for me.  There is no coffeemaker (you can get in the lobby) and no Gideon bibles.  The breakfast is just sweet rolls, toast, coffee, cereal and juice.  There is a Safeway grocery, cheaper eating places, and strip mall shopping...There are much better motels around than this one, but if you are there for Disneyland and want to spend most of your money there this will do for the price.  The advantage is the location where it is about a straight walk on Harbor about 1 mile.  However, if you have smaller children that mile walk may not be so easy after a full day at Disney and doesn't allow you to easily leave Disney midday to rest at motel and come back later. There is public bus for $3 one way.   So one key of staying here is whether you can walk that mile, stay all day at Disney, and walk back a mile, and save $15 Disney parking.  Avoid rooms 221/222 which seem like an addition and was very musty.  Other rooms are ok.  The shower faucet broke off but they fixed it right away.  The staff is ok, I liked the night manager man.  Half the lot has covered parking to keep your car cool if you leave it there all day (you must put the parking sticker on the dash or get towed).  The wifi is password protected and only worked a quarter of the time for me.  There is no coffeemaker (you can get in the lobby) and no Gideon bibles.  The breakfast is just sweet rolls, toast, coffee, cereal and juice.  There is a Safeway grocery, cheaper eating places, and strip mall shopping about a mile south on and near Harbor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r127147857-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>127147857</t>
+  </si>
+  <si>
+    <t>04/02/2012</t>
+  </si>
+  <si>
+    <t>Dated but clean and good customer service</t>
+  </si>
+  <si>
+    <t>I rented two rooms for three nights for my family. Both rooms were dated and a little worn but was expecting this for the price paid. The rooms were clean and the customer service was good. No problems with a parking space as some people have complained about. The breakfast selection was fairly good with an ample supply even at 9:00 AM.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r125776270-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>125776270</t>
+  </si>
+  <si>
+    <t>03/07/2012</t>
+  </si>
+  <si>
+    <t>Great value &amp; service for a night's stay.</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here for 1 night in early March 2012. We chose the Rodeway based on it's value ($43/night from Expedia) and fairly favorable reviews compared to similarly-priced value hotels in the Disneyland area. It was just a place to shower &amp; sleep to recuperate after a 24-hours-in-a-row stay at Disneyland. 
+We weren't expecting too much but were pleasantly surprised. The lady at the front desk, Stacey, was extremely warm &amp; friendly and that put us at ease from check-in. first impressions of the room were very favorable, it was clean, did not have any unpleasant odors and was more spacious than expected. 
+The bedding was clean, if not a bit old. We did find a couple small, old stains on the comforter and a pillowcase but as they clearly seemed old and washed over many times, it was not an issue. No bugs were found, but as a standard practice we also always spray down every hotel bed &amp; linens with Good Night bed bug spray (found at Bed Bath &amp; Beyond) and bring our own pillows &amp; pillowcases. The King-size bed was rather comfortable. 
+The room was very clean except for some dust buildup in the carpeted corners by the nightstands (see photo), but this was the only issue. 
+Bathroom was clean as well. Good water pressure from the shower &amp; the water stayed hot through 2 consecutive showers. The vanity/sink area was very spacious,...My boyfriend and I stayed here for 1 night in early March 2012. We chose the Rodeway based on it's value ($43/night from Expedia) and fairly favorable reviews compared to similarly-priced value hotels in the Disneyland area. It was just a place to shower &amp; sleep to recuperate after a 24-hours-in-a-row stay at Disneyland. We weren't expecting too much but were pleasantly surprised. The lady at the front desk, Stacey, was extremely warm &amp; friendly and that put us at ease from check-in. first impressions of the room were very favorable, it was clean, did not have any unpleasant odors and was more spacious than expected. The bedding was clean, if not a bit old. We did find a couple small, old stains on the comforter and a pillowcase but as they clearly seemed old and washed over many times, it was not an issue. No bugs were found, but as a standard practice we also always spray down every hotel bed &amp; linens with Good Night bed bug spray (found at Bed Bath &amp; Beyond) and bring our own pillows &amp; pillowcases. The King-size bed was rather comfortable. The room was very clean except for some dust buildup in the carpeted corners by the nightstands (see photo), but this was the only issue. Bathroom was clean as well. Good water pressure from the shower &amp; the water stayed hot through 2 consecutive showers. The vanity/sink area was very spacious, great if you need a lot of space to prep &amp; groom. TV was a non-flatscreen but I wouldn't expect that. Ample amount of cable channels. Checkout was a very easy process and once again, Stacey was a pleasure. She let us know about the Choice Privileges program to earn points on future stays and to be sure to call her directly if we wanted to book again, as she can always beat the prices online. All in all it was a great night's stay!It is close to many eateries (Taco Bell, Denny's, Ruth's Chris, Jack in the Box, Buca di Beppo) and a few mins from the parks by car and about a 20 min walk, though if you have little one I would recommend using the ART shuttle.MoreShow less</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here for 1 night in early March 2012. We chose the Rodeway based on it's value ($43/night from Expedia) and fairly favorable reviews compared to similarly-priced value hotels in the Disneyland area. It was just a place to shower &amp; sleep to recuperate after a 24-hours-in-a-row stay at Disneyland. 
+We weren't expecting too much but were pleasantly surprised. The lady at the front desk, Stacey, was extremely warm &amp; friendly and that put us at ease from check-in. first impressions of the room were very favorable, it was clean, did not have any unpleasant odors and was more spacious than expected. 
+The bedding was clean, if not a bit old. We did find a couple small, old stains on the comforter and a pillowcase but as they clearly seemed old and washed over many times, it was not an issue. No bugs were found, but as a standard practice we also always spray down every hotel bed &amp; linens with Good Night bed bug spray (found at Bed Bath &amp; Beyond) and bring our own pillows &amp; pillowcases. The King-size bed was rather comfortable. 
+The room was very clean except for some dust buildup in the carpeted corners by the nightstands (see photo), but this was the only issue. 
+Bathroom was clean as well. Good water pressure from the shower &amp; the water stayed hot through 2 consecutive showers. The vanity/sink area was very spacious,...My boyfriend and I stayed here for 1 night in early March 2012. We chose the Rodeway based on it's value ($43/night from Expedia) and fairly favorable reviews compared to similarly-priced value hotels in the Disneyland area. It was just a place to shower &amp; sleep to recuperate after a 24-hours-in-a-row stay at Disneyland. We weren't expecting too much but were pleasantly surprised. The lady at the front desk, Stacey, was extremely warm &amp; friendly and that put us at ease from check-in. first impressions of the room were very favorable, it was clean, did not have any unpleasant odors and was more spacious than expected. The bedding was clean, if not a bit old. We did find a couple small, old stains on the comforter and a pillowcase but as they clearly seemed old and washed over many times, it was not an issue. No bugs were found, but as a standard practice we also always spray down every hotel bed &amp; linens with Good Night bed bug spray (found at Bed Bath &amp; Beyond) and bring our own pillows &amp; pillowcases. The King-size bed was rather comfortable. The room was very clean except for some dust buildup in the carpeted corners by the nightstands (see photo), but this was the only issue. Bathroom was clean as well. Good water pressure from the shower &amp; the water stayed hot through 2 consecutive showers. The vanity/sink area was very spacious, great if you need a lot of space to prep &amp; groom. TV was a non-flatscreen but I wouldn't expect that. Ample amount of cable channels. Checkout was a very easy process and once again, Stacey was a pleasure. She let us know about the Choice Privileges program to earn points on future stays and to be sure to call her directly if we wanted to book again, as she can always beat the prices online. All in all it was a great night's stay!It is close to many eateries (Taco Bell, Denny's, Ruth's Chris, Jack in the Box, Buca di Beppo) and a few mins from the parks by car and about a 20 min walk, though if you have little one I would recommend using the ART shuttle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r124877098-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>124877098</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>59 Rooms But Only 48 parking stalls, we were towed away!!!</t>
+  </si>
+  <si>
+    <t>We reserved a 3 bedroom suite and almost brought two cars to Disneyland, however as luck had only brought one. We spoke to the front desk about how best to get to Disneyland as it was over a mile walk. They suggested we drive knowing that there was only 48 lucky people who were going to be able to park that evening! We returned after midnight to find the hotel surrounded with cops, there were fights breaking out and people were double parking, it was a nightmere! We were told to park across the street at Taco Bell that it was cool. My husband went back out to the car to find a tow truck hauling our truck away! We stopped this and decided to go home. Dont go here its a dump, honestly 58 rooms and 48 parking stalls, the comfort Inn next door doesnt have extra stalls either (we were told to park there too) am working on getting a refund...good luck!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>rodewayinnanaheimca, Webmaster at Rodeway Inn &amp; Suites Near Anaheim Convention Center, responded to this reviewResponded April 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2012</t>
+  </si>
+  <si>
+    <t>We reserved a 3 bedroom suite and almost brought two cars to Disneyland, however as luck had only brought one. We spoke to the front desk about how best to get to Disneyland as it was over a mile walk. They suggested we drive knowing that there was only 48 lucky people who were going to be able to park that evening! We returned after midnight to find the hotel surrounded with cops, there were fights breaking out and people were double parking, it was a nightmere! We were told to park across the street at Taco Bell that it was cool. My husband went back out to the car to find a tow truck hauling our truck away! We stopped this and decided to go home. Dont go here its a dump, honestly 58 rooms and 48 parking stalls, the comfort Inn next door doesnt have extra stalls either (we were told to park there too) am working on getting a refund...good luck!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r122712341-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>122712341</t>
+  </si>
+  <si>
+    <t>01/07/2012</t>
+  </si>
+  <si>
+    <t>Good Enough if others are booked</t>
+  </si>
+  <si>
+    <t>Just stayed 2 wks over Christmas/New Years - I waited to late to decide to travel so every place I would have preferred was  booked so I got this motel in a flight/hotel combo on Priceline. Clean, quiet, Stacie at the front desk is most helpful in travel  help/ hotel needs, pool too small for more than 2 kids, not enough chairs to sit and sun, if pool is dirty, staff won't clean it, but wait for "pool guy", breakfast is a carbohydrate nightmare, dull, and just plain unhealthy (all breads) of $1 white bread, 3 kinds of hostess donuts, 3 kinds of fruit pastries, cardboard-type cereal, 1 gal of milk is unhealthily kept in a tray of ice where only the bottom of the milk is cold. Nearby fast food is taco bell, Carls Jr, Dennys, Jack in Box, and an AMPM Gas station with snacks/alcohol.  About 2 blocks either direction is Target w/ grocery, Red Robin, Joes Crab Shack, an Italian place, Mortons Steak, Ruth Chris'.If your only going to sleep while spending more time at Disney or the area, then this motel is fine.  If you want a better breakfast and niceties, go somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Just stayed 2 wks over Christmas/New Years - I waited to late to decide to travel so every place I would have preferred was  booked so I got this motel in a flight/hotel combo on Priceline. Clean, quiet, Stacie at the front desk is most helpful in travel  help/ hotel needs, pool too small for more than 2 kids, not enough chairs to sit and sun, if pool is dirty, staff won't clean it, but wait for "pool guy", breakfast is a carbohydrate nightmare, dull, and just plain unhealthy (all breads) of $1 white bread, 3 kinds of hostess donuts, 3 kinds of fruit pastries, cardboard-type cereal, 1 gal of milk is unhealthily kept in a tray of ice where only the bottom of the milk is cold. Nearby fast food is taco bell, Carls Jr, Dennys, Jack in Box, and an AMPM Gas station with snacks/alcohol.  About 2 blocks either direction is Target w/ grocery, Red Robin, Joes Crab Shack, an Italian place, Mortons Steak, Ruth Chris'.If your only going to sleep while spending more time at Disney or the area, then this motel is fine.  If you want a better breakfast and niceties, go somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r122343556-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>122343556</t>
+  </si>
+  <si>
+    <t>12/31/2011</t>
+  </si>
+  <si>
+    <t>Great place for the right price!</t>
+  </si>
+  <si>
+    <t>We booked this room for a Friday before New Years Eve and found it to be a great place overall. You can't beat the price. We drove up from San Diego and they let us park early (7 am) and even check in, then we came later to take a much needed Disney break and got the room key. My brother and his family liked it so much they decided to get a room too! (They were going to stay with friends).I had a slight issue with a noisy toilet, and they promptly gave us another room. We saw the maintenance guy go fix the issue as soon as we moved rooms! The room (both) were clean and lots of recent upgrades (carpet, paint, etc). The beds seemed a little older but they fit the bill and were clean. I have to say that every staff member we encountered was very courteous and friendly, housekeepers and all. Front desk seemed very eager to please.Breakfast wasn't much but was good, mainly pastries and cereal. And hey, it's free! Some fresh fruit might be nice (bananas or oranges maybe) just for some healthier options.I would definitely stay again and appreciate the service.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked this room for a Friday before New Years Eve and found it to be a great place overall. You can't beat the price. We drove up from San Diego and they let us park early (7 am) and even check in, then we came later to take a much needed Disney break and got the room key. My brother and his family liked it so much they decided to get a room too! (They were going to stay with friends).I had a slight issue with a noisy toilet, and they promptly gave us another room. We saw the maintenance guy go fix the issue as soon as we moved rooms! The room (both) were clean and lots of recent upgrades (carpet, paint, etc). The beds seemed a little older but they fit the bill and were clean. I have to say that every staff member we encountered was very courteous and friendly, housekeepers and all. Front desk seemed very eager to please.Breakfast wasn't much but was good, mainly pastries and cereal. And hey, it's free! Some fresh fruit might be nice (bananas or oranges maybe) just for some healthier options.I would definitely stay again and appreciate the service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r121633981-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>121633981</t>
+  </si>
+  <si>
+    <t>12/11/2011</t>
+  </si>
+  <si>
+    <t>Can't be beat for the money</t>
+  </si>
+  <si>
+    <t>The room was clean. It is an older facility, so don't expect all of the modern conveniences. The covered parking was a blessing and I liked not having to pay extra for parking. There is a shuttle to the local attractions for $4 per day if you don't want to pay parking there, either. My stay was very quiet and uneventful. The free wi-fi was a blessing. Every member of the staff was courteous and helpful. The microwave and fridge were helpful as I was there for work and on a budget. It would have been nice to have larger coffee cups (with lids) from the continental breakfast buffet, though.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>The room was clean. It is an older facility, so don't expect all of the modern conveniences. The covered parking was a blessing and I liked not having to pay extra for parking. There is a shuttle to the local attractions for $4 per day if you don't want to pay parking there, either. My stay was very quiet and uneventful. The free wi-fi was a blessing. Every member of the staff was courteous and helpful. The microwave and fridge were helpful as I was there for work and on a budget. It would have been nice to have larger coffee cups (with lids) from the continental breakfast buffet, though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r119296745-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>119296745</t>
+  </si>
+  <si>
+    <t>10/14/2011</t>
+  </si>
+  <si>
+    <t>HORRIBLE HORRIBLE NEVER AGAIN!</t>
+  </si>
+  <si>
+    <t>HORRIBLE HORRIBLE!!!Attention potential guests, this is one of the worst places that I have stayed at. First, we were checked into a room full of bugs, we reported that to the management and the room was changed. Filthy matresses, torn bedsheets and bed covers was what were were welcomed to. And to top it all off unprofessional management that charges 3 dollars for 3 pages of printout!!! Are you kidding me? While most places will give you 3 pages of prinout for free in this world and age, here we have this place that charges 1 dollar per page of printout. The shower was not clean at all, poor quality toilet papers, nothing in the shower to stop the water to take a bath, I would put up pictures if I had the option but I am new to this website so not sure. I would give ZERO stars if possible. There is this saying - You get what you pay for, well in this case that does not hold true, here you don't even get what you pay for. I am here for a few more days, if the owners are reading this and would like to talk to me, I will be happy to share a lot of feedback with them. NEVER AGAIN!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>rodewayinnanaheimca, Webmaster at Rodeway Inn &amp; Suites Near Anaheim Convention Center, responded to this reviewResponded November 30, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2011</t>
+  </si>
+  <si>
+    <t>HORRIBLE HORRIBLE!!!Attention potential guests, this is one of the worst places that I have stayed at. First, we were checked into a room full of bugs, we reported that to the management and the room was changed. Filthy matresses, torn bedsheets and bed covers was what were were welcomed to. And to top it all off unprofessional management that charges 3 dollars for 3 pages of printout!!! Are you kidding me? While most places will give you 3 pages of prinout for free in this world and age, here we have this place that charges 1 dollar per page of printout. The shower was not clean at all, poor quality toilet papers, nothing in the shower to stop the water to take a bath, I would put up pictures if I had the option but I am new to this website so not sure. I would give ZERO stars if possible. There is this saying - You get what you pay for, well in this case that does not hold true, here you don't even get what you pay for. I am here for a few more days, if the owners are reading this and would like to talk to me, I will be happy to share a lot of feedback with them. NEVER AGAIN!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r118095276-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>118095276</t>
+  </si>
+  <si>
+    <t>09/13/2011</t>
+  </si>
+  <si>
+    <t>Surprisingly Good</t>
+  </si>
+  <si>
+    <t>We only stayed here for one night, but the location and property was surprisingly good.  The family suites have two bedrooms (complete with door separating the two rooms).  Hotel offers a free shuttle to Disneyland which is nice.  When I originally booked our room, the front desk attendant told me that the shuttle also ran to Knotts Berry Farm, but it does not.We didn't use the small pool area, but there were almost always kids there, so water temperature must have been warm enough.One bit of advice regarding parking at night.  There seemed to always be more cars then parking spots, so don't be too late arriving each night.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r117152586-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>117152586</t>
+  </si>
+  <si>
+    <t>08/23/2011</t>
+  </si>
+  <si>
+    <t>eh... you get what you pay for</t>
+  </si>
+  <si>
+    <t>Hotel is ok.  Staff was nice and helpful.  Close to Disney and on the shuttle route.  Room was clean and fairly well maintained. Families will probably love the fridge in the room.  With all that, the hotel and rooms are low quality.  Towels are thin, small, scratchy.  The beds are not comfortable, with linens that are not soft.  Continental breakfast was basic--orange juice didn't taste good.Pictures with this listing are misleading.  Pool is tiny, despite how big it looks in the pictures.Still, decent place to stay close to Disney.  I won't choose it again, but it definitely served its purpose for this trip.  And my greatest kudos was that they put us in a room away from my MIL. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>rodewayinnanaheimca, Webmaster at Rodeway Inn &amp; Suites Near Anaheim Convention Center, responded to this reviewResponded September 17, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2011</t>
+  </si>
+  <si>
+    <t>Hotel is ok.  Staff was nice and helpful.  Close to Disney and on the shuttle route.  Room was clean and fairly well maintained. Families will probably love the fridge in the room.  With all that, the hotel and rooms are low quality.  Towels are thin, small, scratchy.  The beds are not comfortable, with linens that are not soft.  Continental breakfast was basic--orange juice didn't taste good.Pictures with this listing are misleading.  Pool is tiny, despite how big it looks in the pictures.Still, decent place to stay close to Disney.  I won't choose it again, but it definitely served its purpose for this trip.  And my greatest kudos was that they put us in a room away from my MIL. :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r94007025-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>94007025</t>
+  </si>
+  <si>
+    <t>01/21/2011</t>
+  </si>
+  <si>
+    <t>Very low end budget /motel looking. YET worth every last penny</t>
+  </si>
+  <si>
+    <t>I stay on South Harbor Blvd every year.  Sure enough, the more expensive hotels are so much better looking than this one.  This place looks a bit run down.  YET was clean, quite and worth every penny.  I believe it takes a realistic person who is not snooty about where they want to stay.. Bottom line:  If you want to save money.. This is the place to stay.  They were really nice, the rooms were really clean.  Nothing special, just a no-nonsense approach to lodging.  If you want a nice place to stay with a little fanciness, this is not the place.  But if you want to save money and have a caring front counter staff.  The American woman and man that works the counter are SUPER SUPER nice.  You can tell they really care about how you feel, that's what made the difference.  The only funny thing I noticed was that you can hear people in the next room pretty easy.. In fact, I swore I heard someone snoring.  If you are going to the Convention center.. this has to be the cheapest place that is well worth it.  I hope this review helped.  My Name is Jeff and I stayed in room 112.  By the way.. had perfect internet the whole time too!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>I stay on South Harbor Blvd every year.  Sure enough, the more expensive hotels are so much better looking than this one.  This place looks a bit run down.  YET was clean, quite and worth every penny.  I believe it takes a realistic person who is not snooty about where they want to stay.. Bottom line:  If you want to save money.. This is the place to stay.  They were really nice, the rooms were really clean.  Nothing special, just a no-nonsense approach to lodging.  If you want a nice place to stay with a little fanciness, this is not the place.  But if you want to save money and have a caring front counter staff.  The American woman and man that works the counter are SUPER SUPER nice.  You can tell they really care about how you feel, that's what made the difference.  The only funny thing I noticed was that you can hear people in the next room pretty easy.. In fact, I swore I heard someone snoring.  If you are going to the Convention center.. this has to be the cheapest place that is well worth it.  I hope this review helped.  My Name is Jeff and I stayed in room 112.  By the way.. had perfect internet the whole time too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r89613204-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>89613204</t>
+  </si>
+  <si>
+    <t>12/11/2010</t>
+  </si>
+  <si>
+    <t>Got What I Paid For</t>
+  </si>
+  <si>
+    <t>Booked 3nights here. Got room 111. The check in went fairly smooth. I showed up hoping for an early check in and needed to change the credit card to one with enough to cover my stay but was turned away to both and told to return after 3 and it would be handled then. I returned to find they tried to run my card, I gave them the one I wanted to use and from there on it was ok. The gentleman that helped me was kind and efficient. 
+Parking was easy, free and ample. My room was clean and everything worked. Desk guy called shortly to check in and ensure all was well, that was nice. The sheets on one bed were short but were clean. The 2pillows on each bed were flat but we did get 1more (that's all they had). Mattress was fairly worn and NOT good for someone with back probs like mine. Towels were rough but plentiful. No conditioner but 2 shampoos. I'm particular about that stuff and know where I'm going and how long I'm staying so I pack accordingly, you should too. Target is up the road if you forget something. The room is older so when we got a neighbor up stairs we heard every squeaky step. Carpets never made my feet black. Never saw any sort of bugs. Heated restroom floor. Super water pressure. This place has absolutely no frills but...Booked 3nights here. Got room 111. The check in went fairly smooth. I showed up hoping for an early check in and needed to change the credit card to one with enough to cover my stay but was turned away to both and told to return after 3 and it would be handled then. I returned to find they tried to run my card, I gave them the one I wanted to use and from there on it was ok. The gentleman that helped me was kind and efficient. Parking was easy, free and ample. My room was clean and everything worked. Desk guy called shortly to check in and ensure all was well, that was nice. The sheets on one bed were short but were clean. The 2pillows on each bed were flat but we did get 1more (that's all they had). Mattress was fairly worn and NOT good for someone with back probs like mine. Towels were rough but plentiful. No conditioner but 2 shampoos. I'm particular about that stuff and know where I'm going and how long I'm staying so I pack accordingly, you should too. Target is up the road if you forget something. The room is older so when we got a neighbor up stairs we heard every squeaky step. Carpets never made my feet black. Never saw any sort of bugs. Heated restroom floor. Super water pressure. This place has absolutely no frills but is acceptable and what I expected at $45 a night. Extended breakfast is so not. What they have is pretty fresh. Nothing hot but the usual a.m. junk food snacks. Dining rm is clean and well stocked.Disneyland is about a 25 (+ if u have kids) minute walk but there is an ART shuttle right out front. Had to check out a day early. Turned in keys by 10:30 a.m. and was told by staff there is no refunds regardless of the notice. She didn't ask any questions or show any concern (ie; was it the room? It wasn't but just the gesture would have made losing money easier). I was in no mood to argue I just walked out and called the Choice Hotels number to file a claim. I was also informed there is no required minimum night stay so a refund should be possible. This is my only real gripe.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>rodewayinnanaheimca, Webmaster at Rodeway Inn &amp; Suites Near Anaheim Convention Center, responded to this reviewResponded August 26, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2011</t>
+  </si>
+  <si>
+    <t>Booked 3nights here. Got room 111. The check in went fairly smooth. I showed up hoping for an early check in and needed to change the credit card to one with enough to cover my stay but was turned away to both and told to return after 3 and it would be handled then. I returned to find they tried to run my card, I gave them the one I wanted to use and from there on it was ok. The gentleman that helped me was kind and efficient. 
+Parking was easy, free and ample. My room was clean and everything worked. Desk guy called shortly to check in and ensure all was well, that was nice. The sheets on one bed were short but were clean. The 2pillows on each bed were flat but we did get 1more (that's all they had). Mattress was fairly worn and NOT good for someone with back probs like mine. Towels were rough but plentiful. No conditioner but 2 shampoos. I'm particular about that stuff and know where I'm going and how long I'm staying so I pack accordingly, you should too. Target is up the road if you forget something. The room is older so when we got a neighbor up stairs we heard every squeaky step. Carpets never made my feet black. Never saw any sort of bugs. Heated restroom floor. Super water pressure. This place has absolutely no frills but...Booked 3nights here. Got room 111. The check in went fairly smooth. I showed up hoping for an early check in and needed to change the credit card to one with enough to cover my stay but was turned away to both and told to return after 3 and it would be handled then. I returned to find they tried to run my card, I gave them the one I wanted to use and from there on it was ok. The gentleman that helped me was kind and efficient. Parking was easy, free and ample. My room was clean and everything worked. Desk guy called shortly to check in and ensure all was well, that was nice. The sheets on one bed were short but were clean. The 2pillows on each bed were flat but we did get 1more (that's all they had). Mattress was fairly worn and NOT good for someone with back probs like mine. Towels were rough but plentiful. No conditioner but 2 shampoos. I'm particular about that stuff and know where I'm going and how long I'm staying so I pack accordingly, you should too. Target is up the road if you forget something. The room is older so when we got a neighbor up stairs we heard every squeaky step. Carpets never made my feet black. Never saw any sort of bugs. Heated restroom floor. Super water pressure. This place has absolutely no frills but is acceptable and what I expected at $45 a night. Extended breakfast is so not. What they have is pretty fresh. Nothing hot but the usual a.m. junk food snacks. Dining rm is clean and well stocked.Disneyland is about a 25 (+ if u have kids) minute walk but there is an ART shuttle right out front. Had to check out a day early. Turned in keys by 10:30 a.m. and was told by staff there is no refunds regardless of the notice. She didn't ask any questions or show any concern (ie; was it the room? It wasn't but just the gesture would have made losing money easier). I was in no mood to argue I just walked out and called the Choice Hotels number to file a claim. I was also informed there is no required minimum night stay so a refund should be possible. This is my only real gripe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r86334822-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>86334822</t>
+  </si>
+  <si>
+    <t>11/07/2010</t>
+  </si>
+  <si>
+    <t>nightmare</t>
+  </si>
+  <si>
+    <t>they told me they needed a credit card to hold the room so we did. once we get there they told me they couldint charge the card because the person with the credit card was not there wich i understand so i gave him a $100 deposit plus paid for the room.when we check out they told me why i gave a deposit when they charged the card. so i ended up paying twice once in cash and the other they charged the card. so if i paid with a credit card the night before why would i need to leave a deposit. when i told him did nothing about he gave me the run around i asked for a supervisor it took 15minjust for him to give me her name after i said i was going to call 911. he didint even try and work it out or anything just didint careMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>they told me they needed a credit card to hold the room so we did. once we get there they told me they couldint charge the card because the person with the credit card was not there wich i understand so i gave him a $100 deposit plus paid for the room.when we check out they told me why i gave a deposit when they charged the card. so i ended up paying twice once in cash and the other they charged the card. so if i paid with a credit card the night before why would i need to leave a deposit. when i told him did nothing about he gave me the run around i asked for a supervisor it took 15minjust for him to give me her name after i said i was going to call 911. he didint even try and work it out or anything just didint careMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r69241755-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>69241755</t>
+  </si>
+  <si>
+    <t>06/30/2010</t>
+  </si>
+  <si>
+    <t>Not the best!</t>
+  </si>
+  <si>
+    <t>This hotel advertises itself as 800 meters from Disneyland which is about 1/2 mile. In actuality it is almost 1 1/2 miles from the Main Gate. We booked on Priceline which usually collects all taxes, fees, etc. (except parking or extras you incur while staying there) but this  hotel charged us additional "tax." They advertised "extended" continental breakfast which actually consisted of sweet rolls, cereal (generic bulk) and a toaster to make toast plus coffee - not sure what's extended about that.Because of it's location you have to drive to decent restaurant - only fast food within walking distance and if you go late your parking space will be gone when you get back. Some folks who arrived late had to double park. It's not in the best neighborhood.The room itself was clean and adequate although I found it a bit odd that they had the tiny bottles of shampoo but no conditioner. It's an older hotel and bathrooms are pretty small as is the room itself.   They said there was free internet but none of the passwords provided worked.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel advertises itself as 800 meters from Disneyland which is about 1/2 mile. In actuality it is almost 1 1/2 miles from the Main Gate. We booked on Priceline which usually collects all taxes, fees, etc. (except parking or extras you incur while staying there) but this  hotel charged us additional "tax." They advertised "extended" continental breakfast which actually consisted of sweet rolls, cereal (generic bulk) and a toaster to make toast plus coffee - not sure what's extended about that.Because of it's location you have to drive to decent restaurant - only fast food within walking distance and if you go late your parking space will be gone when you get back. Some folks who arrived late had to double park. It's not in the best neighborhood.The room itself was clean and adequate although I found it a bit odd that they had the tiny bottles of shampoo but no conditioner. It's an older hotel and bathrooms are pretty small as is the room itself.   They said there was free internet but none of the passwords provided worked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r69160979-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>69160979</t>
+  </si>
+  <si>
+    <t>06/29/2010</t>
+  </si>
+  <si>
+    <t>For Disneyland, not worth the lower price.. stay closer, pay a few $$ +</t>
+  </si>
+  <si>
+    <t>Too far a walk for Disneyland (past Oranagewood on Harbour) + the motel crowd was a little on the rough / party side (although I had no problems whatsever there). It would be fine if it was a "boy's" trip and we were at an Angels or a Ducks game and decided to make it an overnighter,,, but it is a little worn-down for the kiddies.  Since I was at end, near pool, it was pretty quiet. Pool was clean but small... but to be honest, with little ones at Disneyland, they are too exhausted to swim after Disneyland / CA Adventure and the walk was too far to "stop-by" mid-day. I recommend staying at maingate and cough up the $20-30 more per night for convenience. Free Breakfest was good. FInal note on Motel: Desk help not very helpful... lady in AM shift (06/25) did not let my wife call my cell (local #) after I mistakenly split up with her (I had her cell &amp; lttle one). Lady at desk told her to go to phone booth at local gas station even though she did not have any money. NOTE TO RODEWAY MGMT: EVERYTHING ELSE WAS FINE, DON'T MESS IT UP WITH UNACCEPTABLE FRONT DESK SERVICE.  Final note on CA Adventure: Check out World of Color, new "Fantasmic"-like show.. you need fast pass tickets avail at Grizzly Raft ride.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>Too far a walk for Disneyland (past Oranagewood on Harbour) + the motel crowd was a little on the rough / party side (although I had no problems whatsever there). It would be fine if it was a "boy's" trip and we were at an Angels or a Ducks game and decided to make it an overnighter,,, but it is a little worn-down for the kiddies.  Since I was at end, near pool, it was pretty quiet. Pool was clean but small... but to be honest, with little ones at Disneyland, they are too exhausted to swim after Disneyland / CA Adventure and the walk was too far to "stop-by" mid-day. I recommend staying at maingate and cough up the $20-30 more per night for convenience. Free Breakfest was good. FInal note on Motel: Desk help not very helpful... lady in AM shift (06/25) did not let my wife call my cell (local #) after I mistakenly split up with her (I had her cell &amp; lttle one). Lady at desk told her to go to phone booth at local gas station even though she did not have any money. NOTE TO RODEWAY MGMT: EVERYTHING ELSE WAS FINE, DON'T MESS IT UP WITH UNACCEPTABLE FRONT DESK SERVICE.  Final note on CA Adventure: Check out World of Color, new "Fantasmic"-like show.. you need fast pass tickets avail at Grizzly Raft ride.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r68769318-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>68769318</t>
+  </si>
+  <si>
+    <t>06/26/2010</t>
+  </si>
+  <si>
+    <t>GREAT place to stay!</t>
+  </si>
+  <si>
+    <t>We stayed at Rodeway Inn &amp; Suites for 1 week. The staff, Skip, Didar, Armond &amp; the woman office manager were the best!  Friendly, helpful &amp; very nice.  Breakfast was great!  Nice selection for some of us 'picky' eaters. Room very clean!  Location good.  Would definitely recommend this motel!MoreShow less</t>
+  </si>
+  <si>
+    <t>Investorshm, IHM  Property Reporter at Rodeway Inn &amp; Suites Near Anaheim Convention Center, responded to this reviewResponded July 3, 2010</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2010</t>
+  </si>
+  <si>
+    <t>We stayed at Rodeway Inn &amp; Suites for 1 week. The staff, Skip, Didar, Armond &amp; the woman office manager were the best!  Friendly, helpful &amp; very nice.  Breakfast was great!  Nice selection for some of us 'picky' eaters. Room very clean!  Location good.  Would definitely recommend this motel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r57132535-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>57132535</t>
+  </si>
+  <si>
+    <t>02/25/2010</t>
+  </si>
+  <si>
+    <t>Great price and right down the street from Disneyland</t>
+  </si>
+  <si>
+    <t>Rooms are clean and comfortable with a very friendly staff, located just down the street from Disneyland.  The room was only $45 a night, which is unbelivably well priced!!  Just dont order delivery from Panda House, its absolutely disgustingMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>Investorshm, IHM Property Reporter at Rodeway Inn &amp; Suites Near Anaheim Convention Center, responded to this reviewResponded March 29, 2010</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2010</t>
+  </si>
+  <si>
+    <t>Rooms are clean and comfortable with a very friendly staff, located just down the street from Disneyland.  The room was only $45 a night, which is unbelivably well priced!!  Just dont order delivery from Panda House, its absolutely disgustingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r51556507-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>51556507</t>
+  </si>
+  <si>
+    <t>12/20/2009</t>
+  </si>
+  <si>
+    <t>commendation for staff at the rodeway inn</t>
+  </si>
+  <si>
+    <t>I would like to commend the staff at the Rodeway Inn in Anaheim.  They have gone completely out of their way to make my stay comfortable.  I wanted to go to church and they  googled directions for the church of my choice and also prepared a map for my return homeI observed their interaction with clientele and both Skip and Ray handled difficult and demanding customers in an extremely professisonal capacity.Thank you.  If you desire to contact me, feel free..MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>Investorshm, IHM Property Reporter at Rodeway Inn &amp; Suites Near Anaheim Convention Center, responded to this reviewResponded December 31, 2009</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2009</t>
+  </si>
+  <si>
+    <t>I would like to commend the staff at the Rodeway Inn in Anaheim.  They have gone completely out of their way to make my stay comfortable.  I wanted to go to church and they  googled directions for the church of my choice and also prepared a map for my return homeI observed their interaction with clientele and both Skip and Ray handled difficult and demanding customers in an extremely professisonal capacity.Thank you.  If you desire to contact me, feel free..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r45663531-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>45663531</t>
+  </si>
+  <si>
+    <t>10/02/2009</t>
+  </si>
+  <si>
+    <t>Much better then expected. I enjoyed my stay here.</t>
+  </si>
+  <si>
+    <t>From check-in to check-out everyone and everything was wonderful. The entire property including the lobby, parking area, rooms, pool, and hot tub were very clean, comfortable, and safe. The AC worked great in 97 degree weather.  Breakfast is simple, donuts, rolls, cereal, milk and juice, and the coffee was really good. Every room has a small microwave and fridge.  I used the free wireless internet at 2 ends of the building, had great speed at both locations. I was able to stay here for 6 nights for a conference at the convention center which is about a 10 minute walk with a rolling computer bag. The service was great. The people were friendly and helpful on the phone and in person.  I am healing from some broken bones, I even had extra help at check-in with luggage from the Manager. At check-out I left something behind and they called me first, and sent it back fed-ex. They even have Kid Suites that have 2 queen beds and a set of bunk beds with a play table, second TV and glass doors so you can monitor the children and still have some peace for the adults. Because I will stay there again, next time with family including my granddaughter, I hope you don’t read this it is a great place to stay I would like to keep it to myself.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>Investorshm, IHM Property Reporter at Rodeway Inn &amp; Suites Near Anaheim Convention Center, responded to this reviewResponded October 29, 2009</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2009</t>
+  </si>
+  <si>
+    <t>From check-in to check-out everyone and everything was wonderful. The entire property including the lobby, parking area, rooms, pool, and hot tub were very clean, comfortable, and safe. The AC worked great in 97 degree weather.  Breakfast is simple, donuts, rolls, cereal, milk and juice, and the coffee was really good. Every room has a small microwave and fridge.  I used the free wireless internet at 2 ends of the building, had great speed at both locations. I was able to stay here for 6 nights for a conference at the convention center which is about a 10 minute walk with a rolling computer bag. The service was great. The people were friendly and helpful on the phone and in person.  I am healing from some broken bones, I even had extra help at check-in with luggage from the Manager. At check-out I left something behind and they called me first, and sent it back fed-ex. They even have Kid Suites that have 2 queen beds and a set of bunk beds with a play table, second TV and glass doors so you can monitor the children and still have some peace for the adults. Because I will stay there again, next time with family including my granddaughter, I hope you don’t read this it is a great place to stay I would like to keep it to myself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r32157074-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>32157074</t>
+  </si>
+  <si>
+    <t>06/11/2009</t>
+  </si>
+  <si>
+    <t>Great deal, only 10 min walk from convention center.</t>
+  </si>
+  <si>
+    <t>Room had fridge and microwave. It was quiet in my room, even though the hotel was next to the rather busy Harbor Blvd. Staff members were very friendly. I very much appreciated that one staff member kindly accommodated to my conference schedule by allowing me to could check out a little later.  Definitely a great deal at &lt;$60 per night. I would stay here again. It was great to have wireless access! I had no problems with connecting to the internet .</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r26773082-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>26773082</t>
+  </si>
+  <si>
+    <t>03/24/2009</t>
+  </si>
+  <si>
+    <t>Wouldn't recommend this hotel</t>
+  </si>
+  <si>
+    <t>We stayed here, but we found that the beds were not made up properly. They used flat sheets for the bottom sheets and they kept riding up. The sheets had rips in them. The pillows were about half the size of a normal pillow and it made sleeping difficult.  There was not enough space to put clothing.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>We stayed here, but we found that the beds were not made up properly. They used flat sheets for the bottom sheets and they kept riding up. The sheets had rips in them. The pillows were about half the size of a normal pillow and it made sleeping difficult.  There was not enough space to put clothing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r26664971-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>26664971</t>
+  </si>
+  <si>
+    <t>03/23/2009</t>
+  </si>
+  <si>
+    <t>The rooms were beautiful!!</t>
+  </si>
+  <si>
+    <t>I was a little apprehensive about staying at another Rodeway Inn as we have had bad experiences with them. However, this hotel restored my faith in them! 
+Pros: 
+The rooms were very nice and looked like were JUST remodeled. All the furniture was pretty and modern; the beds were comfy and looked new; the paint on walls and the carpet were all new; the ac unit was a newer model and worked like a gem; the bathroom was very clean and all new counter tops and looked like new shower and toilet too; the TV was 32 inches and worked great. I was really amazed at how new and clean everything was! Not a lot of noise, nice staff, laundry room was clean, and they really did keep things tidy around there. The price was great too!
+Cons:
+I could hardly keep an internet connection the entire time! That was pretty annoying! Pool was NOT heated, breakfast is cereal, toast, donuts, and coffee. And Disneyland is NOT .5 miles like they tell you on the phone and when you get here. They also say 3 blocks, but the blocks are HUGE! It is a little over a mile and about a 25 minute walk. 
+I suggest coming in warmer weather, going to eat at Denny's down the block, and if you don't want to walk all the way, take the bus or shuttle bus. $4.00 per person for an all...I was a little apprehensive about staying at another Rodeway Inn as we have had bad experiences with them. However, this hotel restored my faith in them! Pros: The rooms were very nice and looked like were JUST remodeled. All the furniture was pretty and modern; the beds were comfy and looked new; the paint on walls and the carpet were all new; the ac unit was a newer model and worked like a gem; the bathroom was very clean and all new counter tops and looked like new shower and toilet too; the TV was 32 inches and worked great. I was really amazed at how new and clean everything was! Not a lot of noise, nice staff, laundry room was clean, and they really did keep things tidy around there. The price was great too!Cons:I could hardly keep an internet connection the entire time! That was pretty annoying! Pool was NOT heated, breakfast is cereal, toast, donuts, and coffee. And Disneyland is NOT .5 miles like they tell you on the phone and when you get here. They also say 3 blocks, but the blocks are HUGE! It is a little over a mile and about a 25 minute walk. I suggest coming in warmer weather, going to eat at Denny's down the block, and if you don't want to walk all the way, take the bus or shuttle bus. $4.00 per person for an all day ticket.Overall; this place is pretty nice for the bucks! I highly recommend it!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was a little apprehensive about staying at another Rodeway Inn as we have had bad experiences with them. However, this hotel restored my faith in them! 
+Pros: 
+The rooms were very nice and looked like were JUST remodeled. All the furniture was pretty and modern; the beds were comfy and looked new; the paint on walls and the carpet were all new; the ac unit was a newer model and worked like a gem; the bathroom was very clean and all new counter tops and looked like new shower and toilet too; the TV was 32 inches and worked great. I was really amazed at how new and clean everything was! Not a lot of noise, nice staff, laundry room was clean, and they really did keep things tidy around there. The price was great too!
+Cons:
+I could hardly keep an internet connection the entire time! That was pretty annoying! Pool was NOT heated, breakfast is cereal, toast, donuts, and coffee. And Disneyland is NOT .5 miles like they tell you on the phone and when you get here. They also say 3 blocks, but the blocks are HUGE! It is a little over a mile and about a 25 minute walk. 
+I suggest coming in warmer weather, going to eat at Denny's down the block, and if you don't want to walk all the way, take the bus or shuttle bus. $4.00 per person for an all...I was a little apprehensive about staying at another Rodeway Inn as we have had bad experiences with them. However, this hotel restored my faith in them! Pros: The rooms were very nice and looked like were JUST remodeled. All the furniture was pretty and modern; the beds were comfy and looked new; the paint on walls and the carpet were all new; the ac unit was a newer model and worked like a gem; the bathroom was very clean and all new counter tops and looked like new shower and toilet too; the TV was 32 inches and worked great. I was really amazed at how new and clean everything was! Not a lot of noise, nice staff, laundry room was clean, and they really did keep things tidy around there. The price was great too!Cons:I could hardly keep an internet connection the entire time! That was pretty annoying! Pool was NOT heated, breakfast is cereal, toast, donuts, and coffee. And Disneyland is NOT .5 miles like they tell you on the phone and when you get here. They also say 3 blocks, but the blocks are HUGE! It is a little over a mile and about a 25 minute walk. I suggest coming in warmer weather, going to eat at Denny's down the block, and if you don't want to walk all the way, take the bus or shuttle bus. $4.00 per person for an all day ticket.Overall; this place is pretty nice for the bucks! I highly recommend it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r21505387-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>21505387</t>
+  </si>
+  <si>
+    <t>11/03/2008</t>
+  </si>
+  <si>
+    <t>Great Value, Great Attitude</t>
+  </si>
+  <si>
+    <t>We were quite reluctant to book this hotel at the price we got: it seemed too good to be true.  It is less than a mile from Disneyland and includes a hot tub, pool, fridge, guest laundry, and free wireless internet.  But the price was irresistible so we tried it.  For 3 nites.It's just great.  Comfortable bed (we have been driving cross country, staying in hotels and we've had more than our share of beds where we felt the mattress springs in our backs and hips - but this bed is just great).  Excellent room condition - clean and looking "updated".  Hot tub and pool clean and inviting.  And it even has a guest laundry that wasn't listed in the amenities: a nice surprise to get to do a couple of loads of laundry.  And parking is right by the room - easy access.The desk staff were very friendly and helpful, as well.  This is one of those rare finds and it *is* real.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>We were quite reluctant to book this hotel at the price we got: it seemed too good to be true.  It is less than a mile from Disneyland and includes a hot tub, pool, fridge, guest laundry, and free wireless internet.  But the price was irresistible so we tried it.  For 3 nites.It's just great.  Comfortable bed (we have been driving cross country, staying in hotels and we've had more than our share of beds where we felt the mattress springs in our backs and hips - but this bed is just great).  Excellent room condition - clean and looking "updated".  Hot tub and pool clean and inviting.  And it even has a guest laundry that wasn't listed in the amenities: a nice surprise to get to do a couple of loads of laundry.  And parking is right by the room - easy access.The desk staff were very friendly and helpful, as well.  This is one of those rare finds and it *is* real.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r16804920-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>16804920</t>
+  </si>
+  <si>
+    <t>06/09/2008</t>
+  </si>
+  <si>
+    <t>Worth the money</t>
+  </si>
+  <si>
+    <t>I had a great time. The room rate is very affordable and you get much more than what you expect. Rooms have all basic amenities and they also have free continental breakfast. I had a blast as we were able to enjoy at the pool in the evening. Rooms are really clean and it is not that far from disneyland. The shuttle stops right in front of the hotel. Me and my family would highly recommend this place.</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r15736229-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>15736229</t>
+  </si>
+  <si>
+    <t>05/06/2008</t>
+  </si>
+  <si>
+    <t>worst place ever!!!</t>
+  </si>
+  <si>
+    <t>Website led us to belive that this was a "nice" place.  We thought that we had reserved a 2 room suite, not that at all, it was a room and a half.  The room was dirty.  Holes in the bedding.  Filled with flying bugs.  The security lock on the door was gone as the door had been kicked in.  When I asked about the missing lock the desk agent said "You'll be okay, no one goes down there."  After insisting on a safe and secure room, he let me look at a different room.... missing lock in that room as well.  We decided to sleep there that night as it was very late at this point.  Big Mistake!  My 4 yr old daughter was bitten by bed bugs all over her belly.  We were there less than 10 hours and moved to the Hyatt for the rest of our trip. I would not recommend this place to anyone.  Web site is very deceiving on quality.  Stay anywhere but here.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>Website led us to belive that this was a "nice" place.  We thought that we had reserved a 2 room suite, not that at all, it was a room and a half.  The room was dirty.  Holes in the bedding.  Filled with flying bugs.  The security lock on the door was gone as the door had been kicked in.  When I asked about the missing lock the desk agent said "You'll be okay, no one goes down there."  After insisting on a safe and secure room, he let me look at a different room.... missing lock in that room as well.  We decided to sleep there that night as it was very late at this point.  Big Mistake!  My 4 yr old daughter was bitten by bed bugs all over her belly.  We were there less than 10 hours and moved to the Hyatt for the rest of our trip. I would not recommend this place to anyone.  Web site is very deceiving on quality.  Stay anywhere but here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r13888818-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>13888818</t>
+  </si>
+  <si>
+    <t>02/27/2008</t>
+  </si>
+  <si>
+    <t>Met my requirements</t>
+  </si>
+  <si>
+    <t>For my family vacation I had very specific requirements.  Because I have a lot of young children, I needed a place that had 4 or more double beds (or larger), two bathrooms, a microwave, a refrigerator, and free breakfast if possible.  My husband is a pretty big germophobe, so I also needed somewhere that was  clean and bug free.  I also wanted to save as much money as possible because the cost of our tickets to Disneyland were $1262.  The Vagabond Inn met all of these requirements.
+I'm not saying that it is the greatest place in the world to stay, but it was clean and the maids were very kind.  The price  was very good (I booked directly through their website as it was cheaper than the travel sites).  There were a few small holes in the ceiling, and a couple of other very minor things in the room were in need of repair.  The beds are extremely hard as has been mentioned.  I am a side sleeper and would wake up with sore hips.
+The breakfast was okay--like a previous post said, it was pretty sparse.  We had orange juice, lemonade, tea, coffe, danishes, corn flakes, Cheerios, and toast.  Some days they would bring out donuts, but they went pretty fast and weren't replaced.  Breakfast is only available from 7-9am so the day we went to Disneyland for our Magic Morning, we had to get breakfast elsewhere.
+Probably...For my family vacation I had very specific requirements.  Because I have a lot of young children, I needed a place that had 4 or more double beds (or larger), two bathrooms, a microwave, a refrigerator, and free breakfast if possible.  My husband is a pretty big germophobe, so I also needed somewhere that was  clean and bug free.  I also wanted to save as much money as possible because the cost of our tickets to Disneyland were $1262.  The Vagabond Inn met all of these requirements.I'm not saying that it is the greatest place in the world to stay, but it was clean and the maids were very kind.  The price  was very good (I booked directly through their website as it was cheaper than the travel sites).  There were a few small holes in the ceiling, and a couple of other very minor things in the room were in need of repair.  The beds are extremely hard as has been mentioned.  I am a side sleeper and would wake up with sore hips.The breakfast was okay--like a previous post said, it was pretty sparse.  We had orange juice, lemonade, tea, coffe, danishes, corn flakes, Cheerios, and toast.  Some days they would bring out donuts, but they went pretty fast and weren't replaced.  Breakfast is only available from 7-9am so the day we went to Disneyland for our Magic Morning, we had to get breakfast elsewhere.Probably the biggest complaint I have is the parking.  The spaces are very small, though we could get our 12 passenger van in without too much trouble.  Getting out each morning was the problem.  Apparently there aren't enough spaces for the number of rooms that they have because every morning there were cars double parked behind us.  We had 2 rooms and only 1 car, and each morning there were at least 5 or 6 cars that weren't in a parking spot.  The guy at the desk would come out and move the cars as needed.I would consider staying here again, as it wasn't bad, but we'll probably just rent a house next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>For my family vacation I had very specific requirements.  Because I have a lot of young children, I needed a place that had 4 or more double beds (or larger), two bathrooms, a microwave, a refrigerator, and free breakfast if possible.  My husband is a pretty big germophobe, so I also needed somewhere that was  clean and bug free.  I also wanted to save as much money as possible because the cost of our tickets to Disneyland were $1262.  The Vagabond Inn met all of these requirements.
+I'm not saying that it is the greatest place in the world to stay, but it was clean and the maids were very kind.  The price  was very good (I booked directly through their website as it was cheaper than the travel sites).  There were a few small holes in the ceiling, and a couple of other very minor things in the room were in need of repair.  The beds are extremely hard as has been mentioned.  I am a side sleeper and would wake up with sore hips.
+The breakfast was okay--like a previous post said, it was pretty sparse.  We had orange juice, lemonade, tea, coffe, danishes, corn flakes, Cheerios, and toast.  Some days they would bring out donuts, but they went pretty fast and weren't replaced.  Breakfast is only available from 7-9am so the day we went to Disneyland for our Magic Morning, we had to get breakfast elsewhere.
+Probably...For my family vacation I had very specific requirements.  Because I have a lot of young children, I needed a place that had 4 or more double beds (or larger), two bathrooms, a microwave, a refrigerator, and free breakfast if possible.  My husband is a pretty big germophobe, so I also needed somewhere that was  clean and bug free.  I also wanted to save as much money as possible because the cost of our tickets to Disneyland were $1262.  The Vagabond Inn met all of these requirements.I'm not saying that it is the greatest place in the world to stay, but it was clean and the maids were very kind.  The price  was very good (I booked directly through their website as it was cheaper than the travel sites).  There were a few small holes in the ceiling, and a couple of other very minor things in the room were in need of repair.  The beds are extremely hard as has been mentioned.  I am a side sleeper and would wake up with sore hips.The breakfast was okay--like a previous post said, it was pretty sparse.  We had orange juice, lemonade, tea, coffe, danishes, corn flakes, Cheerios, and toast.  Some days they would bring out donuts, but they went pretty fast and weren't replaced.  Breakfast is only available from 7-9am so the day we went to Disneyland for our Magic Morning, we had to get breakfast elsewhere.Probably the biggest complaint I have is the parking.  The spaces are very small, though we could get our 12 passenger van in without too much trouble.  Getting out each morning was the problem.  Apparently there aren't enough spaces for the number of rooms that they have because every morning there were cars double parked behind us.  We had 2 rooms and only 1 car, and each morning there were at least 5 or 6 cars that weren't in a parking spot.  The guy at the desk would come out and move the cars as needed.I would consider staying here again, as it wasn't bad, but we'll probably just rent a house next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r13836789-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>13836789</t>
+  </si>
+  <si>
+    <t>02/25/2008</t>
+  </si>
+  <si>
+    <t>Good value - near Disney</t>
+  </si>
+  <si>
+    <t>Excellent value for the money. Beware that the beds are ROCK hard! Spacious room, and strong shower with good hot water availabillity. Nice updated sink area. The shower head shoots  a thin diameter spray, kind of like a massage. Included breakfast is spotty (7-9am only), with items running out frequently. Staff seemed indifferent to requests. Just pastries, toast and some cereal. The apple and orange juice is good, if they are available. You can book on Orbitz and use a $50 off coupon for 3 or more night stays. I forget the code, but you can google it and save $50 (if it is still available). I ended up paying about $120 for 3 weeknights, plus a little over $8.00 as their "resort fee" upon arrival. Our non-smoking room smelled decent, as I am very sensitive to smoke or other odors. It is less than a mile to Disneyland, and parking is free, which was a good bonus. Hope this helps you!MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent value for the money. Beware that the beds are ROCK hard! Spacious room, and strong shower with good hot water availabillity. Nice updated sink area. The shower head shoots  a thin diameter spray, kind of like a massage. Included breakfast is spotty (7-9am only), with items running out frequently. Staff seemed indifferent to requests. Just pastries, toast and some cereal. The apple and orange juice is good, if they are available. You can book on Orbitz and use a $50 off coupon for 3 or more night stays. I forget the code, but you can google it and save $50 (if it is still available). I ended up paying about $120 for 3 weeknights, plus a little over $8.00 as their "resort fee" upon arrival. Our non-smoking room smelled decent, as I am very sensitive to smoke or other odors. It is less than a mile to Disneyland, and parking is free, which was a good bonus. Hope this helps you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r13739987-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>13739987</t>
+  </si>
+  <si>
+    <t>02/21/2008</t>
+  </si>
+  <si>
+    <t>Decent Hotel, Great Customer Service</t>
+  </si>
+  <si>
+    <t>If you are looking for a place just to sleep and shower, then this is the place you should go to. We booked a kid's suite that had 2 double beds in the front, and a bunk bed in the back room. It was clean, and nothing above average. The only time we were in the room was to sleep and shower. We went to go chill at the pool/spa. But they put too much chlorine in it. The shuttle for Disneyland is right in front of the place. There's a lot of places to eat, and Target is about two blocks down. The employees were very friendly, and were very helpful with the questions we asked. The maids were also very nice, and made our room very clean each day. They do have a washer/dryer ($1.75 for each use), so if you go swimming, and want to wash your clothes right away, it's very convinient.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you are looking for a place just to sleep and shower, then this is the place you should go to. We booked a kid's suite that had 2 double beds in the front, and a bunk bed in the back room. It was clean, and nothing above average. The only time we were in the room was to sleep and shower. We went to go chill at the pool/spa. But they put too much chlorine in it. The shuttle for Disneyland is right in front of the place. There's a lot of places to eat, and Target is about two blocks down. The employees were very friendly, and were very helpful with the questions we asked. The maids were also very nice, and made our room very clean each day. They do have a washer/dryer ($1.75 for each use), so if you go swimming, and want to wash your clothes right away, it's very convinient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r10039611-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>10039611</t>
+  </si>
+  <si>
+    <t>10/04/2007</t>
+  </si>
+  <si>
+    <t>Good Value Stay</t>
+  </si>
+  <si>
+    <t>Just returned from the Vagabond Executive. Had a good stay, the rooms were spacious and clean. Only downside was the bathroom vanity unit, basin and hair dryer  was actually in the main bedroom which was awkward having to disturb other family members.Didn't have chance to use the pool but it was a nice area to sit and maybe have breakfast, which was a little more substantial than other motels offer in the area.Good proximity for attractions, although we did use car to go to Disney. Helpful staff in reception especially Ahmed who was very friendly.Would recommend Vagabond due to reasonable prices and nice rooms.</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r8355278-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>8355278</t>
+  </si>
+  <si>
+    <t>08/04/2007</t>
+  </si>
+  <si>
+    <t>Near and affordable</t>
+  </si>
+  <si>
+    <t>The hotel is affordable, the accomodations are good. They are remodeling and improving. A clean place and very near all you need. The owner, Ray, is very nice and always worry about making our stay outstand</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r8273828-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>8273828</t>
+  </si>
+  <si>
+    <t>07/31/2007</t>
+  </si>
+  <si>
+    <t>Great little Disney Area hotel</t>
+  </si>
+  <si>
+    <t>My family of 4 (kids ages 5 and 7) and our babysitter stayed here in July for 5 days.  I requested a adjoining room with 3 queen beds, just to make sure we weren't tripping over each other all week.  It is a simple cheap room perfect for people who aren't going to spend a lot of time in the room.  Two days we came back to swim and rest, before heading back to Disney, and it was quiet enough for adults to sleep, while the babysitter took the kids to the pool. It was clean, the beds were comfortable, and the sink is outside of the toilet/shower area.  There is no coffeemaker, but there is a microwave and fridge.  My one complaint is the TV.  They claimed to have cable TV, but a lot of the channels were fuzzy, and such.  It was adequate.  We were able to find a few stations to let the kids veg out to while we were preparing to go to bed.  They were so tired after a full day a Disney, that it wasn't really an issue for us, just thought I would mention it in case that may be important for your family.  The pool was small, but heated as promised.  It felt great on sore feet and tired backs. The ART route is right outside the lobby door, and for $3 a day (kids under 10 ride free), was well worth...My family of 4 (kids ages 5 and 7) and our babysitter stayed here in July for 5 days.  I requested a adjoining room with 3 queen beds, just to make sure we weren't tripping over each other all week.  It is a simple cheap room perfect for people who aren't going to spend a lot of time in the room.  Two days we came back to swim and rest, before heading back to Disney, and it was quiet enough for adults to sleep, while the babysitter took the kids to the pool. It was clean, the beds were comfortable, and the sink is outside of the toilet/shower area.  There is no coffeemaker, but there is a microwave and fridge.  My one complaint is the TV.  They claimed to have cable TV, but a lot of the channels were fuzzy, and such.  It was adequate.  We were able to find a few stations to let the kids veg out to while we were preparing to go to bed.  They were so tired after a full day a Disney, that it wasn't really an issue for us, just thought I would mention it in case that may be important for your family.  The pool was small, but heated as promised.  It felt great on sore feet and tired backs. The ART route is right outside the lobby door, and for $3 a day (kids under 10 ride free), was well worth it.  I kept a business card from here, because I would definatley stay here again.  We bought our Disney tickets and ART tickets right in the lobby.  It was very convenient.  No onsite restaurant, but delivery for pizza and chinese was a snap, and there are numerous fast food as well as restaurants within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>My family of 4 (kids ages 5 and 7) and our babysitter stayed here in July for 5 days.  I requested a adjoining room with 3 queen beds, just to make sure we weren't tripping over each other all week.  It is a simple cheap room perfect for people who aren't going to spend a lot of time in the room.  Two days we came back to swim and rest, before heading back to Disney, and it was quiet enough for adults to sleep, while the babysitter took the kids to the pool. It was clean, the beds were comfortable, and the sink is outside of the toilet/shower area.  There is no coffeemaker, but there is a microwave and fridge.  My one complaint is the TV.  They claimed to have cable TV, but a lot of the channels were fuzzy, and such.  It was adequate.  We were able to find a few stations to let the kids veg out to while we were preparing to go to bed.  They were so tired after a full day a Disney, that it wasn't really an issue for us, just thought I would mention it in case that may be important for your family.  The pool was small, but heated as promised.  It felt great on sore feet and tired backs. The ART route is right outside the lobby door, and for $3 a day (kids under 10 ride free), was well worth...My family of 4 (kids ages 5 and 7) and our babysitter stayed here in July for 5 days.  I requested a adjoining room with 3 queen beds, just to make sure we weren't tripping over each other all week.  It is a simple cheap room perfect for people who aren't going to spend a lot of time in the room.  Two days we came back to swim and rest, before heading back to Disney, and it was quiet enough for adults to sleep, while the babysitter took the kids to the pool. It was clean, the beds were comfortable, and the sink is outside of the toilet/shower area.  There is no coffeemaker, but there is a microwave and fridge.  My one complaint is the TV.  They claimed to have cable TV, but a lot of the channels were fuzzy, and such.  It was adequate.  We were able to find a few stations to let the kids veg out to while we were preparing to go to bed.  They were so tired after a full day a Disney, that it wasn't really an issue for us, just thought I would mention it in case that may be important for your family.  The pool was small, but heated as promised.  It felt great on sore feet and tired backs. The ART route is right outside the lobby door, and for $3 a day (kids under 10 ride free), was well worth it.  I kept a business card from here, because I would definatley stay here again.  We bought our Disney tickets and ART tickets right in the lobby.  It was very convenient.  No onsite restaurant, but delivery for pizza and chinese was a snap, and there are numerous fast food as well as restaurants within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r6085436-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>6085436</t>
+  </si>
+  <si>
+    <t>11/07/2006</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel from Oct 22nd - Nov 3rd and quite enjoyed our stay. The hotel is good value - we feel we got our money's worth.Things we loved about it:* Microwave and Fridge in the room* Comfortable King-sized bed* Good price* Free wireless Internet* Since we stayed more than 10 nights we got a coupon for a free night's stay at any Vagabond Inn. Things we were indifferent to:* A decent walk to Disneyland (too far for lazy Americans), but you can always drive or catch the Anaheim Resort Transit shuttle* Breakfast was fairly boring - toast, cereal and pastries - but it was free after all!Things we didn't like:* Shower was very low (you have to limbo to get your hair wet) and took a fair amount of skill to coax hot water out of.* Drink vending machines seemed permanently out of stock of bottled water.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2006</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel from Oct 22nd - Nov 3rd and quite enjoyed our stay. The hotel is good value - we feel we got our money's worth.Things we loved about it:* Microwave and Fridge in the room* Comfortable King-sized bed* Good price* Free wireless Internet* Since we stayed more than 10 nights we got a coupon for a free night's stay at any Vagabond Inn. Things we were indifferent to:* A decent walk to Disneyland (too far for lazy Americans), but you can always drive or catch the Anaheim Resort Transit shuttle* Breakfast was fairly boring - toast, cereal and pastries - but it was free after all!Things we didn't like:* Shower was very low (you have to limbo to get your hair wet) and took a fair amount of skill to coax hot water out of.* Drink vending machines seemed permanently out of stock of bottled water.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r5981524-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>5981524</t>
+  </si>
+  <si>
+    <t>10/20/2006</t>
+  </si>
+  <si>
+    <t>Alright, not much to look foward to</t>
+  </si>
+  <si>
+    <t>In July I stayed at the Vagabond Inn and it was a mediorce experience. The bathroom gave a creepy vibe. The shower was a little dirty, the shower head was too low, no water pressure, and it was only burning hot water or freezing cold. A cold shower seems like it would be nice after a day at Disneyland but it just makes you cold all night. The towels were stale and a little smelly; like they had been washed and hung up before they dried all the way. The service was alright. The room service was not always done when we returned or they never came. I got the feeling that most of them did not speak english, so be prepared. The breakfast was barely anything. Muffins and yucky coffee. Did save you money so you don't have to go to Denny's though.It was an okay hotel, the beds were comfortable and the doors locked. Other then that it wasn't that great. The only reason I would come back was if it was cheaper and it had a shuttle.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>In July I stayed at the Vagabond Inn and it was a mediorce experience. The bathroom gave a creepy vibe. The shower was a little dirty, the shower head was too low, no water pressure, and it was only burning hot water or freezing cold. A cold shower seems like it would be nice after a day at Disneyland but it just makes you cold all night. The towels were stale and a little smelly; like they had been washed and hung up before they dried all the way. The service was alright. The room service was not always done when we returned or they never came. I got the feeling that most of them did not speak english, so be prepared. The breakfast was barely anything. Muffins and yucky coffee. Did save you money so you don't have to go to Denny's though.It was an okay hotel, the beds were comfortable and the doors locked. Other then that it wasn't that great. The only reason I would come back was if it was cheaper and it had a shuttle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r5975766-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>5975766</t>
+  </si>
+  <si>
+    <t>10/19/2006</t>
+  </si>
+  <si>
+    <t>not bad for the price</t>
+  </si>
+  <si>
+    <t>We stayed here 4 nights in early October room rate was about 60.00 a night. The rooms were very clean we had two rooms and had no issues with housekeeping. In one room beds were very comfortable in the other they were like sleeping on box springs. We did not spend much time in the rooms so it was ok. It was nice to have a micowave and a fridge in the room if we wanted to use them and there was no additional charge. As for parking I have to agree with the other reviews. They do not have enough parking for the number of rooms they have so if you return late you will be told you have to double park. We new this in advance and just allowed extra time in the morning to allow cars to be moved. If you are a light sleeper this is not the hotel for you walls are very thin.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here 4 nights in early October room rate was about 60.00 a night. The rooms were very clean we had two rooms and had no issues with housekeeping. In one room beds were very comfortable in the other they were like sleeping on box springs. We did not spend much time in the rooms so it was ok. It was nice to have a micowave and a fridge in the room if we wanted to use them and there was no additional charge. As for parking I have to agree with the other reviews. They do not have enough parking for the number of rooms they have so if you return late you will be told you have to double park. We new this in advance and just allowed extra time in the morning to allow cars to be moved. If you are a light sleeper this is not the hotel for you walls are very thin.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r5558902-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>5558902</t>
+  </si>
+  <si>
+    <t>08/04/2006</t>
+  </si>
+  <si>
+    <t>Absolutely disgusting hotel!!</t>
+  </si>
+  <si>
+    <t>Go ahead...book this hotel.   You'll show up and beg to check out.  We showed up and were immediately thrown off by the rudeness experienced at the front staff.   Tired from a long journey, we took the attitude and checked in.   The stench in our room was so overwhelming, we immediately asked to be moved.  We were told we would have to wait a couple hours for a clean room and we obliged.  We went to dinner and came back and the room was ready - but I thought they said CLEAN room!   It was worse than the first one, filthy, and smelly.  The bathrooms have not been cleaned or scrubbed in what appears to be years.  This hotel should be ashamed to have the name "executive" within their name.  Stay away!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Go ahead...book this hotel.   You'll show up and beg to check out.  We showed up and were immediately thrown off by the rudeness experienced at the front staff.   Tired from a long journey, we took the attitude and checked in.   The stench in our room was so overwhelming, we immediately asked to be moved.  We were told we would have to wait a couple hours for a clean room and we obliged.  We went to dinner and came back and the room was ready - but I thought they said CLEAN room!   It was worse than the first one, filthy, and smelly.  The bathrooms have not been cleaned or scrubbed in what appears to be years.  This hotel should be ashamed to have the name "executive" within their name.  Stay away!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r5505063-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>5505063</t>
+  </si>
+  <si>
+    <t>07/23/2006</t>
+  </si>
+  <si>
+    <t>Much better than our stay in San Diego</t>
+  </si>
+  <si>
+    <t>I was relieved when we arrived here from our run down Quailty Inn Airport/Seaworl hotel (see my review on this one, Q.I. should be shut down). 
+The pictures were the same as the rooms and I was happy about that. A little to far to walk to Disnayland (for me), but they do have a shuttle out front.
+Pros:
+-The rooms were the same as pictured!!!!
+-Nice colored room with windows that open (fun decor)
+-Clean when you arrive and they straigtened up everyday we were there
+-Nice shower (though the shower head could be higher on the wall for normal size adults)
+-kid friendly and quiet (could not hear the people above us)
+-Refrig and air conditioner (both worked very well, ac very cold!)
+-great list of resturants (with menus) that deliver to the room
+-the pool temp was great / hot tub was a little too hot could not get in
+-enough beds for our family of 7 (each kid got to sleep in one of the beds by themselves during the stay)
+-Was a comfortable and better stay than our San Diego trip
+-2 bathrooms and 2 tv's
+-Very friendly front desk help (Stacy was great and very helpful!!!! Cudos to you and you need a raise!)
+-Stacy is a Pro and helped to make our stay comfortable 
+(though we did not ask for very much) was very helpful over the phone and was willing to talk...I was relieved when we arrived here from our run down Quailty Inn Airport/Seaworl hotel (see my review on this one, Q.I. should be shut down). The pictures were the same as the rooms and I was happy about that. A little to far to walk to Disnayland (for me), but they do have a shuttle out front.Pros:-The rooms were the same as pictured!!!!-Nice colored room with windows that open (fun decor)-Clean when you arrive and they straigtened up everyday we were there-Nice shower (though the shower head could be higher on the wall for normal size adults)-kid friendly and quiet (could not hear the people above us)-Refrig and air conditioner (both worked very well, ac very cold!)-great list of resturants (with menus) that deliver to the room-the pool temp was great / hot tub was a little too hot could not get in-enough beds for our family of 7 (each kid got to sleep in one of the beds by themselves during the stay)-Was a comfortable and better stay than our San Diego trip-2 bathrooms and 2 tv's-Very friendly front desk help (Stacy was great and very helpful!!!! Cudos to you and you need a raise!)-Stacy is a Pro and helped to make our stay comfortable (though we did not ask for very much) was very helpful over the phone and was willing to talk to me and ensure we had a great time. Answered all of my questions and concerns.-was comfortable to come back to after 14 hours at Disneyland and C.A)-Though it is not an upscale hotel, it is comfortable and nice and great for the money (we paid $180.00 and 190.00 a night for 2 full size connecting rooms / downstairs). It was worth the money. If you can get it even cheaper then you are getting a great deal.-bathroom was comfortable-The new owner has put in a lot of time and money for the property, if you had a bad stay prior to 1/06 I would give this place another try!!!Cons-small parking lot (though we always found parking by our room)-pool is a little small (no big deal)-Wished the tvs had hooks for game systems or dvd player to keep the kids busy during down time (though the cable was good and we always found something to watch) Did not spend too much time here had a lot to do for the 5 nights we were here.-a little small around the bathroom door and the bathroom sink. (moving around)I would recommend this hotel to others and for the price, you save money. Moderate priced hotel with upscale employees. Thanks for the great stay!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was relieved when we arrived here from our run down Quailty Inn Airport/Seaworl hotel (see my review on this one, Q.I. should be shut down). 
+The pictures were the same as the rooms and I was happy about that. A little to far to walk to Disnayland (for me), but they do have a shuttle out front.
+Pros:
+-The rooms were the same as pictured!!!!
+-Nice colored room with windows that open (fun decor)
+-Clean when you arrive and they straigtened up everyday we were there
+-Nice shower (though the shower head could be higher on the wall for normal size adults)
+-kid friendly and quiet (could not hear the people above us)
+-Refrig and air conditioner (both worked very well, ac very cold!)
+-great list of resturants (with menus) that deliver to the room
+-the pool temp was great / hot tub was a little too hot could not get in
+-enough beds for our family of 7 (each kid got to sleep in one of the beds by themselves during the stay)
+-Was a comfortable and better stay than our San Diego trip
+-2 bathrooms and 2 tv's
+-Very friendly front desk help (Stacy was great and very helpful!!!! Cudos to you and you need a raise!)
+-Stacy is a Pro and helped to make our stay comfortable 
+(though we did not ask for very much) was very helpful over the phone and was willing to talk...I was relieved when we arrived here from our run down Quailty Inn Airport/Seaworl hotel (see my review on this one, Q.I. should be shut down). The pictures were the same as the rooms and I was happy about that. A little to far to walk to Disnayland (for me), but they do have a shuttle out front.Pros:-The rooms were the same as pictured!!!!-Nice colored room with windows that open (fun decor)-Clean when you arrive and they straigtened up everyday we were there-Nice shower (though the shower head could be higher on the wall for normal size adults)-kid friendly and quiet (could not hear the people above us)-Refrig and air conditioner (both worked very well, ac very cold!)-great list of resturants (with menus) that deliver to the room-the pool temp was great / hot tub was a little too hot could not get in-enough beds for our family of 7 (each kid got to sleep in one of the beds by themselves during the stay)-Was a comfortable and better stay than our San Diego trip-2 bathrooms and 2 tv's-Very friendly front desk help (Stacy was great and very helpful!!!! Cudos to you and you need a raise!)-Stacy is a Pro and helped to make our stay comfortable (though we did not ask for very much) was very helpful over the phone and was willing to talk to me and ensure we had a great time. Answered all of my questions and concerns.-was comfortable to come back to after 14 hours at Disneyland and C.A)-Though it is not an upscale hotel, it is comfortable and nice and great for the money (we paid $180.00 and 190.00 a night for 2 full size connecting rooms / downstairs). It was worth the money. If you can get it even cheaper then you are getting a great deal.-bathroom was comfortable-The new owner has put in a lot of time and money for the property, if you had a bad stay prior to 1/06 I would give this place another try!!!Cons-small parking lot (though we always found parking by our room)-pool is a little small (no big deal)-Wished the tvs had hooks for game systems or dvd player to keep the kids busy during down time (though the cable was good and we always found something to watch) Did not spend too much time here had a lot to do for the 5 nights we were here.-a little small around the bathroom door and the bathroom sink. (moving around)I would recommend this hotel to others and for the price, you save money. Moderate priced hotel with upscale employees. Thanks for the great stay!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r5348811-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>5348811</t>
+  </si>
+  <si>
+    <t>06/13/2006</t>
+  </si>
+  <si>
+    <t>Don't Stay Here</t>
+  </si>
+  <si>
+    <t>I picked this hotel because it had good reviews and the pics made the place look great. It wasn't. It is a rundown small, small, small hotel. They didn't have a room on the first floor, as we requested when we made the reservation and confirmed before arrival. The room we did get smelled funny. They must have just painted the bathroom, it reaked of paint. We left the window open with the blower on the whole time we were there (4 nights!) and it still stunk. I found and killed two ear-wig/beetle/roach type bugs, one in the bathroom and one right next to the bed. The water pressure was so bad I could have spit on myself faster and harder and the shower head was sooo low, to use it, you needed to be under 5' tall. They didn't have enough parking spots for all of the rooms. The continental breakfast was joke! It was from 7-9am, but if you weren't there at 7am on the dot it was all gone, what little they had to offer. They didn't even clean the rooms while we were there. They made the beds, but that was all. There was a ball of hair on the floor when we got the room and it was still there when we left - GROSS!MoreShow less</t>
+  </si>
+  <si>
+    <t>I picked this hotel because it had good reviews and the pics made the place look great. It wasn't. It is a rundown small, small, small hotel. They didn't have a room on the first floor, as we requested when we made the reservation and confirmed before arrival. The room we did get smelled funny. They must have just painted the bathroom, it reaked of paint. We left the window open with the blower on the whole time we were there (4 nights!) and it still stunk. I found and killed two ear-wig/beetle/roach type bugs, one in the bathroom and one right next to the bed. The water pressure was so bad I could have spit on myself faster and harder and the shower head was sooo low, to use it, you needed to be under 5' tall. They didn't have enough parking spots for all of the rooms. The continental breakfast was joke! It was from 7-9am, but if you weren't there at 7am on the dot it was all gone, what little they had to offer. They didn't even clean the rooms while we were there. They made the beds, but that was all. There was a ball of hair on the floor when we got the room and it was still there when we left - GROSS!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r5188442-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>5188442</t>
+  </si>
+  <si>
+    <t>05/21/2006</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here for a couple of nights while travelling across the US from LA with my adult daughter.  The room was clean and comfortable and the receptionist, Stacey, couldn't do enough for us.  Wouldn't hesitate to stay here again.  Well located for Disneyland with a shuttle bus right outside the door.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r5181737-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>5181737</t>
+  </si>
+  <si>
+    <t>05/18/2006</t>
+  </si>
+  <si>
+    <t>What a disaster</t>
+  </si>
+  <si>
+    <t>I guess they put new asphalt in or something there was grease all over the floors. Terrible. Never againMoreShow less</t>
+  </si>
+  <si>
+    <t>I guess they put new asphalt in or something there was grease all over the floors. Terrible. Never againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r5069302-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>5069302</t>
+  </si>
+  <si>
+    <t>05/14/2006</t>
+  </si>
+  <si>
+    <t>just ok</t>
+  </si>
+  <si>
+    <t>If you can afford better stay somepace else, if not its just ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you can afford better stay somepace else, if not its just ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r4398657-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>4398657</t>
+  </si>
+  <si>
+    <t>01/29/2006</t>
+  </si>
+  <si>
+    <t>Very Nice for the Money</t>
+  </si>
+  <si>
+    <t>Very nice for the money, I mean come on folks, this is a discount hotel for the area. Very close to Disney and the Convention Center. I checked in early but the manager at the desk in the AM was very accomidating and processed my checkin early so I could get settled and off to the convention center. Room was clean, plenty of towels, free wireless internet, everything worked, very comfortable. All in all I would stay here again. If I paid Hilton prices for the room I would be left wanting but for what it is they do a great job of caring for the guests. Room #204, Jan 28th thru Feb 1st 2006.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2006</t>
+  </si>
+  <si>
+    <t>Very nice for the money, I mean come on folks, this is a discount hotel for the area. Very close to Disney and the Convention Center. I checked in early but the manager at the desk in the AM was very accomidating and processed my checkin early so I could get settled and off to the convention center. Room was clean, plenty of towels, free wireless internet, everything worked, very comfortable. All in all I would stay here again. If I paid Hilton prices for the room I would be left wanting but for what it is they do a great job of caring for the guests. Room #204, Jan 28th thru Feb 1st 2006.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r4336238-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>4336238</t>
+  </si>
+  <si>
+    <t>01/09/2006</t>
+  </si>
+  <si>
+    <t>Great Price - Not a Lot of Extras.</t>
+  </si>
+  <si>
+    <t>My family recently stayed here during the week between Christmas and through New Years.  We had a total of 8 people with us.  You can't beat the price of the room that we had.  $110 total for two adjoining rooms - 4 queen beds and two bathrooms. And this was during the busiest time of the year!  However, don't expect any extras.  As I have read in other reveiws (and can only assume we are speaking of the same person) the man that runs the front desk in the evenings is worthless and rude.  Upon checking in we asked him to get us some extra pillows and towels.  The towels he handed to us at the counter and claimed that he would bring us the pillows.  He never did and I suspect he never intended to.  We were able to ask a maid for the pillows the next morning and they gave them to us.  For some reason there is a ONE per room wash cloth allotment!  What??!!  Very strange, and don't bother asking for more, you won't get them.  The female manager that works the day shift is VERY wonderful, friendly and helpful, so don't be put off in staying here.  The rooms look as though they were recently painted, with fairly new furniture.  Carpets are clean and so is bedding.  The rooms have nice wooden blinds which I really loved instead of musty old drapes.  Breakfast is what...My family recently stayed here during the week between Christmas and through New Years.  We had a total of 8 people with us.  You can't beat the price of the room that we had.  $110 total for two adjoining rooms - 4 queen beds and two bathrooms. And this was during the busiest time of the year!  However, don't expect any extras.  As I have read in other reveiws (and can only assume we are speaking of the same person) the man that runs the front desk in the evenings is worthless and rude.  Upon checking in we asked him to get us some extra pillows and towels.  The towels he handed to us at the counter and claimed that he would bring us the pillows.  He never did and I suspect he never intended to.  We were able to ask a maid for the pillows the next morning and they gave them to us.  For some reason there is a ONE per room wash cloth allotment!  What??!!  Very strange, and don't bother asking for more, you won't get them.  The female manager that works the day shift is VERY wonderful, friendly and helpful, so don't be put off in staying here.  The rooms look as though they were recently painted, with fairly new furniture.  Carpets are clean and so is bedding.  The rooms have nice wooden blinds which I really loved instead of musty old drapes.  Breakfast is what you'd expect...doughnuts, coffee, juice, tea, bread (and a toaster), milk and cold cereal.  Enough to get the kids by until lunch.  We used the ART busses to get back and forth from the hotel for $3 a day.  It says it is three blocks from Diseyland, but it's more like 4 looong blocks.  My teenage son walked this a couple of times, but wouldn't suggest it for small kids and older folks after a long day at the park.  We would stay here again for the great savings, but prefer to be within walking distance to the park.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family recently stayed here during the week between Christmas and through New Years.  We had a total of 8 people with us.  You can't beat the price of the room that we had.  $110 total for two adjoining rooms - 4 queen beds and two bathrooms. And this was during the busiest time of the year!  However, don't expect any extras.  As I have read in other reveiws (and can only assume we are speaking of the same person) the man that runs the front desk in the evenings is worthless and rude.  Upon checking in we asked him to get us some extra pillows and towels.  The towels he handed to us at the counter and claimed that he would bring us the pillows.  He never did and I suspect he never intended to.  We were able to ask a maid for the pillows the next morning and they gave them to us.  For some reason there is a ONE per room wash cloth allotment!  What??!!  Very strange, and don't bother asking for more, you won't get them.  The female manager that works the day shift is VERY wonderful, friendly and helpful, so don't be put off in staying here.  The rooms look as though they were recently painted, with fairly new furniture.  Carpets are clean and so is bedding.  The rooms have nice wooden blinds which I really loved instead of musty old drapes.  Breakfast is what...My family recently stayed here during the week between Christmas and through New Years.  We had a total of 8 people with us.  You can't beat the price of the room that we had.  $110 total for two adjoining rooms - 4 queen beds and two bathrooms. And this was during the busiest time of the year!  However, don't expect any extras.  As I have read in other reveiws (and can only assume we are speaking of the same person) the man that runs the front desk in the evenings is worthless and rude.  Upon checking in we asked him to get us some extra pillows and towels.  The towels he handed to us at the counter and claimed that he would bring us the pillows.  He never did and I suspect he never intended to.  We were able to ask a maid for the pillows the next morning and they gave them to us.  For some reason there is a ONE per room wash cloth allotment!  What??!!  Very strange, and don't bother asking for more, you won't get them.  The female manager that works the day shift is VERY wonderful, friendly and helpful, so don't be put off in staying here.  The rooms look as though they were recently painted, with fairly new furniture.  Carpets are clean and so is bedding.  The rooms have nice wooden blinds which I really loved instead of musty old drapes.  Breakfast is what you'd expect...doughnuts, coffee, juice, tea, bread (and a toaster), milk and cold cereal.  Enough to get the kids by until lunch.  We used the ART busses to get back and forth from the hotel for $3 a day.  It says it is three blocks from Diseyland, but it's more like 4 looong blocks.  My teenage son walked this a couple of times, but wouldn't suggest it for small kids and older folks after a long day at the park.  We would stay here again for the great savings, but prefer to be within walking distance to the park.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r4316291-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>4316291</t>
+  </si>
+  <si>
+    <t>01/01/2006</t>
+  </si>
+  <si>
+    <t>Warning Roaches</t>
+  </si>
+  <si>
+    <t>ROACHES.DO NOT STAY HERE.When I arrived I was told I was being charged an extra 15% resort fee, that had not been previously disclosed.The guy running the front desk was extemely rude.I went up to the room and noticed there was no coffee pot, and was told that only the suites had coffee pots.I also had to make multiple trips to the front desk becasue the room keys did not work.The first room I was put in was filthy and had puke stains all over the sheet all down the side of the bed.I was then moved to a second room, which had stains all over the blankets on the bed a hole from a cigarette burn,no light bulb in the lamp, was missing the smoke detector, and missing the microwave.When I went down and complained again about the room being dirty,and told the guy there was no microwave he looked at me like I took it, not hardly.I had read a previous review about someone saying that the maids were doing inventory on his suitcase. There are stickers in the room that says that they inventory the rooms daily.When I arrived almost all the doors on the second floor were wide open, maybe where the microwave went.Maybe they ought to have the place tented and do quality and cleanliness checks.The third room I was then moved to had stains all over the carpet,stains all over the chairs,and the clock...ROACHES.DO NOT STAY HERE.When I arrived I was told I was being charged an extra 15% resort fee, that had not been previously disclosed.The guy running the front desk was extemely rude.I went up to the room and noticed there was no coffee pot, and was told that only the suites had coffee pots.I also had to make multiple trips to the front desk becasue the room keys did not work.The first room I was put in was filthy and had puke stains all over the sheet all down the side of the bed.I was then moved to a second room, which had stains all over the blankets on the bed a hole from a cigarette burn,no light bulb in the lamp, was missing the smoke detector, and missing the microwave.When I went down and complained again about the room being dirty,and told the guy there was no microwave he looked at me like I took it, not hardly.I had read a previous review about someone saying that the maids were doing inventory on his suitcase. There are stickers in the room that says that they inventory the rooms daily.When I arrived almost all the doors on the second floor were wide open, maybe where the microwave went.Maybe they ought to have the place tented and do quality and cleanliness checks.The third room I was then moved to had stains all over the carpet,stains all over the chairs,and the clock was broken and looked like someone had taken a knife to it, and the toilet looked as though it had not been cleaned.If this wasnt enough a COCKROACH SCURRIED ACROSS THE FLOOR.Needless to say I did not stay overnight, since I booked through a travel company I had to call them to refund my money.I did get back the $9.00 resort fee, the guy handed me a 5 dollar bill and 4 dollars in change.Unbelievable, I asked you dont have any singles? and he rudly told me that well it had been a few hours since I checked in, instead of saying Im sorry thats all I have.I did take a few pictures in the 3rd room before seeing the COCKROACH.The website says it has a new orleans theme, maybe what was left after hurricane katrina flooded it.No wonder its called the Vagabond Inn.The name alone should tell you something.Roaches check in and they do check out, you may leave with more than what you came with.MoreShow less</t>
+  </si>
+  <si>
+    <t>ROACHES.DO NOT STAY HERE.When I arrived I was told I was being charged an extra 15% resort fee, that had not been previously disclosed.The guy running the front desk was extemely rude.I went up to the room and noticed there was no coffee pot, and was told that only the suites had coffee pots.I also had to make multiple trips to the front desk becasue the room keys did not work.The first room I was put in was filthy and had puke stains all over the sheet all down the side of the bed.I was then moved to a second room, which had stains all over the blankets on the bed a hole from a cigarette burn,no light bulb in the lamp, was missing the smoke detector, and missing the microwave.When I went down and complained again about the room being dirty,and told the guy there was no microwave he looked at me like I took it, not hardly.I had read a previous review about someone saying that the maids were doing inventory on his suitcase. There are stickers in the room that says that they inventory the rooms daily.When I arrived almost all the doors on the second floor were wide open, maybe where the microwave went.Maybe they ought to have the place tented and do quality and cleanliness checks.The third room I was then moved to had stains all over the carpet,stains all over the chairs,and the clock...ROACHES.DO NOT STAY HERE.When I arrived I was told I was being charged an extra 15% resort fee, that had not been previously disclosed.The guy running the front desk was extemely rude.I went up to the room and noticed there was no coffee pot, and was told that only the suites had coffee pots.I also had to make multiple trips to the front desk becasue the room keys did not work.The first room I was put in was filthy and had puke stains all over the sheet all down the side of the bed.I was then moved to a second room, which had stains all over the blankets on the bed a hole from a cigarette burn,no light bulb in the lamp, was missing the smoke detector, and missing the microwave.When I went down and complained again about the room being dirty,and told the guy there was no microwave he looked at me like I took it, not hardly.I had read a previous review about someone saying that the maids were doing inventory on his suitcase. There are stickers in the room that says that they inventory the rooms daily.When I arrived almost all the doors on the second floor were wide open, maybe where the microwave went.Maybe they ought to have the place tented and do quality and cleanliness checks.The third room I was then moved to had stains all over the carpet,stains all over the chairs,and the clock was broken and looked like someone had taken a knife to it, and the toilet looked as though it had not been cleaned.If this wasnt enough a COCKROACH SCURRIED ACROSS THE FLOOR.Needless to say I did not stay overnight, since I booked through a travel company I had to call them to refund my money.I did get back the $9.00 resort fee, the guy handed me a 5 dollar bill and 4 dollars in change.Unbelievable, I asked you dont have any singles? and he rudly told me that well it had been a few hours since I checked in, instead of saying Im sorry thats all I have.I did take a few pictures in the 3rd room before seeing the COCKROACH.The website says it has a new orleans theme, maybe what was left after hurricane katrina flooded it.No wonder its called the Vagabond Inn.The name alone should tell you something.Roaches check in and they do check out, you may leave with more than what you came with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r4099995-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>4099995</t>
+  </si>
+  <si>
+    <t>11/07/2005</t>
+  </si>
+  <si>
+    <t>Cheap and cheerful!</t>
+  </si>
+  <si>
+    <t>We (2 adults and 2 teenagers) stayed here on 2 separate occasions within the same holiday, mainly because we needed 2 reasonably priced rooms and the Vagabond's pricing was within our budget. I booked online directly with the hotel, $89 plus tax for a 2 queen connecting room, which is essentially 2 rooms each with 2 queen-sized beds.
+On the up side;
+Good location for Disney, access to beaches (Newport, Huntington, Laguna are all recommended) &amp; shopping (South Coast for high end serious shoppers, The Block at Orange for those with less money (or interest!)) Being on Harbor Boulevard the hotel is conveniently located to numerous restaurants/fast food joints.
+Room size was decent for the money.
+Free parking.
+Connecting rooms.
+Fridge, iron &amp; ironing board in room at no extra charge.
+Laundry room available.
+Free continental breakfast (though we didn't bother with this).
+Outdoor jacuzzi was always lovely &amp; warm and both jacuzzi and pool were very clean (but also see additional comments below).
+Stacey in reception is a complete star, nothing was too much trouble - she even printed me off a map of directions from the hotel to the shopping mall.
+On the down side;
+On both occasions the rooms smelled on initial entry - the closest I could describe is of faintly wet dog. (!) However, this didn't put us off and didn't seem to linger (though maybe we just got used to it).
+The towels (though...We (2 adults and 2 teenagers) stayed here on 2 separate occasions within the same holiday, mainly because we needed 2 reasonably priced rooms and the Vagabond's pricing was within our budget. I booked online directly with the hotel, $89 plus tax for a 2 queen connecting room, which is essentially 2 rooms each with 2 queen-sized beds.On the up side;Good location for Disney, access to beaches (Newport, Huntington, Laguna are all recommended) &amp; shopping (South Coast for high end serious shoppers, The Block at Orange for those with less money (or interest!)) Being on Harbor Boulevard the hotel is conveniently located to numerous restaurants/fast food joints.Room size was decent for the money.Free parking.Connecting rooms.Fridge, iron &amp; ironing board in room at no extra charge.Laundry room available.Free continental breakfast (though we didn't bother with this).Outdoor jacuzzi was always lovely &amp; warm and both jacuzzi and pool were very clean (but also see additional comments below).Stacey in reception is a complete star, nothing was too much trouble - she even printed me off a map of directions from the hotel to the shopping mall.On the down side;On both occasions the rooms smelled on initial entry - the closest I could describe is of faintly wet dog. (!) However, this didn't put us off and didn't seem to linger (though maybe we just got used to it).The towels (though clean and replaced readily) were too small and very thin.The pool and pool area are very small - more the size you'd expect for a family villa not a hotel.On both occasions, we had a room with an iron-shaped burn on the carpet. Not a big issue but perhaps it's time to replace the carpets.MoreShow less</t>
+  </si>
+  <si>
+    <t>We (2 adults and 2 teenagers) stayed here on 2 separate occasions within the same holiday, mainly because we needed 2 reasonably priced rooms and the Vagabond's pricing was within our budget. I booked online directly with the hotel, $89 plus tax for a 2 queen connecting room, which is essentially 2 rooms each with 2 queen-sized beds.
+On the up side;
+Good location for Disney, access to beaches (Newport, Huntington, Laguna are all recommended) &amp; shopping (South Coast for high end serious shoppers, The Block at Orange for those with less money (or interest!)) Being on Harbor Boulevard the hotel is conveniently located to numerous restaurants/fast food joints.
+Room size was decent for the money.
+Free parking.
+Connecting rooms.
+Fridge, iron &amp; ironing board in room at no extra charge.
+Laundry room available.
+Free continental breakfast (though we didn't bother with this).
+Outdoor jacuzzi was always lovely &amp; warm and both jacuzzi and pool were very clean (but also see additional comments below).
+Stacey in reception is a complete star, nothing was too much trouble - she even printed me off a map of directions from the hotel to the shopping mall.
+On the down side;
+On both occasions the rooms smelled on initial entry - the closest I could describe is of faintly wet dog. (!) However, this didn't put us off and didn't seem to linger (though maybe we just got used to it).
+The towels (though...We (2 adults and 2 teenagers) stayed here on 2 separate occasions within the same holiday, mainly because we needed 2 reasonably priced rooms and the Vagabond's pricing was within our budget. I booked online directly with the hotel, $89 plus tax for a 2 queen connecting room, which is essentially 2 rooms each with 2 queen-sized beds.On the up side;Good location for Disney, access to beaches (Newport, Huntington, Laguna are all recommended) &amp; shopping (South Coast for high end serious shoppers, The Block at Orange for those with less money (or interest!)) Being on Harbor Boulevard the hotel is conveniently located to numerous restaurants/fast food joints.Room size was decent for the money.Free parking.Connecting rooms.Fridge, iron &amp; ironing board in room at no extra charge.Laundry room available.Free continental breakfast (though we didn't bother with this).Outdoor jacuzzi was always lovely &amp; warm and both jacuzzi and pool were very clean (but also see additional comments below).Stacey in reception is a complete star, nothing was too much trouble - she even printed me off a map of directions from the hotel to the shopping mall.On the down side;On both occasions the rooms smelled on initial entry - the closest I could describe is of faintly wet dog. (!) However, this didn't put us off and didn't seem to linger (though maybe we just got used to it).The towels (though clean and replaced readily) were too small and very thin.The pool and pool area are very small - more the size you'd expect for a family villa not a hotel.On both occasions, we had a room with an iron-shaped burn on the carpet. Not a big issue but perhaps it's time to replace the carpets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r4035180-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>4035180</t>
+  </si>
+  <si>
+    <t>10/18/2005</t>
+  </si>
+  <si>
+    <t>Avoid this motel like the plague</t>
+  </si>
+  <si>
+    <t>I booked a two room suite on the internet.  They advertise it as a New Orleans themed motel.  What they don't tell you is that it resembles New Orleans after the hurricane. This place is disgusting.  The room wasn't a suite, but two adjoining rooms.  It was supposed to be an Executive Inn.  No way.  I complained to the manager that I was mislead.  He said, "It is like a suite.  You get 4 beds".  I thought I booked a suite, not something "like a suite".  This is not what they advertised.  It was full of mold and the pillows and sheets were stained.  You stuck to the carpet when you walked across the room.  
+In one room, the air conditioner did not work. In the other, the shower faucet was broken and would not turn on.  My family and I stayed there 3 nights.  I complained every morning and every evening and they said they would be right up and fix it.  They lied. Nobody ever showed up.  We would have left after the first night, but they refused to refund my money, saying it was booked through Expedia and I would have to go through them. 
+The Continental breakfast consisted of day old pastries from 7-11. 
+This place is a total waste of money.  I will be doing a charge back on my Visa for the cost of one room, since that is really all we got, and...I booked a two room suite on the internet.  They advertise it as a New Orleans themed motel.  What they don't tell you is that it resembles New Orleans after the hurricane. This place is disgusting.  The room wasn't a suite, but two adjoining rooms.  It was supposed to be an Executive Inn.  No way.  I complained to the manager that I was mislead.  He said, "It is like a suite.  You get 4 beds".  I thought I booked a suite, not something "like a suite".  This is not what they advertised.  It was full of mold and the pillows and sheets were stained.  You stuck to the carpet when you walked across the room.  In one room, the air conditioner did not work. In the other, the shower faucet was broken and would not turn on.  My family and I stayed there 3 nights.  I complained every morning and every evening and they said they would be right up and fix it.  They lied. Nobody ever showed up.  We would have left after the first night, but they refused to refund my money, saying it was booked through Expedia and I would have to go through them. The Continental breakfast consisted of day old pastries from 7-11. This place is a total waste of money.  I will be doing a charge back on my Visa for the cost of one room, since that is really all we got, and it was bad! They charged me $105.00 per night for this dump!Avoid this place like the plague or you might just catch something while staying there.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked a two room suite on the internet.  They advertise it as a New Orleans themed motel.  What they don't tell you is that it resembles New Orleans after the hurricane. This place is disgusting.  The room wasn't a suite, but two adjoining rooms.  It was supposed to be an Executive Inn.  No way.  I complained to the manager that I was mislead.  He said, "It is like a suite.  You get 4 beds".  I thought I booked a suite, not something "like a suite".  This is not what they advertised.  It was full of mold and the pillows and sheets were stained.  You stuck to the carpet when you walked across the room.  
+In one room, the air conditioner did not work. In the other, the shower faucet was broken and would not turn on.  My family and I stayed there 3 nights.  I complained every morning and every evening and they said they would be right up and fix it.  They lied. Nobody ever showed up.  We would have left after the first night, but they refused to refund my money, saying it was booked through Expedia and I would have to go through them. 
+The Continental breakfast consisted of day old pastries from 7-11. 
+This place is a total waste of money.  I will be doing a charge back on my Visa for the cost of one room, since that is really all we got, and...I booked a two room suite on the internet.  They advertise it as a New Orleans themed motel.  What they don't tell you is that it resembles New Orleans after the hurricane. This place is disgusting.  The room wasn't a suite, but two adjoining rooms.  It was supposed to be an Executive Inn.  No way.  I complained to the manager that I was mislead.  He said, "It is like a suite.  You get 4 beds".  I thought I booked a suite, not something "like a suite".  This is not what they advertised.  It was full of mold and the pillows and sheets were stained.  You stuck to the carpet when you walked across the room.  In one room, the air conditioner did not work. In the other, the shower faucet was broken and would not turn on.  My family and I stayed there 3 nights.  I complained every morning and every evening and they said they would be right up and fix it.  They lied. Nobody ever showed up.  We would have left after the first night, but they refused to refund my money, saying it was booked through Expedia and I would have to go through them. The Continental breakfast consisted of day old pastries from 7-11. This place is a total waste of money.  I will be doing a charge back on my Visa for the cost of one room, since that is really all we got, and it was bad! They charged me $105.00 per night for this dump!Avoid this place like the plague or you might just catch something while staying there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r4003285-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>4003285</t>
+  </si>
+  <si>
+    <t>10/08/2005</t>
+  </si>
+  <si>
+    <t>great if you like urine stained, hairy pillows</t>
+  </si>
+  <si>
+    <t>This hotel was the most disgusting hotel I have ever almost spent the night in.  We had booked a 4 night stay, and when we checked in we were appalled.  There were stains all over the pillows on both beds, ranging from a dark yellow, to lipstick, to unidentified black smears.  There were hairs on the sheets, and unidentifiable stains on the walls.  This hotel obviously has electrical problems, as we were not the only ones to post a review concerning the lights that would flicker and not stay on.  We spoke to the man at the front desk and he said we could have another room, so we went and looked at it.  It was just as bad with stains covering the pillows and sheets.  We started trying to cancel our reservation at 9pm, and after waiting 2 hours for the manager to show up, which he didn't, we had to find another hotel on our own.  And we still got charged for that night's stay even though we didn't stay the night.  They refused to give us anything saying that we checked out.  After 4 hours of dealing with their completely inferior rooms, unprofessional and overly rude staff, we left and will NEVER return.  Also the free Wi-Fi internet is only free because it doesn't work, and the guy at the front desk confirmed that it doesn't work. If you don't want to have to worry about what...This hotel was the most disgusting hotel I have ever almost spent the night in.  We had booked a 4 night stay, and when we checked in we were appalled.  There were stains all over the pillows on both beds, ranging from a dark yellow, to lipstick, to unidentified black smears.  There were hairs on the sheets, and unidentifiable stains on the walls.  This hotel obviously has electrical problems, as we were not the only ones to post a review concerning the lights that would flicker and not stay on.  We spoke to the man at the front desk and he said we could have another room, so we went and looked at it.  It was just as bad with stains covering the pillows and sheets.  We started trying to cancel our reservation at 9pm, and after waiting 2 hours for the manager to show up, which he didn't, we had to find another hotel on our own.  And we still got charged for that night's stay even though we didn't stay the night.  They refused to give us anything saying that we checked out.  After 4 hours of dealing with their completely inferior rooms, unprofessional and overly rude staff, we left and will NEVER return.  Also the free Wi-Fi internet is only free because it doesn't work, and the guy at the front desk confirmed that it doesn't work. If you don't want to have to worry about what kind of disease you may contract from your pillow case or sheets, I would highly recommend not staying at this hotel for any reason.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was the most disgusting hotel I have ever almost spent the night in.  We had booked a 4 night stay, and when we checked in we were appalled.  There were stains all over the pillows on both beds, ranging from a dark yellow, to lipstick, to unidentified black smears.  There were hairs on the sheets, and unidentifiable stains on the walls.  This hotel obviously has electrical problems, as we were not the only ones to post a review concerning the lights that would flicker and not stay on.  We spoke to the man at the front desk and he said we could have another room, so we went and looked at it.  It was just as bad with stains covering the pillows and sheets.  We started trying to cancel our reservation at 9pm, and after waiting 2 hours for the manager to show up, which he didn't, we had to find another hotel on our own.  And we still got charged for that night's stay even though we didn't stay the night.  They refused to give us anything saying that we checked out.  After 4 hours of dealing with their completely inferior rooms, unprofessional and overly rude staff, we left and will NEVER return.  Also the free Wi-Fi internet is only free because it doesn't work, and the guy at the front desk confirmed that it doesn't work. If you don't want to have to worry about what...This hotel was the most disgusting hotel I have ever almost spent the night in.  We had booked a 4 night stay, and when we checked in we were appalled.  There were stains all over the pillows on both beds, ranging from a dark yellow, to lipstick, to unidentified black smears.  There were hairs on the sheets, and unidentifiable stains on the walls.  This hotel obviously has electrical problems, as we were not the only ones to post a review concerning the lights that would flicker and not stay on.  We spoke to the man at the front desk and he said we could have another room, so we went and looked at it.  It was just as bad with stains covering the pillows and sheets.  We started trying to cancel our reservation at 9pm, and after waiting 2 hours for the manager to show up, which he didn't, we had to find another hotel on our own.  And we still got charged for that night's stay even though we didn't stay the night.  They refused to give us anything saying that we checked out.  After 4 hours of dealing with their completely inferior rooms, unprofessional and overly rude staff, we left and will NEVER return.  Also the free Wi-Fi internet is only free because it doesn't work, and the guy at the front desk confirmed that it doesn't work. If you don't want to have to worry about what kind of disease you may contract from your pillow case or sheets, I would highly recommend not staying at this hotel for any reason.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r3318587-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>3318587</t>
+  </si>
+  <si>
+    <t>03/31/2005</t>
+  </si>
+  <si>
+    <t>Amir, the manager is the asset to the hotel</t>
+  </si>
+  <si>
+    <t>I was expecting more from the price I paid for the night.  I had stayed at a much nicer hotel than the Vagabond Inn. The inn could also do a little bit better with the complimentary continental breakfast.   But what really made our trip worthwhile was Amir, the manager of Vagabond Inn. He went out of his way to help us out and accomodate my family. I have never met a more cordial and personable manager....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r3292140-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>3292140</t>
+  </si>
+  <si>
+    <t>03/20/2005</t>
+  </si>
+  <si>
+    <t>Good Place to Stay</t>
+  </si>
+  <si>
+    <t>You can't beat the price with a AAA discount and just be a hop, skip and jump from Disneyland. Can leave your car safely parked the the hotel parking lot and take the shuttle for a small fare.Room was very adequate for the cost. Only think missing from the room is an in-room coffee maker for those who wish to have a cup to begin the day.Amar, the Reservations Manager was superb and treated us just like houseguests.We would definitely not hesitate to stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r3241116-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>3241116</t>
+  </si>
+  <si>
+    <t>03/01/2005</t>
+  </si>
+  <si>
+    <t>Great Hospitality</t>
+  </si>
+  <si>
+    <t>great value for money......a very friendly hotel with a great location to walk or ride to DisneylandLove the bunk bed suite</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r2961817-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>2961817</t>
+  </si>
+  <si>
+    <t>12/28/2004</t>
+  </si>
+  <si>
+    <t>A Disneyland Flop</t>
+  </si>
+  <si>
+    <t>We found this hotel on the Internet where the photos and description were great!  Upon our arrival however, our hopes were certainly dashed.  We arrived after check-in at 3:00 and found that our room was not ready even though we were given keys.  The beds did not have sheets and still had dirty mattress pads and towels on the floor.  We informed the desk and were told that it would be 30 minutes at most, so we waited outside in the rental car with a sick little girl who needed a nap.  After 2 hours and three trips to the desk, we were told that they only had one dryer and "it take time!"  Finally housekeeping arrived and readied our room.  When we were able to go inside, the room was NOTHING like described on the Internet.  The room was very small and had an odor.  NONE of the amenities promised were available.  We tried desperately to find other accomodations, but the Disney area was very busy and we were unsuccessful.  During the night, my daughter was sick in the bed, so we took all of the bedding off aside from the lower sheet.  They did replace the bedding that we took off, but they actually made the bed over the bottom sheet which had been soiled.  We stayed for three nights without being able to find new accomodations and they never did change that soiled sheet even though we...We found this hotel on the Internet where the photos and description were great!  Upon our arrival however, our hopes were certainly dashed.  We arrived after check-in at 3:00 and found that our room was not ready even though we were given keys.  The beds did not have sheets and still had dirty mattress pads and towels on the floor.  We informed the desk and were told that it would be 30 minutes at most, so we waited outside in the rental car with a sick little girl who needed a nap.  After 2 hours and three trips to the desk, we were told that they only had one dryer and "it take time!"  Finally housekeeping arrived and readied our room.  When we were able to go inside, the room was NOTHING like described on the Internet.  The room was very small and had an odor.  NONE of the amenities promised were available.  We tried desperately to find other accomodations, but the Disney area was very busy and we were unsuccessful.  During the night, my daughter was sick in the bed, so we took all of the bedding off aside from the lower sheet.  They did replace the bedding that we took off, but they actually made the bed over the bottom sheet which had been soiled.  We stayed for three nights without being able to find new accomodations and they never did change that soiled sheet even though we asked them to.  We had to place a towel on the bed so she could sleep there.  This hotel was absolutely HORRIBLE, but fortunately we were so busy at Disneyland and California Adventure that we were only in the room for very short periods of time.  Definitely NOT recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>We found this hotel on the Internet where the photos and description were great!  Upon our arrival however, our hopes were certainly dashed.  We arrived after check-in at 3:00 and found that our room was not ready even though we were given keys.  The beds did not have sheets and still had dirty mattress pads and towels on the floor.  We informed the desk and were told that it would be 30 minutes at most, so we waited outside in the rental car with a sick little girl who needed a nap.  After 2 hours and three trips to the desk, we were told that they only had one dryer and "it take time!"  Finally housekeeping arrived and readied our room.  When we were able to go inside, the room was NOTHING like described on the Internet.  The room was very small and had an odor.  NONE of the amenities promised were available.  We tried desperately to find other accomodations, but the Disney area was very busy and we were unsuccessful.  During the night, my daughter was sick in the bed, so we took all of the bedding off aside from the lower sheet.  They did replace the bedding that we took off, but they actually made the bed over the bottom sheet which had been soiled.  We stayed for three nights without being able to find new accomodations and they never did change that soiled sheet even though we...We found this hotel on the Internet where the photos and description were great!  Upon our arrival however, our hopes were certainly dashed.  We arrived after check-in at 3:00 and found that our room was not ready even though we were given keys.  The beds did not have sheets and still had dirty mattress pads and towels on the floor.  We informed the desk and were told that it would be 30 minutes at most, so we waited outside in the rental car with a sick little girl who needed a nap.  After 2 hours and three trips to the desk, we were told that they only had one dryer and "it take time!"  Finally housekeeping arrived and readied our room.  When we were able to go inside, the room was NOTHING like described on the Internet.  The room was very small and had an odor.  NONE of the amenities promised were available.  We tried desperately to find other accomodations, but the Disney area was very busy and we were unsuccessful.  During the night, my daughter was sick in the bed, so we took all of the bedding off aside from the lower sheet.  They did replace the bedding that we took off, but they actually made the bed over the bottom sheet which had been soiled.  We stayed for three nights without being able to find new accomodations and they never did change that soiled sheet even though we asked them to.  We had to place a towel on the bed so she could sleep there.  This hotel was absolutely HORRIBLE, but fortunately we were so busy at Disneyland and California Adventure that we were only in the room for very short periods of time.  Definitely NOT recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r2877920-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>2877920</t>
+  </si>
+  <si>
+    <t>12/12/2004</t>
+  </si>
+  <si>
+    <t>A good, affordable choice</t>
+  </si>
+  <si>
+    <t>The Anaheim Vagabond Executive Inn is a good hotel for the money. I have four children, and would have had to book two rooms at most hotels. At the Vagabond, they have "kids suites" that include a bunk bed room along with two double beds in the main room. All six of us fit and were comfortable (although the double beds were way too firm for my taste). The kids stayed free, and thus our Disney adventure was very affordable. One caveat - this hotel is about a mile from Disneyland, despite their claim that they are "two blocks" from the park. Big blocks in those parts. You'll need to take the shuttle.
+It is a budget hotel, so don't expect  TOO much, and you'll be satisfied. Our room had a microwave and a fridge, so snacks and beverages were easy to have on hand, and there is a convenience store and several family restaurants within easy walking distance so we didn't feel compelled to eat every meal at the Disney park. The ART shuttle picks up right in front, there is a Budget car rental across the street if you need such a thing, and the pool and hot tub are convenient, if small. Free breakfast choices included coffee, juice, toast, pastries, and cold cereal. Plenty, for our liking.
+We went in early December, so I can't say what it's like in the busy season, but I found it...The Anaheim Vagabond Executive Inn is a good hotel for the money. I have four children, and would have had to book two rooms at most hotels. At the Vagabond, they have "kids suites" that include a bunk bed room along with two double beds in the main room. All six of us fit and were comfortable (although the double beds were way too firm for my taste). The kids stayed free, and thus our Disney adventure was very affordable. One caveat - this hotel is about a mile from Disneyland, despite their claim that they are "two blocks" from the park. Big blocks in those parts. You'll need to take the shuttle.It is a budget hotel, so don't expect  TOO much, and you'll be satisfied. Our room had a microwave and a fridge, so snacks and beverages were easy to have on hand, and there is a convenience store and several family restaurants within easy walking distance so we didn't feel compelled to eat every meal at the Disney park. The ART shuttle picks up right in front, there is a Budget car rental across the street if you need such a thing, and the pool and hot tub are convenient, if small. Free breakfast choices included coffee, juice, toast, pastries, and cold cereal. Plenty, for our liking.We went in early December, so I can't say what it's like in the busy season, but I found it to be a solid, affordable choice that offers everything that most families need, minus frills, and I would gladly do business there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Anaheim Vagabond Executive Inn is a good hotel for the money. I have four children, and would have had to book two rooms at most hotels. At the Vagabond, they have "kids suites" that include a bunk bed room along with two double beds in the main room. All six of us fit and were comfortable (although the double beds were way too firm for my taste). The kids stayed free, and thus our Disney adventure was very affordable. One caveat - this hotel is about a mile from Disneyland, despite their claim that they are "two blocks" from the park. Big blocks in those parts. You'll need to take the shuttle.
+It is a budget hotel, so don't expect  TOO much, and you'll be satisfied. Our room had a microwave and a fridge, so snacks and beverages were easy to have on hand, and there is a convenience store and several family restaurants within easy walking distance so we didn't feel compelled to eat every meal at the Disney park. The ART shuttle picks up right in front, there is a Budget car rental across the street if you need such a thing, and the pool and hot tub are convenient, if small. Free breakfast choices included coffee, juice, toast, pastries, and cold cereal. Plenty, for our liking.
+We went in early December, so I can't say what it's like in the busy season, but I found it...The Anaheim Vagabond Executive Inn is a good hotel for the money. I have four children, and would have had to book two rooms at most hotels. At the Vagabond, they have "kids suites" that include a bunk bed room along with two double beds in the main room. All six of us fit and were comfortable (although the double beds were way too firm for my taste). The kids stayed free, and thus our Disney adventure was very affordable. One caveat - this hotel is about a mile from Disneyland, despite their claim that they are "two blocks" from the park. Big blocks in those parts. You'll need to take the shuttle.It is a budget hotel, so don't expect  TOO much, and you'll be satisfied. Our room had a microwave and a fridge, so snacks and beverages were easy to have on hand, and there is a convenience store and several family restaurants within easy walking distance so we didn't feel compelled to eat every meal at the Disney park. The ART shuttle picks up right in front, there is a Budget car rental across the street if you need such a thing, and the pool and hot tub are convenient, if small. Free breakfast choices included coffee, juice, toast, pastries, and cold cereal. Plenty, for our liking.We went in early December, so I can't say what it's like in the busy season, but I found it to be a solid, affordable choice that offers everything that most families need, minus frills, and I would gladly do business there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r2627896-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>2627896</t>
+  </si>
+  <si>
+    <t>10/06/2004</t>
+  </si>
+  <si>
+    <t>Disgustingly filthy.  Never again...</t>
+  </si>
+  <si>
+    <t>This hotel was disgustingly filthy.  Within minutes of getting there, our kids socks were BLACK.  As if they'd been playing in the street black.  Our room (kids suite) was not available as the people from the previous night hadn't checked out.  They tried to put our kids in a room across the parking lot, and just couldn't understand why we were not OK with our ONE and THREE year olds in another room - alone!Filthy, half the plugs didn't work, they had extension cords running around the room...It was cheap, and NOT worth the money...  I'd never recommend this place - not even to my worst enemy.  When I wrote a letter of complaint I got a $5 coupon toward my next stay...  As if I'd ever go back.Highly disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was disgustingly filthy.  Within minutes of getting there, our kids socks were BLACK.  As if they'd been playing in the street black.  Our room (kids suite) was not available as the people from the previous night hadn't checked out.  They tried to put our kids in a room across the parking lot, and just couldn't understand why we were not OK with our ONE and THREE year olds in another room - alone!Filthy, half the plugs didn't work, they had extension cords running around the room...It was cheap, and NOT worth the money...  I'd never recommend this place - not even to my worst enemy.  When I wrote a letter of complaint I got a $5 coupon toward my next stay...  As if I'd ever go back.Highly disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r1793006-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>1793006</t>
+  </si>
+  <si>
+    <t>04/18/2004</t>
+  </si>
+  <si>
+    <t>Wonderfull Hotel</t>
+  </si>
+  <si>
+    <t>My family and I spent nine wonderful days at this hotel . It was quite, clean and the manager of the hotel came to our rescue more than once. We were four ladies traveling alone and he looked out for us, He found us a trusted cab driver to use , He got us tickets to Disney land and California Adventures, When our tickets didn't arrive like they were suppossed to at the Hotel. He even went out of his way to personley drop us off at our dinner and tournament at Medieval Times my granddaughter had her heart set on that. I have been to lots of hotels but never have I had as wonderful treatment as we had at the Anaheim Vagabond and a young man named Amar H.Bajwa he is special I recommend your Hotel Highly and I will come back to stay again. Sincerley , Shirley CripeMoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I spent nine wonderful days at this hotel . It was quite, clean and the manager of the hotel came to our rescue more than once. We were four ladies traveling alone and he looked out for us, He found us a trusted cab driver to use , He got us tickets to Disney land and California Adventures, When our tickets didn't arrive like they were suppossed to at the Hotel. He even went out of his way to personley drop us off at our dinner and tournament at Medieval Times my granddaughter had her heart set on that. I have been to lots of hotels but never have I had as wonderful treatment as we had at the Anaheim Vagabond and a young man named Amar H.Bajwa he is special I recommend your Hotel Highly and I will come back to stay again. Sincerley , Shirley CripeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r1772097-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>1772097</t>
+  </si>
+  <si>
+    <t>04/08/2004</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>My husband and I booked a room at the Vagabond for our anniversary. We felt that it was portrayed by AAA as a nice hotel for the price. While the room was nicely decorated and fairly clean (though at least once we returned in the late afternoon to find it had not yet been cleaned), we were quite disappointed with the desk service. Upon arrival, the man who checked us in was a bit sarcastic and rude. When we asked him a question about payment, he clearly didn't understand and was quite condescending. We were disappointed to find out that their shuttle service to Disneyland was not complimentary (as we were led to believe) and none of the desk clerks chose to inform us that we could purchase a multi-day pass instead of daily passes. In fact, when we asked one if we should buy tickets in advance for all of the days we were staying, he told us that it would be easier for us to buy them each day. As a result, we were charged more. We will not stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I booked a room at the Vagabond for our anniversary. We felt that it was portrayed by AAA as a nice hotel for the price. While the room was nicely decorated and fairly clean (though at least once we returned in the late afternoon to find it had not yet been cleaned), we were quite disappointed with the desk service. Upon arrival, the man who checked us in was a bit sarcastic and rude. When we asked him a question about payment, he clearly didn't understand and was quite condescending. We were disappointed to find out that their shuttle service to Disneyland was not complimentary (as we were led to believe) and none of the desk clerks chose to inform us that we could purchase a multi-day pass instead of daily passes. In fact, when we asked one if we should buy tickets in advance for all of the days we were staying, he told us that it would be easier for us to buy them each day. As a result, we were charged more. We will not stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r1420219-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>1420219</t>
+  </si>
+  <si>
+    <t>10/22/2003</t>
+  </si>
+  <si>
+    <t>Okay place</t>
+  </si>
+  <si>
+    <t>Rooms very clean, saw no problem with the floors as others have stated. Need to drive to Disney, but cheaper price made up for the parking fees. Breakfast usual continental, which means pastries and drinks, which was adequate.Only downfall was a lukewarm "hot tub", but the kids had a great time in the pool.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r1258886-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>1258886</t>
+  </si>
+  <si>
+    <t>08/24/2003</t>
+  </si>
+  <si>
+    <t>Loved The Vagabond, Anaheim</t>
+  </si>
+  <si>
+    <t>The Vagabond Inn (formerly The Dupre) was one of the highlights of our trip. The room was clean, tastefully decorated and homey. We had stayed at a lot of hotels all the way down on our trip to Disneyland and The Vagabond, Anaheim was the best by far. The staff was warm and friendly and took us in a day earlier than our reservation. The rates were excellent (got it on the internet) We had 2 adjoining rooms with 2 queen beds in each, 2 big TVs, 2 microwaves, 2 fridges and 2 bathrooms. AWESOME!!!There is no 'free' shuttle but the ART (Anaheim Resort Transit) was only $24US for all 4 of us to go back and forth from the hotel to Disneyland as many times as we needed for 5 days.I would highly recommend this hotel. It's small and hidden from the other giant hotels around it so look it up on the net. ...It has a small pool but adequate enough. It also has a hot tub and free parking. It's not far from Disneyland but you wouldn't want to walk after a day at the park.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Vagabond Inn (formerly The Dupre) was one of the highlights of our trip. The room was clean, tastefully decorated and homey. We had stayed at a lot of hotels all the way down on our trip to Disneyland and The Vagabond, Anaheim was the best by far. The staff was warm and friendly and took us in a day earlier than our reservation. The rates were excellent (got it on the internet) We had 2 adjoining rooms with 2 queen beds in each, 2 big TVs, 2 microwaves, 2 fridges and 2 bathrooms. AWESOME!!!There is no 'free' shuttle but the ART (Anaheim Resort Transit) was only $24US for all 4 of us to go back and forth from the hotel to Disneyland as many times as we needed for 5 days.I would highly recommend this hotel. It's small and hidden from the other giant hotels around it so look it up on the net. ...It has a small pool but adequate enough. It also has a hot tub and free parking. It's not far from Disneyland but you wouldn't want to walk after a day at the park.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r1141270-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>1141270</t>
+  </si>
+  <si>
+    <t>07/19/2003</t>
+  </si>
+  <si>
+    <t>Great value for Disney</t>
+  </si>
+  <si>
+    <t>The staff at The Vagabond (formerly the Dupre) do an excellent job of keeping an older motel pleasant for their guests. If you're expecting to be pampered, go somewhere else and pay alot more. The friendly staff was prompt with all requests. The pool was clean and the room was nice. The continental breakfast was limited, but that's not what I stayed here for. We stayed in their extended room with bunk beds for the kids and it was an enjoyable stay at a great price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r1135447-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>1135447</t>
+  </si>
+  <si>
+    <t>07/10/2003</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r929579-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>929579</t>
+  </si>
+  <si>
+    <t>04/02/2003</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r924852-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>924852</t>
+  </si>
+  <si>
+    <t>03/26/2003</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r848406-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>848406</t>
+  </si>
+  <si>
+    <t>01/27/2003</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r646210-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>646210</t>
+  </si>
+  <si>
+    <t>08/06/2002</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r640972-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>640972</t>
+  </si>
+  <si>
+    <t>07/08/2002</t>
   </si>
 </sst>
 </file>
@@ -648,6 +3084,7459 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>150</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>204</v>
+      </c>
+      <c r="O25" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K27" t="s">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s">
+        <v>216</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>210</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>219</v>
+      </c>
+      <c r="J28" t="s">
+        <v>220</v>
+      </c>
+      <c r="K28" t="s">
+        <v>221</v>
+      </c>
+      <c r="L28" t="s">
+        <v>222</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" t="s">
+        <v>226</v>
+      </c>
+      <c r="L29" t="s">
+        <v>227</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>228</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>231</v>
+      </c>
+      <c r="J30" t="s">
+        <v>232</v>
+      </c>
+      <c r="K30" t="s">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s">
+        <v>234</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>228</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" t="s">
+        <v>244</v>
+      </c>
+      <c r="K32" t="s">
+        <v>245</v>
+      </c>
+      <c r="L32" t="s">
+        <v>246</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>247</v>
+      </c>
+      <c r="O32" t="s">
+        <v>111</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" t="s">
+        <v>250</v>
+      </c>
+      <c r="K33" t="s">
+        <v>251</v>
+      </c>
+      <c r="L33" t="s">
+        <v>252</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>253</v>
+      </c>
+      <c r="O33" t="s">
+        <v>125</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>255</v>
+      </c>
+      <c r="J34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K34" t="s">
+        <v>257</v>
+      </c>
+      <c r="L34" t="s">
+        <v>258</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>259</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>261</v>
+      </c>
+      <c r="J35" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35" t="s">
+        <v>263</v>
+      </c>
+      <c r="L35" t="s">
+        <v>264</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>265</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>267</v>
+      </c>
+      <c r="J36" t="s">
+        <v>268</v>
+      </c>
+      <c r="K36" t="s">
+        <v>269</v>
+      </c>
+      <c r="L36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>265</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>272</v>
+      </c>
+      <c r="J37" t="s">
+        <v>273</v>
+      </c>
+      <c r="K37" t="s">
+        <v>274</v>
+      </c>
+      <c r="L37" t="s">
+        <v>275</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>276</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>278</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>279</v>
+      </c>
+      <c r="J38" t="s">
+        <v>280</v>
+      </c>
+      <c r="K38" t="s">
+        <v>281</v>
+      </c>
+      <c r="L38" t="s">
+        <v>282</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>283</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>284</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>285</v>
+      </c>
+      <c r="J39" t="s">
+        <v>286</v>
+      </c>
+      <c r="K39" t="s">
+        <v>287</v>
+      </c>
+      <c r="L39" t="s">
+        <v>288</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>283</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>290</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>291</v>
+      </c>
+      <c r="J40" t="s">
+        <v>292</v>
+      </c>
+      <c r="K40" t="s">
+        <v>293</v>
+      </c>
+      <c r="L40" t="s">
+        <v>294</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>283</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>296</v>
+      </c>
+      <c r="J41" t="s">
+        <v>297</v>
+      </c>
+      <c r="K41" t="s">
+        <v>298</v>
+      </c>
+      <c r="L41" t="s">
+        <v>299</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>300</v>
+      </c>
+      <c r="O41" t="s">
+        <v>150</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>302</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>303</v>
+      </c>
+      <c r="J42" t="s">
+        <v>304</v>
+      </c>
+      <c r="K42" t="s">
+        <v>305</v>
+      </c>
+      <c r="L42" t="s">
+        <v>306</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>307</v>
+      </c>
+      <c r="O42" t="s">
+        <v>150</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>309</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>310</v>
+      </c>
+      <c r="J43" t="s">
+        <v>311</v>
+      </c>
+      <c r="K43" t="s">
+        <v>312</v>
+      </c>
+      <c r="L43" t="s">
+        <v>313</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>300</v>
+      </c>
+      <c r="O43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>314</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>315</v>
+      </c>
+      <c r="J44" t="s">
+        <v>316</v>
+      </c>
+      <c r="K44" t="s">
+        <v>317</v>
+      </c>
+      <c r="L44" t="s">
+        <v>318</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>320</v>
+      </c>
+      <c r="J45" t="s">
+        <v>321</v>
+      </c>
+      <c r="K45" t="s">
+        <v>322</v>
+      </c>
+      <c r="L45" t="s">
+        <v>323</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>300</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>325</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>326</v>
+      </c>
+      <c r="J46" t="s">
+        <v>327</v>
+      </c>
+      <c r="K46" t="s">
+        <v>328</v>
+      </c>
+      <c r="L46" t="s">
+        <v>329</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>331</v>
+      </c>
+      <c r="J47" t="s">
+        <v>332</v>
+      </c>
+      <c r="K47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L47" t="s">
+        <v>334</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>335</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>337</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J48" t="s">
+        <v>339</v>
+      </c>
+      <c r="K48" t="s">
+        <v>340</v>
+      </c>
+      <c r="L48" t="s">
+        <v>341</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>342</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>344</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>345</v>
+      </c>
+      <c r="J49" t="s">
+        <v>346</v>
+      </c>
+      <c r="K49" t="s">
+        <v>347</v>
+      </c>
+      <c r="L49" t="s">
+        <v>348</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>335</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>350</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>351</v>
+      </c>
+      <c r="J50" t="s">
+        <v>352</v>
+      </c>
+      <c r="K50" t="s">
+        <v>353</v>
+      </c>
+      <c r="L50" t="s">
+        <v>354</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>355</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>356</v>
+      </c>
+      <c r="J51" t="s">
+        <v>357</v>
+      </c>
+      <c r="K51" t="s">
+        <v>358</v>
+      </c>
+      <c r="L51" t="s">
+        <v>359</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>360</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>362</v>
+      </c>
+      <c r="J52" t="s">
+        <v>363</v>
+      </c>
+      <c r="K52" t="s">
+        <v>364</v>
+      </c>
+      <c r="L52" t="s">
+        <v>365</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>366</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>367</v>
+      </c>
+      <c r="J53" t="s">
+        <v>368</v>
+      </c>
+      <c r="K53" t="s">
+        <v>369</v>
+      </c>
+      <c r="L53" t="s">
+        <v>370</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>371</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>373</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>374</v>
+      </c>
+      <c r="J54" t="s">
+        <v>375</v>
+      </c>
+      <c r="K54" t="s">
+        <v>376</v>
+      </c>
+      <c r="L54" t="s">
+        <v>377</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>378</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>379</v>
+      </c>
+      <c r="J55" t="s">
+        <v>380</v>
+      </c>
+      <c r="K55" t="s">
+        <v>381</v>
+      </c>
+      <c r="L55" t="s">
+        <v>382</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>383</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>384</v>
+      </c>
+      <c r="X55" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>387</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>388</v>
+      </c>
+      <c r="J56" t="s">
+        <v>389</v>
+      </c>
+      <c r="K56" t="s">
+        <v>390</v>
+      </c>
+      <c r="L56" t="s">
+        <v>391</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>392</v>
+      </c>
+      <c r="O56" t="s">
+        <v>111</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>393</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>394</v>
+      </c>
+      <c r="J57" t="s">
+        <v>395</v>
+      </c>
+      <c r="K57" t="s">
+        <v>396</v>
+      </c>
+      <c r="L57" t="s">
+        <v>397</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>398</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>384</v>
+      </c>
+      <c r="X57" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>400</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>401</v>
+      </c>
+      <c r="J58" t="s">
+        <v>402</v>
+      </c>
+      <c r="K58" t="s">
+        <v>403</v>
+      </c>
+      <c r="L58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>407</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>408</v>
+      </c>
+      <c r="J59" t="s">
+        <v>409</v>
+      </c>
+      <c r="K59" t="s">
+        <v>410</v>
+      </c>
+      <c r="L59" t="s">
+        <v>411</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>412</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>413</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>414</v>
+      </c>
+      <c r="J60" t="s">
+        <v>415</v>
+      </c>
+      <c r="K60" t="s">
+        <v>416</v>
+      </c>
+      <c r="L60" t="s">
+        <v>417</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>412</v>
+      </c>
+      <c r="O60" t="s">
+        <v>125</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>419</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>420</v>
+      </c>
+      <c r="J61" t="s">
+        <v>421</v>
+      </c>
+      <c r="K61" t="s">
+        <v>422</v>
+      </c>
+      <c r="L61" t="s">
+        <v>423</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>424</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>425</v>
+      </c>
+      <c r="X61" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>428</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>429</v>
+      </c>
+      <c r="J62" t="s">
+        <v>430</v>
+      </c>
+      <c r="K62" t="s">
+        <v>431</v>
+      </c>
+      <c r="L62" t="s">
+        <v>432</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>433</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>435</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>436</v>
+      </c>
+      <c r="J63" t="s">
+        <v>437</v>
+      </c>
+      <c r="K63" t="s">
+        <v>438</v>
+      </c>
+      <c r="L63" t="s">
+        <v>439</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>433</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>441</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>442</v>
+      </c>
+      <c r="J64" t="s">
+        <v>443</v>
+      </c>
+      <c r="K64" t="s">
+        <v>444</v>
+      </c>
+      <c r="L64" t="s">
+        <v>445</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>446</v>
+      </c>
+      <c r="O64" t="s">
+        <v>111</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>448</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>449</v>
+      </c>
+      <c r="J65" t="s">
+        <v>450</v>
+      </c>
+      <c r="K65" t="s">
+        <v>451</v>
+      </c>
+      <c r="L65" t="s">
+        <v>452</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>446</v>
+      </c>
+      <c r="O65" t="s">
+        <v>111</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>453</v>
+      </c>
+      <c r="X65" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>456</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>457</v>
+      </c>
+      <c r="J66" t="s">
+        <v>458</v>
+      </c>
+      <c r="K66" t="s">
+        <v>459</v>
+      </c>
+      <c r="L66" t="s">
+        <v>460</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>461</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>462</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>463</v>
+      </c>
+      <c r="J67" t="s">
+        <v>464</v>
+      </c>
+      <c r="K67" t="s">
+        <v>465</v>
+      </c>
+      <c r="L67" t="s">
+        <v>466</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>467</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>468</v>
+      </c>
+      <c r="X67" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>471</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>472</v>
+      </c>
+      <c r="J68" t="s">
+        <v>473</v>
+      </c>
+      <c r="K68" t="s">
+        <v>474</v>
+      </c>
+      <c r="L68" t="s">
+        <v>475</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>476</v>
+      </c>
+      <c r="O68" t="s">
+        <v>111</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>478</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>479</v>
+      </c>
+      <c r="J69" t="s">
+        <v>480</v>
+      </c>
+      <c r="K69" t="s">
+        <v>481</v>
+      </c>
+      <c r="L69" t="s">
+        <v>482</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>483</v>
+      </c>
+      <c r="O69" t="s">
+        <v>125</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>484</v>
+      </c>
+      <c r="X69" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>487</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>488</v>
+      </c>
+      <c r="J70" t="s">
+        <v>489</v>
+      </c>
+      <c r="K70" t="s">
+        <v>490</v>
+      </c>
+      <c r="L70" t="s">
+        <v>491</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>492</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>484</v>
+      </c>
+      <c r="X70" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>494</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>495</v>
+      </c>
+      <c r="J71" t="s">
+        <v>496</v>
+      </c>
+      <c r="K71" t="s">
+        <v>497</v>
+      </c>
+      <c r="L71" t="s">
+        <v>498</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>484</v>
+      </c>
+      <c r="X71" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>500</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>501</v>
+      </c>
+      <c r="J72" t="s">
+        <v>502</v>
+      </c>
+      <c r="K72" t="s">
+        <v>503</v>
+      </c>
+      <c r="L72" t="s">
+        <v>504</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>505</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>484</v>
+      </c>
+      <c r="X72" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>507</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>508</v>
+      </c>
+      <c r="J73" t="s">
+        <v>509</v>
+      </c>
+      <c r="K73" t="s">
+        <v>510</v>
+      </c>
+      <c r="L73" t="s">
+        <v>511</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>505</v>
+      </c>
+      <c r="O73" t="s">
+        <v>125</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>512</v>
+      </c>
+      <c r="X73" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>515</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>516</v>
+      </c>
+      <c r="J74" t="s">
+        <v>517</v>
+      </c>
+      <c r="K74" t="s">
+        <v>518</v>
+      </c>
+      <c r="L74" t="s">
+        <v>519</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>520</v>
+      </c>
+      <c r="O74" t="s">
+        <v>125</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>521</v>
+      </c>
+      <c r="X74" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>524</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>525</v>
+      </c>
+      <c r="J75" t="s">
+        <v>526</v>
+      </c>
+      <c r="K75" t="s">
+        <v>527</v>
+      </c>
+      <c r="L75" t="s">
+        <v>528</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>529</v>
+      </c>
+      <c r="O75" t="s">
+        <v>93</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>530</v>
+      </c>
+      <c r="X75" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>533</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>534</v>
+      </c>
+      <c r="J76" t="s">
+        <v>535</v>
+      </c>
+      <c r="K76" t="s">
+        <v>536</v>
+      </c>
+      <c r="L76" t="s">
+        <v>537</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>538</v>
+      </c>
+      <c r="O76" t="s">
+        <v>111</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>539</v>
+      </c>
+      <c r="X76" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>542</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>543</v>
+      </c>
+      <c r="J77" t="s">
+        <v>544</v>
+      </c>
+      <c r="K77" t="s">
+        <v>545</v>
+      </c>
+      <c r="L77" t="s">
+        <v>546</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>547</v>
+      </c>
+      <c r="O77" t="s">
+        <v>111</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>548</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>549</v>
+      </c>
+      <c r="J78" t="s">
+        <v>550</v>
+      </c>
+      <c r="K78" t="s">
+        <v>551</v>
+      </c>
+      <c r="L78" t="s">
+        <v>552</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>553</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>484</v>
+      </c>
+      <c r="X78" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>555</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>556</v>
+      </c>
+      <c r="J79" t="s">
+        <v>557</v>
+      </c>
+      <c r="K79" t="s">
+        <v>558</v>
+      </c>
+      <c r="L79" t="s">
+        <v>559</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>553</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>561</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>562</v>
+      </c>
+      <c r="J80" t="s">
+        <v>563</v>
+      </c>
+      <c r="K80" t="s">
+        <v>564</v>
+      </c>
+      <c r="L80" t="s">
+        <v>565</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>566</v>
+      </c>
+      <c r="O80" t="s">
+        <v>125</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>568</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>569</v>
+      </c>
+      <c r="J81" t="s">
+        <v>570</v>
+      </c>
+      <c r="K81" t="s">
+        <v>571</v>
+      </c>
+      <c r="L81" t="s">
+        <v>572</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>573</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>574</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>575</v>
+      </c>
+      <c r="J82" t="s">
+        <v>576</v>
+      </c>
+      <c r="K82" t="s">
+        <v>577</v>
+      </c>
+      <c r="L82" t="s">
+        <v>578</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>579</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>484</v>
+      </c>
+      <c r="X82" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>581</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>582</v>
+      </c>
+      <c r="J83" t="s">
+        <v>583</v>
+      </c>
+      <c r="K83" t="s">
+        <v>584</v>
+      </c>
+      <c r="L83" t="s">
+        <v>585</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>586</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>484</v>
+      </c>
+      <c r="X83" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>588</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>589</v>
+      </c>
+      <c r="J84" t="s">
+        <v>590</v>
+      </c>
+      <c r="K84" t="s">
+        <v>591</v>
+      </c>
+      <c r="L84" t="s">
+        <v>592</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>586</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>594</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>595</v>
+      </c>
+      <c r="J85" t="s">
+        <v>596</v>
+      </c>
+      <c r="K85" t="s">
+        <v>597</v>
+      </c>
+      <c r="L85" t="s">
+        <v>598</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>586</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>600</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>601</v>
+      </c>
+      <c r="J86" t="s">
+        <v>602</v>
+      </c>
+      <c r="K86" t="s">
+        <v>603</v>
+      </c>
+      <c r="L86" t="s">
+        <v>604</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>605</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>606</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>607</v>
+      </c>
+      <c r="J87" t="s">
+        <v>608</v>
+      </c>
+      <c r="K87" t="s">
+        <v>609</v>
+      </c>
+      <c r="L87" t="s">
+        <v>610</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>611</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>612</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>613</v>
+      </c>
+      <c r="J88" t="s">
+        <v>614</v>
+      </c>
+      <c r="K88" t="s">
+        <v>615</v>
+      </c>
+      <c r="L88" t="s">
+        <v>616</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>617</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>619</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>620</v>
+      </c>
+      <c r="J89" t="s">
+        <v>621</v>
+      </c>
+      <c r="K89" t="s">
+        <v>622</v>
+      </c>
+      <c r="L89" t="s">
+        <v>623</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>624</v>
+      </c>
+      <c r="O89" t="s">
+        <v>125</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>626</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>627</v>
+      </c>
+      <c r="J90" t="s">
+        <v>628</v>
+      </c>
+      <c r="K90" t="s">
+        <v>629</v>
+      </c>
+      <c r="L90" t="s">
+        <v>630</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>631</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>484</v>
+      </c>
+      <c r="X90" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>633</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>634</v>
+      </c>
+      <c r="J91" t="s">
+        <v>635</v>
+      </c>
+      <c r="K91" t="s">
+        <v>636</v>
+      </c>
+      <c r="L91" t="s">
+        <v>637</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>624</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>639</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>640</v>
+      </c>
+      <c r="J92" t="s">
+        <v>641</v>
+      </c>
+      <c r="K92" t="s">
+        <v>642</v>
+      </c>
+      <c r="L92" t="s">
+        <v>643</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>631</v>
+      </c>
+      <c r="O92" t="s">
+        <v>93</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>484</v>
+      </c>
+      <c r="X92" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>645</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>646</v>
+      </c>
+      <c r="J93" t="s">
+        <v>647</v>
+      </c>
+      <c r="K93" t="s">
+        <v>648</v>
+      </c>
+      <c r="L93" t="s">
+        <v>649</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>631</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>651</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>652</v>
+      </c>
+      <c r="J94" t="s">
+        <v>653</v>
+      </c>
+      <c r="K94" t="s">
+        <v>654</v>
+      </c>
+      <c r="L94" t="s">
+        <v>655</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>484</v>
+      </c>
+      <c r="X94" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>657</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>658</v>
+      </c>
+      <c r="J95" t="s">
+        <v>659</v>
+      </c>
+      <c r="K95" t="s">
+        <v>660</v>
+      </c>
+      <c r="L95" t="s">
+        <v>661</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>662</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>663</v>
+      </c>
+      <c r="J96" t="s">
+        <v>664</v>
+      </c>
+      <c r="K96" t="s">
+        <v>665</v>
+      </c>
+      <c r="L96" t="s">
+        <v>666</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1</v>
+      </c>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>1</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>484</v>
+      </c>
+      <c r="X96" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>668</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>669</v>
+      </c>
+      <c r="J97" t="s">
+        <v>670</v>
+      </c>
+      <c r="K97" t="s">
+        <v>671</v>
+      </c>
+      <c r="L97" t="s">
+        <v>672</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>2</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>2</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>484</v>
+      </c>
+      <c r="X97" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>674</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>675</v>
+      </c>
+      <c r="J98" t="s">
+        <v>676</v>
+      </c>
+      <c r="K98" t="s">
+        <v>677</v>
+      </c>
+      <c r="L98" t="s">
+        <v>678</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s">
+        <v>679</v>
+      </c>
+      <c r="O98" t="s">
+        <v>111</v>
+      </c>
+      <c r="P98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>681</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>682</v>
+      </c>
+      <c r="J99" t="s">
+        <v>683</v>
+      </c>
+      <c r="K99" t="s">
+        <v>684</v>
+      </c>
+      <c r="L99" t="s">
+        <v>685</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>687</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>688</v>
+      </c>
+      <c r="J100" t="s">
+        <v>689</v>
+      </c>
+      <c r="K100" t="s">
+        <v>690</v>
+      </c>
+      <c r="L100" t="s">
+        <v>691</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1</v>
+      </c>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>1</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>693</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>694</v>
+      </c>
+      <c r="J101" t="s">
+        <v>695</v>
+      </c>
+      <c r="K101" t="s">
+        <v>696</v>
+      </c>
+      <c r="L101" t="s">
+        <v>697</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="s"/>
+      <c r="S101" t="n">
+        <v>3</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>699</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>700</v>
+      </c>
+      <c r="J102" t="s">
+        <v>701</v>
+      </c>
+      <c r="K102" t="s">
+        <v>702</v>
+      </c>
+      <c r="L102" t="s">
+        <v>703</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" t="s"/>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>1</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>705</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>706</v>
+      </c>
+      <c r="J103" t="s">
+        <v>707</v>
+      </c>
+      <c r="K103" t="s">
+        <v>708</v>
+      </c>
+      <c r="L103" t="s">
+        <v>709</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1</v>
+      </c>
+      <c r="R103" t="s"/>
+      <c r="S103" t="n">
+        <v>1</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>711</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>712</v>
+      </c>
+      <c r="J104" t="s">
+        <v>713</v>
+      </c>
+      <c r="K104" t="s">
+        <v>714</v>
+      </c>
+      <c r="L104" t="s">
+        <v>715</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="s"/>
+      <c r="S104" t="n">
+        <v>2</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>716</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>717</v>
+      </c>
+      <c r="J105" t="s">
+        <v>718</v>
+      </c>
+      <c r="K105" t="s">
+        <v>719</v>
+      </c>
+      <c r="L105" t="s">
+        <v>720</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>721</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>722</v>
+      </c>
+      <c r="J106" t="s">
+        <v>723</v>
+      </c>
+      <c r="K106" t="s">
+        <v>724</v>
+      </c>
+      <c r="L106" t="s">
+        <v>725</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="s"/>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>726</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>727</v>
+      </c>
+      <c r="J107" t="s">
+        <v>728</v>
+      </c>
+      <c r="K107" t="s">
+        <v>729</v>
+      </c>
+      <c r="L107" t="s">
+        <v>730</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s"/>
+      <c r="O107" t="s"/>
+      <c r="P107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>2</v>
+      </c>
+      <c r="R107" t="s"/>
+      <c r="S107" t="n">
+        <v>2</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>1</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>732</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>733</v>
+      </c>
+      <c r="J108" t="s">
+        <v>734</v>
+      </c>
+      <c r="K108" t="s">
+        <v>735</v>
+      </c>
+      <c r="L108" t="s">
+        <v>736</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s"/>
+      <c r="O108" t="s"/>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="s"/>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>738</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>739</v>
+      </c>
+      <c r="J109" t="s">
+        <v>740</v>
+      </c>
+      <c r="K109" t="s">
+        <v>741</v>
+      </c>
+      <c r="L109" t="s">
+        <v>742</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>1</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>1</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>744</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>745</v>
+      </c>
+      <c r="J110" t="s">
+        <v>746</v>
+      </c>
+      <c r="K110" t="s">
+        <v>747</v>
+      </c>
+      <c r="L110" t="s">
+        <v>748</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="s"/>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>750</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>751</v>
+      </c>
+      <c r="J111" t="s">
+        <v>752</v>
+      </c>
+      <c r="K111" t="s">
+        <v>753</v>
+      </c>
+      <c r="L111" t="s">
+        <v>754</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2</v>
+      </c>
+      <c r="N111" t="s"/>
+      <c r="O111" t="s"/>
+      <c r="P111" t="s"/>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="s"/>
+      <c r="T111" t="s"/>
+      <c r="U111" t="s"/>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>756</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>757</v>
+      </c>
+      <c r="J112" t="s">
+        <v>758</v>
+      </c>
+      <c r="K112" t="s">
+        <v>759</v>
+      </c>
+      <c r="L112" t="s">
+        <v>760</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s"/>
+      <c r="O112" t="s"/>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>761</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>762</v>
+      </c>
+      <c r="J113" t="s">
+        <v>763</v>
+      </c>
+      <c r="K113" t="s">
+        <v>764</v>
+      </c>
+      <c r="L113" t="s">
+        <v>765</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s"/>
+      <c r="O113" t="s"/>
+      <c r="P113" t="s"/>
+      <c r="Q113" t="s"/>
+      <c r="R113" t="s"/>
+      <c r="S113" t="s"/>
+      <c r="T113" t="s"/>
+      <c r="U113" t="s"/>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>767</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>768</v>
+      </c>
+      <c r="J114" t="s">
+        <v>769</v>
+      </c>
+      <c r="K114" t="s">
+        <v>770</v>
+      </c>
+      <c r="L114" t="s">
+        <v>771</v>
+      </c>
+      <c r="M114" t="n">
+        <v>4</v>
+      </c>
+      <c r="N114" t="s"/>
+      <c r="O114" t="s"/>
+      <c r="P114" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>3</v>
+      </c>
+      <c r="R114" t="s"/>
+      <c r="S114" t="n">
+        <v>3</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>3</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>772</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>773</v>
+      </c>
+      <c r="J115" t="s">
+        <v>774</v>
+      </c>
+      <c r="K115" t="s"/>
+      <c r="L115" t="s"/>
+      <c r="M115" t="n">
+        <v>3</v>
+      </c>
+      <c r="N115" t="s"/>
+      <c r="O115" t="s"/>
+      <c r="P115" t="s"/>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="s"/>
+      <c r="S115" t="s"/>
+      <c r="T115" t="s"/>
+      <c r="U115" t="s"/>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>775</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>776</v>
+      </c>
+      <c r="J116" t="s">
+        <v>777</v>
+      </c>
+      <c r="K116" t="s"/>
+      <c r="L116" t="s">
+        <v>778</v>
+      </c>
+      <c r="M116" t="n">
+        <v>2</v>
+      </c>
+      <c r="N116" t="s"/>
+      <c r="O116" t="s"/>
+      <c r="P116" t="s"/>
+      <c r="Q116" t="s"/>
+      <c r="R116" t="s"/>
+      <c r="S116" t="s"/>
+      <c r="T116" t="s"/>
+      <c r="U116" t="s"/>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>780</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>781</v>
+      </c>
+      <c r="J117" t="s">
+        <v>782</v>
+      </c>
+      <c r="K117" t="s"/>
+      <c r="L117" t="s">
+        <v>778</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="s"/>
+      <c r="O117" t="s"/>
+      <c r="P117" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>2</v>
+      </c>
+      <c r="R117" t="s"/>
+      <c r="S117" t="n">
+        <v>2</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>1</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>783</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>784</v>
+      </c>
+      <c r="J118" t="s">
+        <v>785</v>
+      </c>
+      <c r="K118" t="s"/>
+      <c r="L118" t="s">
+        <v>778</v>
+      </c>
+      <c r="M118" t="n">
+        <v>3</v>
+      </c>
+      <c r="N118" t="s"/>
+      <c r="O118" t="s"/>
+      <c r="P118" t="s"/>
+      <c r="Q118" t="s"/>
+      <c r="R118" t="s"/>
+      <c r="S118" t="s"/>
+      <c r="T118" t="s"/>
+      <c r="U118" t="s"/>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>786</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>787</v>
+      </c>
+      <c r="J119" t="s">
+        <v>788</v>
+      </c>
+      <c r="K119" t="s"/>
+      <c r="L119" t="s"/>
+      <c r="M119" t="n">
+        <v>5</v>
+      </c>
+      <c r="N119" t="s"/>
+      <c r="O119" t="s"/>
+      <c r="P119" t="s"/>
+      <c r="Q119" t="s"/>
+      <c r="R119" t="s"/>
+      <c r="S119" t="s"/>
+      <c r="T119" t="s"/>
+      <c r="U119" t="s"/>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s"/>
+      <c r="X119" t="s"/>
+      <c r="Y119" t="s"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" t="s">
+        <v>789</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>790</v>
+      </c>
+      <c r="J120" t="s">
+        <v>791</v>
+      </c>
+      <c r="K120" t="s"/>
+      <c r="L120" t="s"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="s"/>
+      <c r="O120" t="s"/>
+      <c r="P120" t="s"/>
+      <c r="Q120" t="s"/>
+      <c r="R120" t="s"/>
+      <c r="S120" t="s"/>
+      <c r="T120" t="s"/>
+      <c r="U120" t="s"/>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s"/>
+      <c r="X120" t="s"/>
+      <c r="Y120" t="s"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_666.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_666.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="893">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>Niraj S</t>
   </si>
   <si>
     <t>07/10/2018</t>
@@ -197,6 +200,9 @@
 All in all, this is a great hotel for the money. It would be just fine for families needing a place that was comfortable and clean for a vacation. I'm looking forward for my next vacation in California and would DEFINITELY BOOK ONLY THIS HOTEL...  Thank you Rodeway Inn... you made my trip memorable.....YOU...The reviews do not do adequate justice to this place. Some of the reviews appear to be biased based on some personal prejudice. TRUST ME... YOU WILL NOT REGRET STAYING HERE.The hotel is very close to the Disney Land area and for the price, it is a great value. Room is EXCELLENT. The hotel has been renovated recently and furniture is new. The bathroom is very clean . Fridge and Microwave made it nice to heat leftovers from eating out. It's surrounded by fast food and restaurants, and an AM/PM just about 100 yards away. Walking distance to all the food varieties you could want. WIFI was one of the fastest I've encountered at any hotel. Was able to stream Netflix and Amazon videos with no problem.Breakfast was very good and  I was pleased with the muffins and donuts, danishes, cereals and toast. Coffee and Tea  is offered all day.  The Staff is JUST AMAZING.... Stacey, Armando and the Manager Bakul Patel, ensured my family were well taken care of. They took special care of my children and were very helpful, courteous and kind. All in all, this is a great hotel for the money. It would be just fine for families needing a place that was comfortable and clean for a vacation. I'm looking forward for my next vacation in California and would DEFINITELY BOOK ONLY THIS HOTEL...  Thank you Rodeway Inn... you made my trip memorable.....YOU ROCK!!!!!More</t>
   </si>
   <si>
+    <t>Djpvetter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r586090777-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -218,6 +224,9 @@
     <t>Do yourself a favor and don’t stay here. We got in late at night, so just wanted to check in. The gal at the front desk looked like she would rather be somewhere else. Barely said hi to us. Got a room. Went back down to ask where the coffee maker and wi-fi password was that were BOTH promoted as having on their website. No coffee maker, and wi-fi was pretty much non-existent. To add to that, bathroom had hair all over the floor. Asked to be transferred to another room where wi-fi would be better. It wasn’t. And this room wasn’t any cleaner. Spare TP roll was stained as well. Just great. Went down to ask if we could get a refund, and the gal copped an attitude and said she would have to talk to manager. Asked her to contact manager, and she said he was not available. How many hotels don’t have a manager on call!! Totally unacceptable. In the end, they never offered refund so we could leave and find a hotel where they actually wanted to help their guests, so we ended up staying there. Very unenjoyable stay, especially for the high rates. Found out there were plenty more hotels with similar rates, much nicer accommodations, and wi-fi!! Never again.More</t>
   </si>
   <si>
+    <t>amberlys94</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r551364931-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -245,6 +254,9 @@
     <t>We just needed a place to sleepAfter a long day at the park.  I had stayed here before about 2 years ago.  The front desk staff is very nice.  It’s not the best room in the world but it’s ok.  The room looked like they had recently tried to renovate a few things.  But the beds were super hard! But you couldn’t beat it for the price.  More</t>
   </si>
   <si>
+    <t>Jill B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r528414558-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -266,6 +278,9 @@
     <t>I stayed here recently and I will be more vigilant about reading reviews on anything anywhere I go from now on.  This motel's advertising is very deceiving.   The picture must be of the best and freshly renovated room they have.  And if there is a pool and/or hot tub,  we couldn't find it.  Couldn't even change the channel on the TV.  Adult cartoon channel was the only choice. The fridge didn't keep anything cold and we didn't bother trying the microwave The window was so dirty, ya could barely see through it.  Couldn't use the bath tub as a bath tub, only shower.  The positives were the AC worked well and there was hot water....no cold water, only hot and luke warm.More</t>
   </si>
   <si>
+    <t>Sandra D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r522059803-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -287,6 +302,9 @@
     <t>It was a nightmare arriving to that dump, we arrived on time, but when we saw the hotel we wanted to leave immediately, they said that we weren't going to get refunded that we had to cancel firs with Priceline and we had to wait more than an hour for them to answer, it was 109 temperature, in an office that didn't have air conditioner and smelled really bad, they showed the room to us and it smelled like pee !!!! we told them that we weren't going to sleep there with that smell, they told us that they were working on it ?????? some of the windows were covered with tarp plastic, there were no amenities or swimming pool and they said that there was no Wi-Fi  either they are a fraud and I will contest the charges,  we were going to a retreat and were late 4 hours thanks to them.  I think it should be illegal to advertise something that is not what they advertise in the website..More</t>
   </si>
   <si>
+    <t>Andrea A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r505277824-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -311,6 +329,9 @@
     <t>My Navy daughter noticed an extra charge of $100 on her credit card  a couple of weeks after her stay.  She called the hotel and was told she had smoked in the room and several people confirmed the smell.  My daughter is Morman and has NEVER smoked a day in her life.  She tried talking with the manager as well after several calls that were not returned and was told she had no way of proving it.  How can they prove it?! She even returned the keys to the front desk when she left.  My daughter could take a pee test and could provide medical records to prove she has never smoked.  So now to dispute it with the credit card company.  So much hassle for a Sailor to go through when she just wanted to enjoy a Mariners Game!More</t>
   </si>
   <si>
+    <t>rachelflower78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r493594259-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -326,6 +347,9 @@
     <t>Do not think that you will have any protection from Choice Hotels when cancelling on this one.  This hotel will immediately charge your card and not refund for as long as possible. Their websites clearly states that cards will only be charged 24 hours prior to arrival.  This is a lie! They will hold your funds hostage.  I regret so strongly having booked this dump in the first place.  The reason I cancelled was due to the horrifying reviews of this place.  Rude staff is right!  My only hope is dealing with corporate.</t>
   </si>
   <si>
+    <t>nkk0719</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r492362389-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -341,6 +365,9 @@
     <t>Reading all the bad reviews almost made me not stay here but I guess people only post when they have bad experiences.I actually had a great experience,stayed here for a trip to disneyland for a 3 day stay,clerk let us checked in early around noon only cuz it was a suite,had no problems the room was actually pretty clean,wood floors,pretty big,bathroom was really small,the only thing is the breakfast not so many good choices the only hot thing was coffee,wish they had a continental breakfast,other than that i loved this place.I will stay here again next time.</t>
   </si>
   <si>
+    <t>Elizabeth S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r489115303-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -360,6 +387,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Happyincb</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r472733128-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
@@ -389,6 +419,9 @@
 3. There was a bathtub, and after walking all day long, a bath sounded nice. But there was no way to plug the drain. I could have used a washcloth, but seriously, why should I have to shove it...But oh lordy, it was not possible. As our 1 night stay happened, I made a list of the negatives, and again, I tried hard to come up with a positive...thought I had one for the room being clean until my white socks turned black from the dirty floor. So here is what our experience was like: 1. Very little parking. Had to park down the street. Still free but a bummer. I know it said first come first serve on the parking, but know if you STILL pick this place, there is very limited parking and in the morning, lots of cars were double parked which was odd so you might get trapped. 2. There was a door connecting our room to another. THANKFULLY it was 3 female next door and not a couple (since I was with my daughter) and we heard everything they talked about well into the night. Yes, they were rude for talking fairly loud, but it wasn't muffled, we could hear all conversations, so there was no attempt from the hotel to put in proper doors. Needless to say, I did not worry about our voice level in the morning when they were still sleeping. 3. There was a bathtub, and after walking all day long, a bath sounded nice. But there was no way to plug the drain. I could have used a washcloth, but seriously, why should I have to shove it in to seal it up? There should be a drain stop provided since one was not built in. 4. The microwave button to open and close was half-way broken off. It was useable I believe, but looked awful. But it went with everything else, so not surprised I guess. 5. Furniture was old and scratched. The floor in front of the dresser was VERY scratched up. 6. Lamps look like something my grandmother might have had. VERY old looking and one had the knob broken off so it was not useable. 7. Wifi code didn't work on my phone, daughter's phone, or iPad. It was not worth asking about. 8. As stated in my title, the floors turned my socks black. My daughter was not wearing socks and I had her stand in the tub and we had to laugh at her black footprints when she washed them off. We had to wear shoes around. It looked clean, but if they are turning white socks black, how long as it been since they have been cleaned????? I did tell the woman at check out about this, but sadly, I am guessing if I went back today, it would not be clean. SO GROSS!!!! 9. My bed was fairly firm but when I sat on my daughter's, it was super soft, so clearly there is no consistency with quality. 10. Windows are cheap so we were close to the street and could hear every car go by, all night long! 11. The website won't load now, but says something very positive about their breakfast. We checked it out since it was included and ended up at Denny's. They had some cheap donuts, off brand cereals (2), some bread for toast, some "orange juice" and hardly warm coffee. I actually laughed when I tried the coffee and it wasn't even close to hot. At that point, I was expecting it to be bad. I so wish there was something positive. But nope. I would NEVER suggest staying here unless you truly don't mind paying for any of the above things.More</t>
   </si>
   <si>
+    <t>Sharimc68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r468615318-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -411,6 +444,9 @@
   </si>
   <si>
     <t>When we pulled up and went in the office. The young man behind the desk acted very put out that we showed up. Very short answers and not friendly at all. The room was very large, all hardwood floors. The buildings are older and due for a major uplift/repairs. The window in our bathroom was spray painted black. The breakfast was worthless, they were out of everything and again the person doing it and the person in the lobby acted like we just showed up at their house and demanded they make us breakfast. Got a good deal but now I know why. Was close but not worth the attitude.More</t>
+  </si>
+  <si>
+    <t>Julie R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r463025672-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
@@ -439,6 +475,9 @@
 The next morning we went to take our showers, the bathtub got backed up.  That in it self wasn't the worst thing, the tub drained but very slow.  We were going to mention this to the front desk when we checked out.  After 2 full days at Disneyland we called it a day and turned in early on Saturday, around 7pm.  At 8pm someone knoced on our door saying they were there to fix the clogged bathtub.  SERIOUSLY!  We told them to go away and to come back after we checked out, which was the next morning....My only positive thing I can say abou this hotel was that it was clean and it was right next door to the shuttle bus stop to/from Disneyland.Where do I begin. The room was in dire need of some upgrades.  The decor looked like it was right out the 1970s.  The lamp didn't work unless you jiggled the switch "just so."  To me that seems like a fire hazard.  When I went to hang up my coat I couldn't, no hangers.The bathroom vanity counter was coming detached from the wall.  I was afraid to put anything on the counter.  The sink didn't have a stopper so if anything fell in the sink it was a goner.The bed sagged, badly and wasn't even comfortable.  The sheets were stained with what looked like rust, not pleased.  And the pillows were terribly flat.The next morning we went to take our showers, the bathtub got backed up.  That in it self wasn't the worst thing, the tub drained but very slow.  We were going to mention this to the front desk when we checked out.  After 2 full days at Disneyland we called it a day and turned in early on Saturday, around 7pm.  At 8pm someone knoced on our door saying they were there to fix the clogged bathtub.  SERIOUSLY!  We told them to go away and to come back after we checked out, which was the next morning.  We weren't 100% sure if it truly was the maintenance guy - the door didn't have a peep hole and we weren't about to open it.  (Side note, we did find out that the guy truly was the maintenance man but still 8pm on a Satuday night?!?!)The final straw was when we were awakened at 4am the day we were planning on checking-out with someone screaming, "STOP HIM HE STOLE MY PURSE".  We looked out the front window and saw a lady runnign, trying to chase down a car backing out of the parking lot.  At that time my husband and I agreed it was time to check out and get away from that place.  We didn't feel safe.Guaranteed this was without one of the worst hotel experiences we have ever had and will NEVER return.More</t>
   </si>
   <si>
+    <t>Trista S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r403430854-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -457,6 +496,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Monet03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r385069545-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -475,6 +517,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Raymond D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r384426884-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -493,6 +538,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Grizinator</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r350145970-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -511,6 +559,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r333403096-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -529,6 +580,9 @@
     <t>As others have stated I was very apprehensive about booking this motel due to its negative reviews. But, I'm glad I did. Its a motel, not a hotel and im rating it as such. I loved the fact that the floors were laminate and not carpeting. The beds were comfortable (firm) and it was clean. The staff were very helpful and nice. The pool is GONE...found that out when we got there. No biggie really, we were there to go to Disneyland. Breakfast is nothing to write home about but target is a couple blocks away and there's a fridge and microwave... Worked great for us. I will definitely stay again on my next trip....thanks guysMore</t>
   </si>
   <si>
+    <t>Kay O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r333104422-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -547,6 +601,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>DrPaulagrace</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r315624446-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -565,6 +622,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Adrian C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r308417179-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -583,6 +643,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>loriazca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r295965474-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -601,6 +664,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Jenbugs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r285406077-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -616,6 +682,9 @@
     <t xml:space="preserve">We had 12 people, mostly children so booking rooms was ridiculously hard. This hotel offers rooms with three queens. The layout: a private room with a queen and a separate area with the other two queens. It was perfect for what we needed!!! The cleanliness and quality was ok. The breakfast options were not good. </t>
   </si>
   <si>
+    <t>Ana G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r284596117-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -637,6 +706,9 @@
     <t>My kids and I spend two nights, so we could go to Disneyland. My firts impression was not great. The receptionist was not very helpful, but we checked in around 10 pm, room was clean and well maintained. Had mini fridge, door was broken. Flat screen, iron, dryer, no coffee maker. Hot water and beds were ok. The big problem was the parking..the first night we found a parking, barely. The second night, we arrived after midnight, and no parking....so I went to reception office, and said that their was no parking, and again, the same receptionist with an attitude, said of course their is plenty, the parking next door. Not the alley he said, but another establishment, just don't move the paper from your car..the continental breakfast was ok, and coffee 24 hrs. a day....pretty good coffee..over all, ok, motel, but I would not stay again, I don't like risking my car.More</t>
   </si>
   <si>
+    <t>Elias F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r282247749-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -655,6 +727,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>MonicaD03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r271424478-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -674,6 +749,9 @@
   </si>
   <si>
     <t>First let me start with the positive: Matilda one of the house keepers was VERY NICE!! Loved her. The older gentleman at the front desk was nice, the middle aged man, not so much. Now for the negative: This place was scary to stay in! Did not feel safe at all! Not a second lock on the door.  There was a woman that had a room, looks like a resident,  had different men going in and out at different times.  THE WHOLE TIME WE WERE THERE! another  young couple we're residents there as well and smoking constantly on the walk way and having parties and had plenty of guest in their room. One of the cars were parked right in the middle of the parking lot blaring the music and then in the morning the same car was still there blocking in other guest cars! I believe the manager lived there in the room right above the office and also other family members. Forget breakfast, its a joke. No coffee makers in rooms, I even called before going and asked them if they had them in their rooms, they said they did. I understand people can be picky, but my family and I are not at all! We just want a clean room to lay our heads that we will be safe in, AND THIS WAS NOT THAT PLACE!More</t>
+  </si>
+  <si>
+    <t>Shirin T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r270463703-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
@@ -706,6 +784,9 @@
 Oh and how gross was the breakfast bar ahh, such a mess..food all over the floor! We couldn't...I have never stayed in a place and been scared! We had to book this place last min. the day of because we got to Disneyland a day early, it was a Saturday night and was the cheapest we could find. The price was about $90 ...it really should have been $60.The front desk staff were nice, the room was actually okay. The sheets look like maybe dog hair was stuck in it. The corners of the walls were broken off.The smell of the room was musky! I could smell cigarette smoke, I think it was coming from the other room next to us. So we stuffed towels under the door way that connected to the other room.The place was loud, guess we're out side walking around, smoking,  one car had like 6 people just hanging out. The maid was outside standing in her apron eating from the breakfast bar looking really messy. The other maid knocked on our door before check out asking for dirty towels but couldn't even ask us in English ,we had to play sign language to figure out what she wanted. We were scared to even leave our personal stuff in the room during the day , we put all our personal stuff in our car and locked up room. Such a shady place!!Oh and how gross was the breakfast bar ahh, such a mess..food all over the floor! We couldn't eat the food, too scared.I feel bad cause the hotel it's self seed okay but the staff and guess we're messy, loud and not taking care of. More</t>
   </si>
   <si>
+    <t>dcejd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r269606269-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -719,6 +800,9 @@
   </si>
   <si>
     <t>Save yourself a headache and do not stay here!  There were holes in the walls and people outside smoking at late hours of the night. Loud music was prevalent and you can hear everything through the walls. The beds feel like you are sleeping on springs. This is only the beginning of what I could say and oh yea, don't forget how unfriendly the staff is.</t>
+  </si>
+  <si>
+    <t>DocSavage01</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r259674062-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
@@ -766,6 +850,9 @@
 This is the kind of "motel" room that used to be the standard in cut-rate about 40 years ago. Now, with...You can pay the same amount, or just a little bit more, and find a MUCH better hotel.1) The driveway into the hotel is (barely) one car wide. If someone is coming out, you have to back up into oncoming traffic to clear the entry. It's more dangerous than driving in Italy.2) There is fascade construction going on all over the interior parking area. And this parking court is VERY cramped. Don't try it in an SUV or full-sized car. You may never get out.3) The room walls are so thin that you have no trouble hearing the TV in the next room, even when it is set at a moderate volume.4) One of the walls in the room had a hole punched in the sheet rock. No attempt at repair.5) TV is tiny - maybe 27 inches.6) There was no closet. Just a rack for you to hang things on.7) Thin carpets that looked like they were at least 10 years old.8) Cracks in the plaster everywhere.9) The bedspread was one of those cheap polyester ones that even Kmart won't carry.10) The microwave was stacked on top of the minifridge.11) About a 30+ minute hike to Disneyland entrance. Better to drive it and pay the for parking.This is the kind of "motel" room that used to be the standard in cut-rate about 40 years ago. Now, with Comfort Inns, Quality Inns, Days Inns, etc., you are able to get far better quality for the same price. I have no idea why this place is part of the Choice Hotels family. Steer clear of it!More</t>
   </si>
   <si>
+    <t>RSinSG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r259171634-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -784,6 +871,9 @@
     <t>I made the reservations on Hotels.com and due to a change in plans my wife went with our daughter (Disneyland) instead of me. The clerk at check in was not helpful at all when I didn't show up, even though my wife has the same last name and same number on her credit card. So I had to call Hotels.com and they faxed that it was OK. The clerk was all bubbly then, but after driving all day my wife wasn't in the mood for fake friendliness. Bottom line - this place is an old crappy hotel that is in serious need of major upgrades. Carpet coming up, mattresses that are probably as old as the building, no parking, and overall dinginess.It's too far to walk to Disneyland, especially at the end of a long day, but there are some cheap restaurants within walking distance.There are a lot of other hotels nearby that are much nicer, although you are going to pay more. My wife says it's worth it and we wont be back.More</t>
   </si>
   <si>
+    <t>Ameliasmom7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r256849213-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -802,6 +892,9 @@
     <t>We spent 5 nights here, I didn't want to spend a lot of money on a hotel so I picked the rodeway inn. Room was clean, pillows were very uncomfortable, bed was hard and had a burn spot on the blanket. The handle for the shower fell off but the water got hot and had good pressure. No wash clothes the first 2 nights, and the towels were super thin. The people who don't know how to park bugged me the most isn't it a safety issue to block other people in? There was parking available behind the hotel but the guests decide they want to park behind other guests who are parked in the covered parking. The chick who stayed in the room next to us couldn't control her kids who made all kinds of noise and knocked on people's doors including ours. I guess that's what I get for trying to save money.  More</t>
   </si>
   <si>
+    <t>Michael B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r243693488-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -820,6 +913,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>MMMSebastopol</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r235469687-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -838,6 +934,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>DirtiSanche3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r233969956-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -856,6 +955,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Mumof4Uk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r220770244-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -874,6 +976,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>davidson168</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r216389445-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -887,6 +992,9 @@
   </si>
   <si>
     <t>By reading the reviews here I've come to the conclusion that I must be one of the few people who stays at a hotel and doesn't look for things to complain about the entire time. Yes there are people who double-park and yes they're currently doing renovations and yes the breakfast is nothing to write home about but the staff were more than helpful to my family and I during our stay.They even let me print some Dodger tickets on their computer and didn't charge me a dime.Would I stay here again? The answer is yes.</t>
+  </si>
+  <si>
+    <t>559MoM</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r213857188-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
@@ -916,6 +1024,9 @@
 Parking is tight but secluded so I felt safe. I checked in using a cash deposit and got it back immediately. Check in was to the point and not at all welcoming. Check out was pretty much the same, they didn't ask how our stay was or care that we didn't get any rest with the loud music from the room next door. I usually don't have any issues with neighbors when I stay...I've stayed here a few times over the years and as the quality of sleep has vastly improved, management and staff have gotten progressively worse. In June when I went they were doing some exterior rejuvenation and I'm hoping the inside is next. There was also a volleyball championship going on so the teenagers making a mess and screaming/running room to room at ALL hours was a bit much. The fact that management did absolutely nothing was sad. Beds are ok and decently comfortable. Pillows need to be refreshed but I bring my own. The restroom was very clean and linens/towels were fresh and fairly new. They offer free pool towels. The mini fridge/freezer worked well. We also had a microwave, iron, ironing board, hair dryer, large desk and alarm clock. It was great. Not great at all was the Internet connection! It was horrible when it did work. The tv also had some issues but we were in and out so it didn't bother us. Parking is tight but secluded so I felt safe. I checked in using a cash deposit and got it back immediately. Check in was to the point and not at all welcoming. Check out was pretty much the same, they didn't ask how our stay was or care that we didn't get any rest with the loud music from the room next door. I usually don't have any issues with neighbors when I stay but it was disappointing to know that when I did they made zero attempt to fix the situation. Continental breakfast was not that great and day 2 they served stale donuts before serving fresh. So in the end, I'll be back because of the rates and proximity to the park/toy story lot. The ART (Anaheim Resort Transit) is right out front and is near Target, fast food, Walgreens. I can't beat it but as soon as these people realize how far customer service goes I won't "highly suggest" a stay to just anyone anytime soon. I also don't suggest walking to the parks either, it's way to far considering all the walking you'll do inside. More</t>
   </si>
   <si>
+    <t>Nancy N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r206638705-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -932,6 +1043,9 @@
   </si>
   <si>
     <t>May 2014</t>
+  </si>
+  <si>
+    <t>HappyKathy805</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r206244270-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
@@ -962,6 +1076,9 @@
 We didn't try the swimming pool but there were a few people in...I got two rooms on a discount site and then came to Trip Advisor and got really concerned when I saw the awful reviews. I Must say I am glad that things are better than some of these reviews. The rooms were recently renovated. Bathroom tile all new and fresh paint but they really need new mattresses.We got two rooms, one with two queens and a family room.The family room had 2 queens and a set of bunk beds. The room was spacious and great for the kids. There was even a kid sized table in the kids room. It was two rooms together with a sliding French door to separate. TV's in both rooms as well.The other room we rented was 2 queen beds. It was just average but good enough for our needs (just an over nighter). Both types of room had a mini fridge and a small microwave.  The beds were not so comfortable. I asked my girls that stayed in the family room and they had the same experience.There was a continental breakfast which was suitable, nothing special.The biggest bummer was lack of parking. I was told we could park next door but we managed to snag a spot when someone left. Some people double parked and didn't tell the office which cars were theirs, blocking some people in.We didn't try the swimming pool but there were a few people in It.If you're going to Disneyland, don't plan on walking. It is doable but you'll need your energy for walking all day in the park.More</t>
   </si>
   <si>
+    <t>Michael H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r204956530-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -975,6 +1092,9 @@
   </si>
   <si>
     <t>This hotel defiantly needs to be remodeled. They have given it paint, but the fixtures, just don't fit or work right. It was like a clean flop house. The tub leaked on the bathroom floor, the sink faucet was so small the water ran on the counter when brushing your teeth, the pool and hot tube are only open till 9 pm, and the door lock didn't work correctly. The toilet also clogged, and no one would come and plunge it.</t>
+  </si>
+  <si>
+    <t>S_june_Brown928</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r198633759-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
@@ -1004,6 +1124,9 @@
 Cleanliness? Fuggedaboutit. I don’t believe a vacuum had been used prior to our stay. Whatever, I’m not a bare-footer in a hotel room. I bleached the bathroom. Yup. I’d recommend you grab a cleaner if you stay here. The sinks were covered in muck and it was clear that they had not touched the toilet. It was just unclean. Whatever,...I stayed with a group of friends at the Rodeway. I am really not that picky about my hotel room in general. I always travel on a budget – and generally won’t spend more than $100 a night. Because of this – my standards are relatively simple – clean rooms, safe area, and polite staff. I don’t ask for much. The service was mostly fine. It was nothing out of the ordinary, but the front desk workers were friendly enough and attentive enough (other than having to wait to check in because the woman was on a personal call and one staffer which will be addressed later). We had to replace our keys virtually every day because they never worked twice – so we were in there a lot. It didn’t look ‘shady’, though it was clear that we weren’t the only ‘low budget’ stays. It was very close to Disney – and right on the main walk (where most of the hotels are) so the traffic was fairly high - and no reason to feel unsafe at any point. Cleanliness? Fuggedaboutit. I don’t believe a vacuum had been used prior to our stay. Whatever, I’m not a bare-footer in a hotel room. I bleached the bathroom. Yup. I’d recommend you grab a cleaner if you stay here. The sinks were covered in muck and it was clear that they had not touched the toilet. It was just unclean. Whatever, it’s gross. It bothered me – but I prefer my cleaning job and often do this regardless of how a bathroom looks. So moving on to the beds. Yuck. I picked the awesome bed with the burn hole in the blanket! Woohoo. What a prize, am I right? I went up to the service desk, they had ‘no idea’ it was there. They had no other blankets to offer me either. Needless to say, they didn’t wash them, or they would have noticed. So I requested the linens be rewashed – to which they said certainly. We left for the day, came back, and supposedly they had been washed. They hadn’t. I stuck a piece of paper in the middle of the bed and it hadn’t moved. They insisted they washed it. I just didn’t want to argue on vacation. I would have happily washed them myself, but their washer and dryer (guaranteed) were both broken – I’m guessing they had been for a while. Yuck, I say again. Overall, not a great stay. We sucked it up because there was nothing in the area anywhere near our price range that had a room available – but yeah, I wouldn’t recommend staying here. Needless to say, we are looking elsewhere for our next trip.More</t>
   </si>
   <si>
+    <t>Ben M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r191516128-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1025,6 +1148,9 @@
     <t>My card was declined prior to arrival (from Sacramento) and I never received a call or any notification that my room was then given up. When I got there I was told that my reservation had been cancelled and that IF they had any rooms they would be able to book it. Luckily, they had some rooms available and I was able to stay there. I would have been livid if I was pushed away. After I got my room, they had me double park for the night and asked if I would rather hand over my car keys and they would move my car if need be, or if they could come knock on my door in the middle of the night. I was not about to hand over my car keys. Thankfully, they did not have to have me move my vehicle but just the thought that they don't have enough space for their rooms is irritating. After everything was finally done, the main clerk pulled out a huge bag of pot and said "Look what I found in one of the rooms". I laughed it off initially out of being uncomfortable but after thinking about it I thought to myself what kind of employee would show that off? That obviously means you have shady addicts who stay there. That's not something you want to advertise. Overall, Rodeway left a sour taste in my mouth and from the...My card was declined prior to arrival (from Sacramento) and I never received a call or any notification that my room was then given up. When I got there I was told that my reservation had been cancelled and that IF they had any rooms they would be able to book it. Luckily, they had some rooms available and I was able to stay there. I would have been livid if I was pushed away. After I got my room, they had me double park for the night and asked if I would rather hand over my car keys and they would move my car if need be, or if they could come knock on my door in the middle of the night. I was not about to hand over my car keys. Thankfully, they did not have to have me move my vehicle but just the thought that they don't have enough space for their rooms is irritating. After everything was finally done, the main clerk pulled out a huge bag of pot and said "Look what I found in one of the rooms". I laughed it off initially out of being uncomfortable but after thinking about it I thought to myself what kind of employee would show that off? That obviously means you have shady addicts who stay there. That's not something you want to advertise. Overall, Rodeway left a sour taste in my mouth and from the awful service and mediocre room, I will not be staying there again.More</t>
   </si>
   <si>
+    <t>mathproferic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r187899203-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1040,6 +1166,9 @@
     <t>The location is as close to ideal as a budget property can be: 10 minute walk from the Convention Center and 20 minute walk from Disneyland.  The free continental breakfast isn't fancy: pastry, toast, cereal but it's included in the room fee.  Coffee is available 24 hours a day.  Parking is free, too!  Carl's Jr. and Del Taco nearby for inexpensive meals on the go.  Would gladly return when in Anaheim again.</t>
   </si>
   <si>
+    <t>Pink2322</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r186486535-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1055,6 +1184,9 @@
     <t>First of all, I had cancelled first reservation from Venera. But the hotelman said not has been cancelled and charged me 2rooms.However, I had gotten cancellation mail from Venera exactly. Although I showed him the mail, he did not any apology to me. I tried ask another woman, but she was unkind and she did not care about my explanation. In addtion, she did not try to see my mail. Also I have not paid me back.This is really bad. I was disappointed and made me so angry.I never use this hotel.</t>
   </si>
   <si>
+    <t>Kira M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r184432813-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1073,6 +1205,9 @@
     <t>I have never had such a bad experience with a hotel. I reserved 2 rooms and they overbooked the hotel so that there was one room left on the day I was to arrive. They conveniently called to tell me hours before check-in that there was only one room for me. The person I talked to proceeded to make it seem like my fault because my reservation for 2 rooms was "confusing." Although they found another room for me at another hotel (therefore splitting my family on our family vacation) they still charged me for the 2 rooms that I booked at the Rodeway Inn. The man I dealt with asked me, "What is the problem now?" when I called about getting a refund for the room that I did not stay in, as if I was some demanding customer who could not be pleased. The room was disgusting, smelled of smoke, had stains on the towels and carpets, and the shampoo and conditioner provided were half empty. After the whole ordeal, I didn't even get an apology. Please, for your own sanity, safety, and cleanliness, go to another hotel.More</t>
   </si>
   <si>
+    <t>Beanerinpublic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r182098133-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1088,6 +1223,9 @@
     <t xml:space="preserve">There were repeated crickets entering our room(through the sink somehow??) both nights. They kept us awake both nights. No hot water at all. The room smelled dirty and like some kind of strange smell, maybe pesticide. Not worth the money to stay somewhere dirty, smelly, and void of all comfort. I like a good deal, but I would much rather pay 50$ more a night for cleanliness and hot water. </t>
   </si>
   <si>
+    <t>Jessica M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r176068396-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1109,6 +1247,9 @@
     <t>There was plastic covering the fire alarm, big saftey issue. Room looked clean initially, but found a dried bar of soap stuck to the side of the tub and the floors left dirt on the bottom of our feet and socks. Bathroom smelled of mildew after the first shower. Woke up in the middle of the night to find COCKROACHES!!! I took pictures of these! By morning the floor was wet all around the A/C unit in the room. When I went to complain and check out, the staff was very offensive about the situation. They were not helpful at all and told me that I should have complained to them in the middle of the night when I first found the cockroaches so they could have come and inspected the room despite the fact that I had small sleeping children that had been traveling all day. Because I didn't call them in the middle of the night they refused to issue me a refund. We checked out and found another motel to stay in! Were suppose to stay 6 nights, but one was too much! NEVER STAYING THERE AGAIN! This place was disgusting and I would never stay or recommend this place!More</t>
   </si>
   <si>
+    <t>clucio2001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r175567024-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1130,6 +1271,9 @@
     <t>My family and I needed a hotel to stay at for a one night stay.  I have stayed at other properties in this chain and had good experiences.  While the staff was very friendly the room itself had a lot to be desired.  The beds are incredibly uncomfortable and the pillows were either thick and rock hard or incredibly thin.  The bathroom was full of gnats.  The bathtub had more than a few that were dead and I had to rinse it out on multiple occasions.  The water temperature for the shower never got above lukewarm (after letting it run for a few minutes to see if it would get at least warm!).  The towels had visible stains as well.  Overall I would not stay at this property again unless they put considerable time and effort into making it livable for its guests.More</t>
   </si>
   <si>
+    <t>Charles L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r173972978-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1148,6 +1292,9 @@
     <t>This is a Rodeway Inn, not a Hilton or Hyatt,  and I'll add one of the cheapest rooms in the Disneyland area, offered on Hotels.com.  For the price, it is a great value.  Room is just fine for the price.  Bed was newer, though a bit firmer than I'm used to.  Fridge and Microwave made it nice to heat leftovers from eating out.  It's surrounded by fast food and restaurants, and an AM/PM just about 100 yards away.  Walking distance to all the food varieties you could want.  WIFI was one of the fastest I've encountered at any hotel.  Was able to stream Netflix and Amazon videos with no problem.Breakfast was adequate for the price.  I wasn't expecting gourmet, so I was pleased with the muffins and donuts, danishes, cereals and toast.  Coffee offered all day.  I was just fine with my small muffin, coffee and OJ to start the morning, until I was ready to go somewhere for a hot meal.  Pool area was nice, and looked well kept.  All in all, this is a great hotel for the money.  It would be just fine for families needing a place that was comfortable and clean, for the Disney and Knott's Berry Farm vacation.  I'd be happy to return with my kids for a Disney weekend.  Thank you.More</t>
   </si>
   <si>
+    <t>sadekcd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r167562476-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1163,6 +1310,9 @@
     <t>Friendly staff and good prices, great if you looking for budget stay near Disneyland, the option of having 2 bed room connected is useful for large families to save money.I recommend it only if you are not looking for fancy stay.</t>
   </si>
   <si>
+    <t>irishmusic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r166397100-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1181,6 +1331,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Esperanza626</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r158295148-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1194,6 +1347,9 @@
   </si>
   <si>
     <t>I thought this place was great nice and clean they had a heated pool and a Jacuzzi the prices r great the rooms r big overall nice!! The manager was wonderfull! And surrounded by resturants theres carls jr next door and tacobell across the street these ppl on here r just hi class complainers ^ if u wanted a 5 star hotel u should of got one! Love this place def going back!!</t>
+  </si>
+  <si>
+    <t>Jerry V</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r150362691-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
@@ -1221,6 +1377,9 @@
 I would recommend this hotel as it is in a good location,...We picked this hotel because it said that it was close to Disneyland and because it offered a room that had three queen beds in it. The location was reasonably close to Disneyland, it was walkable but after a long day at Disneyland you will be glad if you drove and paid the $15 for parking. The room was clean and spacious with three queen beds, the third bed had a door that could be closed so privacy was available. The morning "continental breakfast" if you want to call it that was less than desireable. The coffee was horrific, we drink a lot of coffee and had to go to 7-11 for exceptable coffee. They had bread for toast, a few fruit items, two choices of cereal and donuts. There were three small tables so not nearly enough space. The parking was extremely limited, in fact night office worker had to move their car just so that we could park one night upon our return from the park. Speaking of the night office person was extremely rude at times like she didn't want to be there and only was doing her job because she had to be, she did not make a good first impression on us. With that being said she did do her job and all that was required just felt like pulling teeth at times.I would recommend this hotel as it is in a good location, plenty of nearby restaurants with good coffee and food, easy access from the highway and to Disneyland. The room layout was perfect for our needs and saved us the cost of having a second room.More</t>
   </si>
   <si>
+    <t>VegasTraveler80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r148392010-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1234,6 +1393,9 @@
   </si>
   <si>
     <t>Stayed one night before heading over to Disneyland. The guy at front counter was good and helpful. The room isn't anything great but it was clean and quiet. We had continetal breakfast checked out and left car there all day and walked to Disneyland. So saved money on breakfast and parking.</t>
+  </si>
+  <si>
+    <t>Mike89701</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r146049730-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
@@ -1277,6 +1439,9 @@
 7.  Angry that you coundn't take a decent shower?  Then you better not go to bed right after your shower because the mattress is a remnant from the...I have travelled a lot in my life, business and personal.  This place ranks dead last.  Let me give you a bottom 8 list:1.  Advertised heated pool.  My kids (nine years old) called the pool water "arctic".  When I complained to management, they said the pool man had checked it and it was working to 98 degrees.  OK.  They must have meant NEGATIVE 98.   And I did make clear to management that we were talking about the swim pool, not the jacuzzi.2.  The area around the pool is covered with debris due to lack of maintenance.  My daughter got a cut in her foot walking around the pool.  Ruined a hotel towel with the blood from her foot before we got it bandaged.3.  Given two keys at check-in.  Make sure you get two if you are unlucky enough to stay here, because one won't work.4.  Shower head sits about 4 1/2 foot up from the shower floor.5.  Taking a shower longer than 5 minutes?  Then prepare for a bath because the water does not drain very fast.6.  And since I'm on the shower, one last thing.  The water comes in two temps, hot and very hot.  The knob wont turn enough to allow any cold water.7.  Angry that you coundn't take a decent shower?  Then you better not go to bed right after your shower because the mattress is a remnant from the 1850s.  Imagine a cheap mattress sold for a twin bed.  My daughter calls it unbelievably hard.  And she sleeps on one of those cheap mattresses at home.8.  Internet will disconnect constantly.  Don't run too many megs or it will throw tantrums by the minute and you will spend more time typing in your password than getting any work done.More</t>
   </si>
   <si>
+    <t>tbschlat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r143733620-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1295,6 +1460,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>HikinFool</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r136861119-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1316,6 +1484,9 @@
     <t>If we had HOT water in the shower both (or, maybe even ONE of our days) the cheap rate MIGHT have been worth it.  Totally disappointed in how management and the owner have not responded or made it right.  I intend to dispute the charges on my credit card.More</t>
   </si>
   <si>
+    <t>dgrk1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r133432161-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1337,6 +1508,9 @@
     <t>There are much better motels around than this one, but if you are there for Disneyland and want to spend most of your money there this will do for the price.  The advantage is the location where it is about a straight walk on Harbor about 1 mile.  However, if you have smaller children that mile walk may not be so easy after a full day at Disney and doesn't allow you to easily leave Disney midday to rest at motel and come back later. There is public bus for $3 one way.   So one key of staying here is whether you can walk that mile, stay all day at Disney, and walk back a mile, and save $15 Disney parking.  Avoid rooms 221/222 which seem like an addition and was very musty.  Other rooms are ok.  The shower faucet broke off but they fixed it right away.  The staff is ok, I liked the night manager man.  Half the lot has covered parking to keep your car cool if you leave it there all day (you must put the parking sticker on the dash or get towed).  The wifi is password protected and only worked a quarter of the time for me.  There is no coffeemaker (you can get in the lobby) and no Gideon bibles.  The breakfast is just sweet rolls, toast, coffee, cereal and juice.  There is a Safeway grocery, cheaper eating places, and strip mall shopping...There are much better motels around than this one, but if you are there for Disneyland and want to spend most of your money there this will do for the price.  The advantage is the location where it is about a straight walk on Harbor about 1 mile.  However, if you have smaller children that mile walk may not be so easy after a full day at Disney and doesn't allow you to easily leave Disney midday to rest at motel and come back later. There is public bus for $3 one way.   So one key of staying here is whether you can walk that mile, stay all day at Disney, and walk back a mile, and save $15 Disney parking.  Avoid rooms 221/222 which seem like an addition and was very musty.  Other rooms are ok.  The shower faucet broke off but they fixed it right away.  The staff is ok, I liked the night manager man.  Half the lot has covered parking to keep your car cool if you leave it there all day (you must put the parking sticker on the dash or get towed).  The wifi is password protected and only worked a quarter of the time for me.  There is no coffeemaker (you can get in the lobby) and no Gideon bibles.  The breakfast is just sweet rolls, toast, coffee, cereal and juice.  There is a Safeway grocery, cheaper eating places, and strip mall shopping about a mile south on and near Harbor.More</t>
   </si>
   <si>
+    <t>Gary G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r127147857-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1353,6 +1527,9 @@
   </si>
   <si>
     <t>March 2012</t>
+  </si>
+  <si>
+    <t>shadowbox86</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r125776270-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
@@ -1381,6 +1558,9 @@
 Bathroom was clean as well. Good water pressure from the shower &amp; the water stayed hot through 2 consecutive showers. The vanity/sink area was very spacious,...My boyfriend and I stayed here for 1 night in early March 2012. We chose the Rodeway based on it's value ($43/night from Expedia) and fairly favorable reviews compared to similarly-priced value hotels in the Disneyland area. It was just a place to shower &amp; sleep to recuperate after a 24-hours-in-a-row stay at Disneyland. We weren't expecting too much but were pleasantly surprised. The lady at the front desk, Stacey, was extremely warm &amp; friendly and that put us at ease from check-in. first impressions of the room were very favorable, it was clean, did not have any unpleasant odors and was more spacious than expected. The bedding was clean, if not a bit old. We did find a couple small, old stains on the comforter and a pillowcase but as they clearly seemed old and washed over many times, it was not an issue. No bugs were found, but as a standard practice we also always spray down every hotel bed &amp; linens with Good Night bed bug spray (found at Bed Bath &amp; Beyond) and bring our own pillows &amp; pillowcases. The King-size bed was rather comfortable. The room was very clean except for some dust buildup in the carpeted corners by the nightstands (see photo), but this was the only issue. Bathroom was clean as well. Good water pressure from the shower &amp; the water stayed hot through 2 consecutive showers. The vanity/sink area was very spacious, great if you need a lot of space to prep &amp; groom. TV was a non-flatscreen but I wouldn't expect that. Ample amount of cable channels. Checkout was a very easy process and once again, Stacey was a pleasure. She let us know about the Choice Privileges program to earn points on future stays and to be sure to call her directly if we wanted to book again, as she can always beat the prices online. All in all it was a great night's stay!It is close to many eateries (Taco Bell, Denny's, Ruth's Chris, Jack in the Box, Buca di Beppo) and a few mins from the parks by car and about a 20 min walk, though if you have little one I would recommend using the ART shuttle.More</t>
   </si>
   <si>
+    <t>Jezebel25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r124877098-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1408,6 +1588,9 @@
     <t>We reserved a 3 bedroom suite and almost brought two cars to Disneyland, however as luck had only brought one. We spoke to the front desk about how best to get to Disneyland as it was over a mile walk. They suggested we drive knowing that there was only 48 lucky people who were going to be able to park that evening! We returned after midnight to find the hotel surrounded with cops, there were fights breaking out and people were double parking, it was a nightmere! We were told to park across the street at Taco Bell that it was cool. My husband went back out to the car to find a tow truck hauling our truck away! We stopped this and decided to go home. Dont go here its a dump, honestly 58 rooms and 48 parking stalls, the comfort Inn next door doesnt have extra stalls either (we were told to park there too) am working on getting a refund...good luck!More</t>
   </si>
   <si>
+    <t>ronniwho</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r122712341-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1429,6 +1612,9 @@
     <t>Just stayed 2 wks over Christmas/New Years - I waited to late to decide to travel so every place I would have preferred was  booked so I got this motel in a flight/hotel combo on Priceline. Clean, quiet, Stacie at the front desk is most helpful in travel  help/ hotel needs, pool too small for more than 2 kids, not enough chairs to sit and sun, if pool is dirty, staff won't clean it, but wait for "pool guy", breakfast is a carbohydrate nightmare, dull, and just plain unhealthy (all breads) of $1 white bread, 3 kinds of hostess donuts, 3 kinds of fruit pastries, cardboard-type cereal, 1 gal of milk is unhealthily kept in a tray of ice where only the bottom of the milk is cold. Nearby fast food is taco bell, Carls Jr, Dennys, Jack in Box, and an AMPM Gas station with snacks/alcohol.  About 2 blocks either direction is Target w/ grocery, Red Robin, Joes Crab Shack, an Italian place, Mortons Steak, Ruth Chris'.If your only going to sleep while spending more time at Disney or the area, then this motel is fine.  If you want a better breakfast and niceties, go somewhere else.More</t>
   </si>
   <si>
+    <t>Teri B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r122343556-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1447,6 +1633,9 @@
     <t>We booked this room for a Friday before New Years Eve and found it to be a great place overall. You can't beat the price. We drove up from San Diego and they let us park early (7 am) and even check in, then we came later to take a much needed Disney break and got the room key. My brother and his family liked it so much they decided to get a room too! (They were going to stay with friends).I had a slight issue with a noisy toilet, and they promptly gave us another room. We saw the maintenance guy go fix the issue as soon as we moved rooms! The room (both) were clean and lots of recent upgrades (carpet, paint, etc). The beds seemed a little older but they fit the bill and were clean. I have to say that every staff member we encountered was very courteous and friendly, housekeepers and all. Front desk seemed very eager to please.Breakfast wasn't much but was good, mainly pastries and cereal. And hey, it's free! Some fresh fruit might be nice (bananas or oranges maybe) just for some healthier options.I would definitely stay again and appreciate the service.More</t>
   </si>
   <si>
+    <t>Cindy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r121633981-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1468,6 +1657,9 @@
     <t>The room was clean. It is an older facility, so don't expect all of the modern conveniences. The covered parking was a blessing and I liked not having to pay extra for parking. There is a shuttle to the local attractions for $4 per day if you don't want to pay parking there, either. My stay was very quiet and uneventful. The free wi-fi was a blessing. Every member of the staff was courteous and helpful. The microwave and fridge were helpful as I was there for work and on a budget. It would have been nice to have larger coffee cups (with lids) from the continental breakfast buffet, though.More</t>
   </si>
   <si>
+    <t>Amit S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r119296745-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1492,6 +1684,9 @@
     <t>HORRIBLE HORRIBLE!!!Attention potential guests, this is one of the worst places that I have stayed at. First, we were checked into a room full of bugs, we reported that to the management and the room was changed. Filthy matresses, torn bedsheets and bed covers was what were were welcomed to. And to top it all off unprofessional management that charges 3 dollars for 3 pages of printout!!! Are you kidding me? While most places will give you 3 pages of prinout for free in this world and age, here we have this place that charges 1 dollar per page of printout. The shower was not clean at all, poor quality toilet papers, nothing in the shower to stop the water to take a bath, I would put up pictures if I had the option but I am new to this website so not sure. I would give ZERO stars if possible. There is this saying - You get what you pay for, well in this case that does not hold true, here you don't even get what you pay for. I am here for a few more days, if the owners are reading this and would like to talk to me, I will be happy to share a lot of feedback with them. NEVER AGAIN!!!More</t>
   </si>
   <si>
+    <t>ryliner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r118095276-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1510,6 +1705,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>TheRonsWife</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r117152586-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1535,6 +1733,9 @@
   </si>
   <si>
     <t>Hotel is ok.  Staff was nice and helpful.  Close to Disney and on the shuttle route.  Room was clean and fairly well maintained. Families will probably love the fridge in the room.  With all that, the hotel and rooms are low quality.  Towels are thin, small, scratchy.  The beds are not comfortable, with linens that are not soft.  Continental breakfast was basic--orange juice didn't taste good.Pictures with this listing are misleading.  Pool is tiny, despite how big it looks in the pictures.Still, decent place to stay close to Disney.  I won't choose it again, but it definitely served its purpose for this trip.  And my greatest kudos was that they put us in a room away from my MIL. :)More</t>
+  </si>
+  <si>
+    <t>MADPROAUDIO</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r94007025-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
@@ -1587,6 +1788,9 @@
 Parking was easy, free and ample. My room was clean and everything worked. Desk guy called shortly to check in and ensure all was well, that was nice. The sheets on one bed were short but were clean. The 2pillows on each bed were flat but we did get 1more (that's all they had). Mattress was fairly worn and NOT good for someone with back probs like mine. Towels were rough but plentiful. No conditioner but 2 shampoos. I'm particular about that stuff and know where I'm going and how long I'm staying so I pack accordingly, you should too. Target is up the road if you forget something. The room is older so when we got a neighbor up stairs we heard every squeaky step. Carpets never made my feet black. Never saw any sort of bugs. Heated restroom floor. Super water pressure. This place has absolutely no frills but...Booked 3nights here. Got room 111. The check in went fairly smooth. I showed up hoping for an early check in and needed to change the credit card to one with enough to cover my stay but was turned away to both and told to return after 3 and it would be handled then. I returned to find they tried to run my card, I gave them the one I wanted to use and from there on it was ok. The gentleman that helped me was kind and efficient. Parking was easy, free and ample. My room was clean and everything worked. Desk guy called shortly to check in and ensure all was well, that was nice. The sheets on one bed were short but were clean. The 2pillows on each bed were flat but we did get 1more (that's all they had). Mattress was fairly worn and NOT good for someone with back probs like mine. Towels were rough but plentiful. No conditioner but 2 shampoos. I'm particular about that stuff and know where I'm going and how long I'm staying so I pack accordingly, you should too. Target is up the road if you forget something. The room is older so when we got a neighbor up stairs we heard every squeaky step. Carpets never made my feet black. Never saw any sort of bugs. Heated restroom floor. Super water pressure. This place has absolutely no frills but is acceptable and what I expected at $45 a night. Extended breakfast is so not. What they have is pretty fresh. Nothing hot but the usual a.m. junk food snacks. Dining rm is clean and well stocked.Disneyland is about a 25 (+ if u have kids) minute walk but there is an ART shuttle right out front. Had to check out a day early. Turned in keys by 10:30 a.m. and was told by staff there is no refunds regardless of the notice. She didn't ask any questions or show any concern (ie; was it the room? It wasn't but just the gesture would have made losing money easier). I was in no mood to argue I just walked out and called the Choice Hotels number to file a claim. I was also informed there is no required minimum night stay so a refund should be possible. This is my only real gripe.More</t>
   </si>
   <si>
+    <t>pelonsogkush</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r86334822-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1608,6 +1812,9 @@
     <t>they told me they needed a credit card to hold the room so we did. once we get there they told me they couldint charge the card because the person with the credit card was not there wich i understand so i gave him a $100 deposit plus paid for the room.when we check out they told me why i gave a deposit when they charged the card. so i ended up paying twice once in cash and the other they charged the card. so if i paid with a credit card the night before why would i need to leave a deposit. when i told him did nothing about he gave me the run around i asked for a supervisor it took 15minjust for him to give me her name after i said i was going to call 911. he didint even try and work it out or anything just didint careMore</t>
   </si>
   <si>
+    <t>Malcolmsmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r69241755-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1626,6 +1833,9 @@
     <t>This hotel advertises itself as 800 meters from Disneyland which is about 1/2 mile. In actuality it is almost 1 1/2 miles from the Main Gate. We booked on Priceline which usually collects all taxes, fees, etc. (except parking or extras you incur while staying there) but this  hotel charged us additional "tax." They advertised "extended" continental breakfast which actually consisted of sweet rolls, cereal (generic bulk) and a toaster to make toast plus coffee - not sure what's extended about that.Because of it's location you have to drive to decent restaurant - only fast food within walking distance and if you go late your parking space will be gone when you get back. Some folks who arrived late had to double park. It's not in the best neighborhood.The room itself was clean and adequate although I found it a bit odd that they had the tiny bottles of shampoo but no conditioner. It's an older hotel and bathrooms are pretty small as is the room itself.   They said there was free internet but none of the passwords provided worked.More</t>
   </si>
   <si>
+    <t>ReachfromRedondo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r69160979-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1647,6 +1857,9 @@
     <t>Too far a walk for Disneyland (past Oranagewood on Harbour) + the motel crowd was a little on the rough / party side (although I had no problems whatsever there). It would be fine if it was a "boy's" trip and we were at an Angels or a Ducks game and decided to make it an overnighter,,, but it is a little worn-down for the kiddies.  Since I was at end, near pool, it was pretty quiet. Pool was clean but small... but to be honest, with little ones at Disneyland, they are too exhausted to swim after Disneyland / CA Adventure and the walk was too far to "stop-by" mid-day. I recommend staying at maingate and cough up the $20-30 more per night for convenience. Free Breakfest was good. FInal note on Motel: Desk help not very helpful... lady in AM shift (06/25) did not let my wife call my cell (local #) after I mistakenly split up with her (I had her cell &amp; lttle one). Lady at desk told her to go to phone booth at local gas station even though she did not have any money. NOTE TO RODEWAY MGMT: EVERYTHING ELSE WAS FINE, DON'T MESS IT UP WITH UNACCEPTABLE FRONT DESK SERVICE.  Final note on CA Adventure: Check out World of Color, new "Fantasmic"-like show.. you need fast pass tickets avail at Grizzly Raft ride.More</t>
   </si>
   <si>
+    <t>MickMinn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r68769318-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1671,6 +1884,9 @@
     <t>We stayed at Rodeway Inn &amp; Suites for 1 week. The staff, Skip, Didar, Armond &amp; the woman office manager were the best!  Friendly, helpful &amp; very nice.  Breakfast was great!  Nice selection for some of us 'picky' eaters. Room very clean!  Location good.  Would definitely recommend this motel!More</t>
   </si>
   <si>
+    <t>ann63az</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r57132535-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1698,6 +1914,9 @@
     <t>Rooms are clean and comfortable with a very friendly staff, located just down the street from Disneyland.  The room was only $45 a night, which is unbelivably well priced!!  Just dont order delivery from Panda House, its absolutely disgustingMore</t>
   </si>
   <si>
+    <t>linda02California</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r51556507-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1725,6 +1944,9 @@
     <t>I would like to commend the staff at the Rodeway Inn in Anaheim.  They have gone completely out of their way to make my stay comfortable.  I wanted to go to church and they  googled directions for the church of my choice and also prepared a map for my return homeI observed their interaction with clientele and both Skip and Ray handled difficult and demanding customers in an extremely professisonal capacity.Thank you.  If you desire to contact me, feel free..More</t>
   </si>
   <si>
+    <t>montereymagic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r45663531-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1752,6 +1974,9 @@
     <t>From check-in to check-out everyone and everything was wonderful. The entire property including the lobby, parking area, rooms, pool, and hot tub were very clean, comfortable, and safe. The AC worked great in 97 degree weather.  Breakfast is simple, donuts, rolls, cereal, milk and juice, and the coffee was really good. Every room has a small microwave and fridge.  I used the free wireless internet at 2 ends of the building, had great speed at both locations. I was able to stay here for 6 nights for a conference at the convention center which is about a 10 minute walk with a rolling computer bag. The service was great. The people were friendly and helpful on the phone and in person.  I am healing from some broken bones, I even had extra help at check-in with luggage from the Manager. At check-out I left something behind and they called me first, and sent it back fed-ex. They even have Kid Suites that have 2 queen beds and a set of bunk beds with a play table, second TV and glass doors so you can monitor the children and still have some peace for the adults. Because I will stay there again, next time with family including my granddaughter, I hope you don’t read this it is a great place to stay I would like to keep it to myself.More</t>
   </si>
   <si>
+    <t>LosAngeles99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r32157074-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1770,6 +1995,9 @@
     <t>June 2009</t>
   </si>
   <si>
+    <t>DebbieW_9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r26773082-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1789,6 +2017,9 @@
   </si>
   <si>
     <t>We stayed here, but we found that the beds were not made up properly. They used flat sheets for the bottom sheets and they kept riding up. The sheets had rips in them. The pillows were about half the size of a normal pillow and it made sleeping difficult.  There was not enough space to put clothing.More</t>
+  </si>
+  <si>
+    <t>bgvotaw</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r26664971-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
@@ -1819,6 +2050,9 @@
 I suggest coming in warmer weather, going to eat at Denny's down the block, and if you don't want to walk all the way, take the bus or shuttle bus. $4.00 per person for an all...I was a little apprehensive about staying at another Rodeway Inn as we have had bad experiences with them. However, this hotel restored my faith in them! Pros: The rooms were very nice and looked like were JUST remodeled. All the furniture was pretty and modern; the beds were comfy and looked new; the paint on walls and the carpet were all new; the ac unit was a newer model and worked like a gem; the bathroom was very clean and all new counter tops and looked like new shower and toilet too; the TV was 32 inches and worked great. I was really amazed at how new and clean everything was! Not a lot of noise, nice staff, laundry room was clean, and they really did keep things tidy around there. The price was great too!Cons:I could hardly keep an internet connection the entire time! That was pretty annoying! Pool was NOT heated, breakfast is cereal, toast, donuts, and coffee. And Disneyland is NOT .5 miles like they tell you on the phone and when you get here. They also say 3 blocks, but the blocks are HUGE! It is a little over a mile and about a 25 minute walk. I suggest coming in warmer weather, going to eat at Denny's down the block, and if you don't want to walk all the way, take the bus or shuttle bus. $4.00 per person for an all day ticket.Overall; this place is pretty nice for the bucks! I highly recommend it!More</t>
   </si>
   <si>
+    <t>beardfl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r21505387-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1840,6 +2074,9 @@
     <t>We were quite reluctant to book this hotel at the price we got: it seemed too good to be true.  It is less than a mile from Disneyland and includes a hot tub, pool, fridge, guest laundry, and free wireless internet.  But the price was irresistible so we tried it.  For 3 nites.It's just great.  Comfortable bed (we have been driving cross country, staying in hotels and we've had more than our share of beds where we felt the mattress springs in our backs and hips - but this bed is just great).  Excellent room condition - clean and looking "updated".  Hot tub and pool clean and inviting.  And it even has a guest laundry that wasn't listed in the amenities: a nice surprise to get to do a couple of loads of laundry.  And parking is right by the room - easy access.The desk staff were very friendly and helpful, as well.  This is one of those rare finds and it *is* real.More</t>
   </si>
   <si>
+    <t>smartdaddy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r16804920-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1858,6 +2095,9 @@
     <t>June 2008</t>
   </si>
   <si>
+    <t>mommaknows</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r15736229-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1877,6 +2117,9 @@
   </si>
   <si>
     <t>Website led us to belive that this was a "nice" place.  We thought that we had reserved a 2 room suite, not that at all, it was a room and a half.  The room was dirty.  Holes in the bedding.  Filled with flying bugs.  The security lock on the door was gone as the door had been kicked in.  When I asked about the missing lock the desk agent said "You'll be okay, no one goes down there."  After insisting on a safe and secure room, he let me look at a different room.... missing lock in that room as well.  We decided to sleep there that night as it was very late at this point.  Big Mistake!  My 4 yr old daughter was bitten by bed bugs all over her belly.  We were there less than 10 hours and moved to the Hyatt for the rest of our trip. I would not recommend this place to anyone.  Web site is very deceiving on quality.  Stay anywhere but here.More</t>
+  </si>
+  <si>
+    <t>Momof6</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r13888818-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
@@ -1906,6 +2149,9 @@
 Probably...For my family vacation I had very specific requirements.  Because I have a lot of young children, I needed a place that had 4 or more double beds (or larger), two bathrooms, a microwave, a refrigerator, and free breakfast if possible.  My husband is a pretty big germophobe, so I also needed somewhere that was  clean and bug free.  I also wanted to save as much money as possible because the cost of our tickets to Disneyland were $1262.  The Vagabond Inn met all of these requirements.I'm not saying that it is the greatest place in the world to stay, but it was clean and the maids were very kind.  The price  was very good (I booked directly through their website as it was cheaper than the travel sites).  There were a few small holes in the ceiling, and a couple of other very minor things in the room were in need of repair.  The beds are extremely hard as has been mentioned.  I am a side sleeper and would wake up with sore hips.The breakfast was okay--like a previous post said, it was pretty sparse.  We had orange juice, lemonade, tea, coffe, danishes, corn flakes, Cheerios, and toast.  Some days they would bring out donuts, but they went pretty fast and weren't replaced.  Breakfast is only available from 7-9am so the day we went to Disneyland for our Magic Morning, we had to get breakfast elsewhere.Probably the biggest complaint I have is the parking.  The spaces are very small, though we could get our 12 passenger van in without too much trouble.  Getting out each morning was the problem.  Apparently there aren't enough spaces for the number of rooms that they have because every morning there were cars double parked behind us.  We had 2 rooms and only 1 car, and each morning there were at least 5 or 6 cars that weren't in a parking spot.  The guy at the desk would come out and move the cars as needed.I would consider staying here again, as it wasn't bad, but we'll probably just rent a house next time.More</t>
   </si>
   <si>
+    <t>safey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r13836789-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1924,6 +2170,9 @@
     <t>Excellent value for the money. Beware that the beds are ROCK hard! Spacious room, and strong shower with good hot water availabillity. Nice updated sink area. The shower head shoots  a thin diameter spray, kind of like a massage. Included breakfast is spotty (7-9am only), with items running out frequently. Staff seemed indifferent to requests. Just pastries, toast and some cereal. The apple and orange juice is good, if they are available. You can book on Orbitz and use a $50 off coupon for 3 or more night stays. I forget the code, but you can google it and save $50 (if it is still available). I ended up paying about $120 for 3 weeknights, plus a little over $8.00 as their "resort fee" upon arrival. Our non-smoking room smelled decent, as I am very sensitive to smoke or other odors. It is less than a mile to Disneyland, and parking is free, which was a good bonus. Hope this helps you!More</t>
   </si>
   <si>
+    <t>bunny1123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r13739987-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1942,6 +2191,9 @@
     <t>If you are looking for a place just to sleep and shower, then this is the place you should go to. We booked a kid's suite that had 2 double beds in the front, and a bunk bed in the back room. It was clean, and nothing above average. The only time we were in the room was to sleep and shower. We went to go chill at the pool/spa. But they put too much chlorine in it. The shuttle for Disneyland is right in front of the place. There's a lot of places to eat, and Target is about two blocks down. The employees were very friendly, and were very helpful with the questions we asked. The maids were also very nice, and made our room very clean each day. They do have a washer/dryer ($1.75 for each use), so if you go swimming, and want to wash your clothes right away, it's very convinient.More</t>
   </si>
   <si>
+    <t>juaradawn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r10039611-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1960,6 +2212,9 @@
     <t>September 2007</t>
   </si>
   <si>
+    <t>aguinaldo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r8355278-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1978,6 +2233,9 @@
     <t>August 2007</t>
   </si>
   <si>
+    <t>andinae</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r8273828-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -1999,6 +2257,9 @@
     <t>My family of 4 (kids ages 5 and 7) and our babysitter stayed here in July for 5 days.  I requested a adjoining room with 3 queen beds, just to make sure we weren't tripping over each other all week.  It is a simple cheap room perfect for people who aren't going to spend a lot of time in the room.  Two days we came back to swim and rest, before heading back to Disney, and it was quiet enough for adults to sleep, while the babysitter took the kids to the pool. It was clean, the beds were comfortable, and the sink is outside of the toilet/shower area.  There is no coffeemaker, but there is a microwave and fridge.  My one complaint is the TV.  They claimed to have cable TV, but a lot of the channels were fuzzy, and such.  It was adequate.  We were able to find a few stations to let the kids veg out to while we were preparing to go to bed.  They were so tired after a full day a Disney, that it wasn't really an issue for us, just thought I would mention it in case that may be important for your family.  The pool was small, but heated as promised.  It felt great on sore feet and tired backs. The ART route is right outside the lobby door, and for $3 a day (kids under 10 ride free), was well worth...My family of 4 (kids ages 5 and 7) and our babysitter stayed here in July for 5 days.  I requested a adjoining room with 3 queen beds, just to make sure we weren't tripping over each other all week.  It is a simple cheap room perfect for people who aren't going to spend a lot of time in the room.  Two days we came back to swim and rest, before heading back to Disney, and it was quiet enough for adults to sleep, while the babysitter took the kids to the pool. It was clean, the beds were comfortable, and the sink is outside of the toilet/shower area.  There is no coffeemaker, but there is a microwave and fridge.  My one complaint is the TV.  They claimed to have cable TV, but a lot of the channels were fuzzy, and such.  It was adequate.  We were able to find a few stations to let the kids veg out to while we were preparing to go to bed.  They were so tired after a full day a Disney, that it wasn't really an issue for us, just thought I would mention it in case that may be important for your family.  The pool was small, but heated as promised.  It felt great on sore feet and tired backs. The ART route is right outside the lobby door, and for $3 a day (kids under 10 ride free), was well worth it.  I kept a business card from here, because I would definatley stay here again.  We bought our Disney tickets and ART tickets right in the lobby.  It was very convenient.  No onsite restaurant, but delivery for pizza and chinese was a snap, and there are numerous fast food as well as restaurants within walking distance.More</t>
   </si>
   <si>
+    <t>GothGargoyle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r6085436-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -2020,6 +2281,9 @@
     <t>We stayed in this hotel from Oct 22nd - Nov 3rd and quite enjoyed our stay. The hotel is good value - we feel we got our money's worth.Things we loved about it:* Microwave and Fridge in the room* Comfortable King-sized bed* Good price* Free wireless Internet* Since we stayed more than 10 nights we got a coupon for a free night's stay at any Vagabond Inn. Things we were indifferent to:* A decent walk to Disneyland (too far for lazy Americans), but you can always drive or catch the Anaheim Resort Transit shuttle* Breakfast was fairly boring - toast, cereal and pastries - but it was free after all!Things we didn't like:* Shower was very low (you have to limbo to get your hair wet) and took a fair amount of skill to coax hot water out of.* Drink vending machines seemed permanently out of stock of bottled water.More</t>
   </si>
   <si>
+    <t>bloomin'cockroachers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r5981524-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -2041,6 +2305,9 @@
     <t>In July I stayed at the Vagabond Inn and it was a mediorce experience. The bathroom gave a creepy vibe. The shower was a little dirty, the shower head was too low, no water pressure, and it was only burning hot water or freezing cold. A cold shower seems like it would be nice after a day at Disneyland but it just makes you cold all night. The towels were stale and a little smelly; like they had been washed and hung up before they dried all the way. The service was alright. The room service was not always done when we returned or they never came. I got the feeling that most of them did not speak english, so be prepared. The breakfast was barely anything. Muffins and yucky coffee. Did save you money so you don't have to go to Denny's though.It was an okay hotel, the beds were comfortable and the doors locked. Other then that it wasn't that great. The only reason I would come back was if it was cheaper and it had a shuttle.More</t>
   </si>
   <si>
+    <t>ziton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r5975766-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -2059,6 +2326,9 @@
     <t>We stayed here 4 nights in early October room rate was about 60.00 a night. The rooms were very clean we had two rooms and had no issues with housekeeping. In one room beds were very comfortable in the other they were like sleeping on box springs. We did not spend much time in the rooms so it was ok. It was nice to have a micowave and a fridge in the room if we wanted to use them and there was no additional charge. As for parking I have to agree with the other reviews. They do not have enough parking for the number of rooms they have so if you return late you will be told you have to double park. We new this in advance and just allowed extra time in the morning to allow cars to be moved. If you are a light sleeper this is not the hotel for you walls are very thin.More</t>
   </si>
   <si>
+    <t>bareboi23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r5558902-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -2075,6 +2345,9 @@
   </si>
   <si>
     <t>Go ahead...book this hotel.   You'll show up and beg to check out.  We showed up and were immediately thrown off by the rudeness experienced at the front staff.   Tired from a long journey, we took the attitude and checked in.   The stench in our room was so overwhelming, we immediately asked to be moved.  We were told we would have to wait a couple hours for a clean room and we obliged.  We went to dinner and came back and the room was ready - but I thought they said CLEAN room!   It was worse than the first one, filthy, and smelly.  The bathrooms have not been cleaned or scrubbed in what appears to be years.  This hotel should be ashamed to have the name "executive" within their name.  Stay away!!More</t>
+  </si>
+  <si>
+    <t>heavenlyval</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r5505063-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
@@ -2127,6 +2400,9 @@
 (though we did not ask for very much) was very helpful over the phone and was willing to talk...I was relieved when we arrived here from our run down Quailty Inn Airport/Seaworl hotel (see my review on this one, Q.I. should be shut down). The pictures were the same as the rooms and I was happy about that. A little to far to walk to Disnayland (for me), but they do have a shuttle out front.Pros:-The rooms were the same as pictured!!!!-Nice colored room with windows that open (fun decor)-Clean when you arrive and they straigtened up everyday we were there-Nice shower (though the shower head could be higher on the wall for normal size adults)-kid friendly and quiet (could not hear the people above us)-Refrig and air conditioner (both worked very well, ac very cold!)-great list of resturants (with menus) that deliver to the room-the pool temp was great / hot tub was a little too hot could not get in-enough beds for our family of 7 (each kid got to sleep in one of the beds by themselves during the stay)-Was a comfortable and better stay than our San Diego trip-2 bathrooms and 2 tv's-Very friendly front desk help (Stacy was great and very helpful!!!! Cudos to you and you need a raise!)-Stacy is a Pro and helped to make our stay comfortable (though we did not ask for very much) was very helpful over the phone and was willing to talk to me and ensure we had a great time. Answered all of my questions and concerns.-was comfortable to come back to after 14 hours at Disneyland and C.A)-Though it is not an upscale hotel, it is comfortable and nice and great for the money (we paid $180.00 and 190.00 a night for 2 full size connecting rooms / downstairs). It was worth the money. If you can get it even cheaper then you are getting a great deal.-bathroom was comfortable-The new owner has put in a lot of time and money for the property, if you had a bad stay prior to 1/06 I would give this place another try!!!Cons-small parking lot (though we always found parking by our room)-pool is a little small (no big deal)-Wished the tvs had hooks for game systems or dvd player to keep the kids busy during down time (though the cable was good and we always found something to watch) Did not spend too much time here had a lot to do for the 5 nights we were here.-a little small around the bathroom door and the bathroom sink. (moving around)I would recommend this hotel to others and for the price, you save money. Moderate priced hotel with upscale employees. Thanks for the great stay!!More</t>
   </si>
   <si>
+    <t>Michelle F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r5348811-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -2145,6 +2421,9 @@
     <t>I picked this hotel because it had good reviews and the pics made the place look great. It wasn't. It is a rundown small, small, small hotel. They didn't have a room on the first floor, as we requested when we made the reservation and confirmed before arrival. The room we did get smelled funny. They must have just painted the bathroom, it reaked of paint. We left the window open with the blower on the whole time we were there (4 nights!) and it still stunk. I found and killed two ear-wig/beetle/roach type bugs, one in the bathroom and one right next to the bed. The water pressure was so bad I could have spit on myself faster and harder and the shower head was sooo low, to use it, you needed to be under 5' tall. They didn't have enough parking spots for all of the rooms. The continental breakfast was joke! It was from 7-9am, but if you weren't there at 7am on the dot it was all gone, what little they had to offer. They didn't even clean the rooms while we were there. They made the beds, but that was all. There was a ball of hair on the floor when we got the room and it was still there when we left - GROSS!More</t>
   </si>
   <si>
+    <t>Rod W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r5188442-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -2178,6 +2457,9 @@
     <t>I guess they put new asphalt in or something there was grease all over the floors. Terrible. Never againMore</t>
   </si>
   <si>
+    <t>seventysx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r5069302-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -2215,6 +2497,9 @@
   </si>
   <si>
     <t>Very nice for the money, I mean come on folks, this is a discount hotel for the area. Very close to Disney and the Convention Center. I checked in early but the manager at the desk in the AM was very accomidating and processed my checkin early so I could get settled and off to the convention center. Room was clean, plenty of towels, free wireless internet, everything worked, very comfortable. All in all I would stay here again. If I paid Hilton prices for the room I would be left wanting but for what it is they do a great job of caring for the guests. Room #204, Jan 28th thru Feb 1st 2006.More</t>
+  </si>
+  <si>
+    <t>Debbie G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r4336238-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
@@ -2297,6 +2582,9 @@
 The towels (though...We (2 adults and 2 teenagers) stayed here on 2 separate occasions within the same holiday, mainly because we needed 2 reasonably priced rooms and the Vagabond's pricing was within our budget. I booked online directly with the hotel, $89 plus tax for a 2 queen connecting room, which is essentially 2 rooms each with 2 queen-sized beds.On the up side;Good location for Disney, access to beaches (Newport, Huntington, Laguna are all recommended) &amp; shopping (South Coast for high end serious shoppers, The Block at Orange for those with less money (or interest!)) Being on Harbor Boulevard the hotel is conveniently located to numerous restaurants/fast food joints.Room size was decent for the money.Free parking.Connecting rooms.Fridge, iron &amp; ironing board in room at no extra charge.Laundry room available.Free continental breakfast (though we didn't bother with this).Outdoor jacuzzi was always lovely &amp; warm and both jacuzzi and pool were very clean (but also see additional comments below).Stacey in reception is a complete star, nothing was too much trouble - she even printed me off a map of directions from the hotel to the shopping mall.On the down side;On both occasions the rooms smelled on initial entry - the closest I could describe is of faintly wet dog. (!) However, this didn't put us off and didn't seem to linger (though maybe we just got used to it).The towels (though clean and replaced readily) were too small and very thin.The pool and pool area are very small - more the size you'd expect for a family villa not a hotel.On both occasions, we had a room with an iron-shaped burn on the carpet. Not a big issue but perhaps it's time to replace the carpets.More</t>
   </si>
   <si>
+    <t>G7919OCjamesw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r4035180-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -2354,6 +2642,9 @@
     <t>I was expecting more from the price I paid for the night.  I had stayed at a much nicer hotel than the Vagabond Inn. The inn could also do a little bit better with the complimentary continental breakfast.   But what really made our trip worthwhile was Amir, the manager of Vagabond Inn. He went out of his way to help us out and accomodate my family. I have never met a more cordial and personable manager....</t>
   </si>
   <si>
+    <t>FoodiePalmDesert_CA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r3292140-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -2511,6 +2802,9 @@
     <t>The Vagabond Inn (formerly The Dupre) was one of the highlights of our trip. The room was clean, tastefully decorated and homey. We had stayed at a lot of hotels all the way down on our trip to Disneyland and The Vagabond, Anaheim was the best by far. The staff was warm and friendly and took us in a day earlier than our reservation. The rates were excellent (got it on the internet) We had 2 adjoining rooms with 2 queen beds in each, 2 big TVs, 2 microwaves, 2 fridges and 2 bathrooms. AWESOME!!!There is no 'free' shuttle but the ART (Anaheim Resort Transit) was only $24US for all 4 of us to go back and forth from the hotel to Disneyland as many times as we needed for 5 days.I would highly recommend this hotel. It's small and hidden from the other giant hotels around it so look it up on the net. ...It has a small pool but adequate enough. It also has a hot tub and free parking. It's not far from Disneyland but you wouldn't want to walk after a day at the park.More</t>
   </si>
   <si>
+    <t>livinginthedesert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r1141270-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -2526,6 +2820,9 @@
     <t>The staff at The Vagabond (formerly the Dupre) do an excellent job of keeping an older motel pleasant for their guests. If you're expecting to be pampered, go somewhere else and pay alot more. The friendly staff was prompt with all requests. The pool was clean and the room was nice. The continental breakfast was limited, but that's not what I stayed here for. We stayed in their extended room with bunk beds for the kids and it was an enjoyable stay at a great price.</t>
   </si>
   <si>
+    <t>bubbles69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r1135447-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -2535,6 +2832,9 @@
     <t>07/10/2003</t>
   </si>
   <si>
+    <t>HowardD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r929579-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
   </si>
   <si>
@@ -2548,6 +2848,9 @@
   </si>
   <si>
     <t>More</t>
+  </si>
+  <si>
+    <t>TahoeBob54</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d217227-r924852-Rodeway_Inn_Suites_Near_Anaheim_Convention_Center-Anaheim_California.html</t>
@@ -3088,43 +3391,47 @@
       <c r="A2" t="n">
         <v>1910</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -3140,56 +3447,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1910</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3203,50 +3514,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1910</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3258,56 +3573,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1910</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -3325,50 +3644,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1910</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3386,50 +3709,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1910</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -3449,41 +3776,45 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1910</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -3502,50 +3833,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1910</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3559,50 +3894,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1910</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3616,50 +3955,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>1910</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -3677,50 +4020,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>1910</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3738,50 +4085,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>1910</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -3801,50 +4152,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>1910</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3858,50 +4213,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>1910</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3915,50 +4274,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>1910</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3972,50 +4335,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>1910</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -4033,50 +4400,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>1910</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4090,50 +4461,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1910</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -4153,50 +4528,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>1910</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4210,50 +4589,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>1910</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4267,50 +4650,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1910</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4324,41 +4711,45 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>1910</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>208</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="J23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
@@ -4377,50 +4768,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>1910</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>214</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -4440,50 +4835,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>1910</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>222</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="J25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="O25" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4497,50 +4896,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>1910</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>229</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="J26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4554,50 +4957,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>1910</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>237</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="J27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4611,41 +5018,45 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1910</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>244</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="J28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
@@ -4664,50 +5075,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>1910</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>250</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="J29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4725,50 +5140,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1910</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>258</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="J30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="K30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4786,41 +5205,45 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>1910</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>265</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="J31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
@@ -4849,50 +5272,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>1910</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>272</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="J32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="O32" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -4912,50 +5339,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>1910</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>279</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="J33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="O33" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4975,50 +5406,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>1910</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>286</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="J34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="K34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -5038,50 +5473,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>1910</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>293</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="J35" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="K35" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -5101,50 +5540,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>1910</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>300</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="J36" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="K36" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -5162,50 +5605,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>1910</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>306</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="J37" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="K37" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="L37" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5219,50 +5666,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>1910</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>314</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="J38" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="K38" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -5286,50 +5737,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>1910</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>321</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="J39" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="K39" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -5353,50 +5808,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>1910</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>328</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="J40" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="K40" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="L40" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
@@ -5420,50 +5879,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>1910</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>334</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="J41" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="K41" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="O41" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -5487,50 +5950,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>1910</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>342</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="J42" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="K42" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="L42" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="O42" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -5554,50 +6021,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>1910</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>350</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="J43" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="K43" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="L43" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="O43" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5611,41 +6082,45 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>1910</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>356</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="J44" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="K44" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="L44" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
@@ -5674,50 +6149,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>1910</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>362</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="J45" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="K45" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="L45" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -5741,41 +6220,45 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>1910</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>369</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="J46" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="K46" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="L46" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
@@ -5804,50 +6287,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>1910</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>375</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="J47" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="K47" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="L47" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -5871,50 +6358,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>1910</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>383</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="J48" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="K48" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="L48" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -5938,50 +6429,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>1910</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>391</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="J49" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="K49" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="L49" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -6005,41 +6500,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>1910</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>398</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="J50" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="K50" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -6068,50 +6567,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>1910</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>404</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="J51" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="K51" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6135,41 +6638,45 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>1910</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>411</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="J52" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="K52" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="L52" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
@@ -6198,50 +6705,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>1910</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>417</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="J53" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="K53" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -6265,41 +6776,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>1910</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>425</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="J54" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="K54" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="L54" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
@@ -6328,50 +6843,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>1910</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>431</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="J55" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="K55" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="L55" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -6393,56 +6912,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="X55" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="Y55" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>1910</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>441</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="J56" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="K56" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="L56" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="O56" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6466,50 +6989,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>1910</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>448</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="J57" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="K57" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="L57" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>2</v>
@@ -6531,56 +7058,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="X57" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="Y57" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>1910</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>456</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="J58" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="K58" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="L58" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6604,50 +7135,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>1910</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>464</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>408</v>
+        <v>466</v>
       </c>
       <c r="J59" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="K59" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="L59" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6671,50 +7206,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>1910</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>471</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
       <c r="J60" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="K60" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="L60" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="O60" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6738,50 +7277,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>1910</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>478</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>419</v>
+        <v>479</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="J61" t="s">
-        <v>421</v>
+        <v>481</v>
       </c>
       <c r="K61" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="L61" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -6803,56 +7346,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="X61" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="Y61" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>1910</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>488</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>428</v>
+        <v>489</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="J62" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
       <c r="K62" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="L62" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6876,50 +7423,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>1910</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>496</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>436</v>
+        <v>498</v>
       </c>
       <c r="J63" t="s">
-        <v>437</v>
+        <v>499</v>
       </c>
       <c r="K63" t="s">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="L63" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6943,50 +7494,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>440</v>
+        <v>502</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>1910</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>503</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
       <c r="J64" t="s">
-        <v>443</v>
+        <v>506</v>
       </c>
       <c r="K64" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
       <c r="L64" t="s">
-        <v>445</v>
+        <v>508</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="O64" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -7010,50 +7565,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>447</v>
+        <v>510</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>1910</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>511</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
       <c r="J65" t="s">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="K65" t="s">
-        <v>451</v>
+        <v>515</v>
       </c>
       <c r="L65" t="s">
-        <v>452</v>
+        <v>516</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="O65" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
@@ -7075,56 +7634,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>453</v>
+        <v>517</v>
       </c>
       <c r="X65" t="s">
-        <v>454</v>
+        <v>518</v>
       </c>
       <c r="Y65" t="s">
-        <v>455</v>
+        <v>519</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>1910</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>520</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>456</v>
+        <v>521</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
       <c r="J66" t="s">
-        <v>458</v>
+        <v>523</v>
       </c>
       <c r="K66" t="s">
-        <v>459</v>
+        <v>524</v>
       </c>
       <c r="L66" t="s">
-        <v>460</v>
+        <v>525</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>461</v>
+        <v>526</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7146,50 +7709,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>460</v>
+        <v>525</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>1910</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>527</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>462</v>
+        <v>528</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="J67" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
       <c r="K67" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="L67" t="s">
-        <v>466</v>
+        <v>532</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -7207,56 +7774,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="X67" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="Y67" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>1910</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>537</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>471</v>
+        <v>538</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>472</v>
+        <v>539</v>
       </c>
       <c r="J68" t="s">
-        <v>473</v>
+        <v>540</v>
       </c>
       <c r="K68" t="s">
-        <v>474</v>
+        <v>541</v>
       </c>
       <c r="L68" t="s">
-        <v>475</v>
+        <v>542</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>476</v>
+        <v>543</v>
       </c>
       <c r="O68" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -7280,50 +7851,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>477</v>
+        <v>544</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>1910</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>306</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>478</v>
+        <v>545</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>479</v>
+        <v>546</v>
       </c>
       <c r="J69" t="s">
-        <v>480</v>
+        <v>547</v>
       </c>
       <c r="K69" t="s">
-        <v>481</v>
+        <v>548</v>
       </c>
       <c r="L69" t="s">
-        <v>482</v>
+        <v>549</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>483</v>
+        <v>550</v>
       </c>
       <c r="O69" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7345,56 +7920,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="X69" t="s">
-        <v>485</v>
+        <v>552</v>
       </c>
       <c r="Y69" t="s">
-        <v>486</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>1910</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>554</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>487</v>
+        <v>555</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>488</v>
+        <v>556</v>
       </c>
       <c r="J70" t="s">
-        <v>489</v>
+        <v>557</v>
       </c>
       <c r="K70" t="s">
-        <v>490</v>
+        <v>558</v>
       </c>
       <c r="L70" t="s">
-        <v>491</v>
+        <v>559</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>492</v>
+        <v>560</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -7416,47 +7995,51 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="X70" t="s">
-        <v>485</v>
+        <v>552</v>
       </c>
       <c r="Y70" t="s">
-        <v>493</v>
+        <v>561</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>1910</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>562</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>494</v>
+        <v>563</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>495</v>
+        <v>564</v>
       </c>
       <c r="J71" t="s">
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="K71" t="s">
-        <v>497</v>
+        <v>566</v>
       </c>
       <c r="L71" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
@@ -7483,56 +8066,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="X71" t="s">
-        <v>485</v>
+        <v>552</v>
       </c>
       <c r="Y71" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>1910</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>569</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>501</v>
+        <v>571</v>
       </c>
       <c r="J72" t="s">
-        <v>502</v>
+        <v>572</v>
       </c>
       <c r="K72" t="s">
-        <v>503</v>
+        <v>573</v>
       </c>
       <c r="L72" t="s">
-        <v>504</v>
+        <v>574</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>505</v>
+        <v>575</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>2</v>
@@ -7554,56 +8141,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="X72" t="s">
-        <v>485</v>
+        <v>552</v>
       </c>
       <c r="Y72" t="s">
-        <v>506</v>
+        <v>576</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>1910</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>577</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>507</v>
+        <v>578</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>508</v>
+        <v>579</v>
       </c>
       <c r="J73" t="s">
-        <v>509</v>
+        <v>580</v>
       </c>
       <c r="K73" t="s">
-        <v>510</v>
+        <v>581</v>
       </c>
       <c r="L73" t="s">
-        <v>511</v>
+        <v>582</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>505</v>
+        <v>575</v>
       </c>
       <c r="O73" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7625,56 +8216,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>512</v>
+        <v>583</v>
       </c>
       <c r="X73" t="s">
-        <v>513</v>
+        <v>584</v>
       </c>
       <c r="Y73" t="s">
-        <v>514</v>
+        <v>585</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>1910</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>586</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>515</v>
+        <v>587</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>516</v>
+        <v>588</v>
       </c>
       <c r="J74" t="s">
-        <v>517</v>
+        <v>589</v>
       </c>
       <c r="K74" t="s">
-        <v>518</v>
+        <v>590</v>
       </c>
       <c r="L74" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>520</v>
+        <v>592</v>
       </c>
       <c r="O74" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7696,56 +8291,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="X74" t="s">
-        <v>522</v>
+        <v>594</v>
       </c>
       <c r="Y74" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>1910</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>596</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>524</v>
+        <v>597</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>525</v>
+        <v>598</v>
       </c>
       <c r="J75" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="K75" t="s">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="L75" t="s">
-        <v>528</v>
+        <v>601</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>529</v>
+        <v>602</v>
       </c>
       <c r="O75" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -7763,56 +8362,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>530</v>
+        <v>603</v>
       </c>
       <c r="X75" t="s">
-        <v>531</v>
+        <v>604</v>
       </c>
       <c r="Y75" t="s">
-        <v>532</v>
+        <v>605</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>1910</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>606</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>533</v>
+        <v>607</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>534</v>
+        <v>608</v>
       </c>
       <c r="J76" t="s">
-        <v>535</v>
+        <v>609</v>
       </c>
       <c r="K76" t="s">
-        <v>536</v>
+        <v>610</v>
       </c>
       <c r="L76" t="s">
-        <v>537</v>
+        <v>611</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>538</v>
+        <v>612</v>
       </c>
       <c r="O76" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7834,56 +8437,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>539</v>
+        <v>613</v>
       </c>
       <c r="X76" t="s">
-        <v>540</v>
+        <v>614</v>
       </c>
       <c r="Y76" t="s">
-        <v>541</v>
+        <v>615</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>1910</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>616</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>542</v>
+        <v>617</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>543</v>
+        <v>618</v>
       </c>
       <c r="J77" t="s">
-        <v>544</v>
+        <v>619</v>
       </c>
       <c r="K77" t="s">
-        <v>545</v>
+        <v>620</v>
       </c>
       <c r="L77" t="s">
-        <v>546</v>
+        <v>621</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>547</v>
+        <v>622</v>
       </c>
       <c r="O77" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7907,50 +8514,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>546</v>
+        <v>621</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>1910</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>623</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>548</v>
+        <v>624</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>549</v>
+        <v>625</v>
       </c>
       <c r="J78" t="s">
-        <v>550</v>
+        <v>626</v>
       </c>
       <c r="K78" t="s">
-        <v>551</v>
+        <v>627</v>
       </c>
       <c r="L78" t="s">
-        <v>552</v>
+        <v>628</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>553</v>
+        <v>629</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7972,56 +8583,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="X78" t="s">
-        <v>485</v>
+        <v>552</v>
       </c>
       <c r="Y78" t="s">
-        <v>554</v>
+        <v>630</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>1910</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>631</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>555</v>
+        <v>632</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="J79" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="K79" t="s">
-        <v>558</v>
+        <v>635</v>
       </c>
       <c r="L79" t="s">
-        <v>559</v>
+        <v>636</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>553</v>
+        <v>629</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -8045,50 +8660,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>560</v>
+        <v>637</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>1910</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>638</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>561</v>
+        <v>639</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>562</v>
+        <v>640</v>
       </c>
       <c r="J80" t="s">
-        <v>563</v>
+        <v>641</v>
       </c>
       <c r="K80" t="s">
-        <v>564</v>
+        <v>642</v>
       </c>
       <c r="L80" t="s">
-        <v>565</v>
+        <v>643</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>566</v>
+        <v>644</v>
       </c>
       <c r="O80" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8112,50 +8731,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>567</v>
+        <v>645</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>1910</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>646</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>568</v>
+        <v>647</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>569</v>
+        <v>648</v>
       </c>
       <c r="J81" t="s">
-        <v>570</v>
+        <v>649</v>
       </c>
       <c r="K81" t="s">
-        <v>571</v>
+        <v>650</v>
       </c>
       <c r="L81" t="s">
-        <v>572</v>
+        <v>651</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>573</v>
+        <v>652</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -8179,50 +8802,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>572</v>
+        <v>651</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>1910</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>653</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>574</v>
+        <v>654</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>575</v>
+        <v>655</v>
       </c>
       <c r="J82" t="s">
-        <v>576</v>
+        <v>656</v>
       </c>
       <c r="K82" t="s">
-        <v>577</v>
+        <v>657</v>
       </c>
       <c r="L82" t="s">
-        <v>578</v>
+        <v>658</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>579</v>
+        <v>659</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -8244,56 +8871,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="X82" t="s">
-        <v>485</v>
+        <v>552</v>
       </c>
       <c r="Y82" t="s">
-        <v>580</v>
+        <v>660</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>1910</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>661</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>582</v>
+        <v>663</v>
       </c>
       <c r="J83" t="s">
-        <v>583</v>
+        <v>664</v>
       </c>
       <c r="K83" t="s">
-        <v>584</v>
+        <v>665</v>
       </c>
       <c r="L83" t="s">
-        <v>585</v>
+        <v>666</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>586</v>
+        <v>667</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -8315,56 +8946,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="X83" t="s">
-        <v>485</v>
+        <v>552</v>
       </c>
       <c r="Y83" t="s">
-        <v>587</v>
+        <v>668</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>1910</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>669</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>588</v>
+        <v>670</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>589</v>
+        <v>671</v>
       </c>
       <c r="J84" t="s">
-        <v>590</v>
+        <v>672</v>
       </c>
       <c r="K84" t="s">
-        <v>591</v>
+        <v>673</v>
       </c>
       <c r="L84" t="s">
-        <v>592</v>
+        <v>674</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>586</v>
+        <v>667</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8388,50 +9023,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>593</v>
+        <v>675</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>1910</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>676</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>594</v>
+        <v>677</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>595</v>
+        <v>678</v>
       </c>
       <c r="J85" t="s">
-        <v>596</v>
+        <v>679</v>
       </c>
       <c r="K85" t="s">
-        <v>597</v>
+        <v>680</v>
       </c>
       <c r="L85" t="s">
-        <v>598</v>
+        <v>681</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>586</v>
+        <v>667</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -8455,50 +9094,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>599</v>
+        <v>682</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>1910</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>683</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>600</v>
+        <v>684</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>601</v>
+        <v>685</v>
       </c>
       <c r="J86" t="s">
-        <v>602</v>
+        <v>686</v>
       </c>
       <c r="K86" t="s">
-        <v>603</v>
+        <v>687</v>
       </c>
       <c r="L86" t="s">
-        <v>604</v>
+        <v>688</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>605</v>
+        <v>689</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8522,50 +9165,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>604</v>
+        <v>688</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>1910</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>690</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>606</v>
+        <v>691</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>607</v>
+        <v>692</v>
       </c>
       <c r="J87" t="s">
-        <v>608</v>
+        <v>693</v>
       </c>
       <c r="K87" t="s">
-        <v>609</v>
+        <v>694</v>
       </c>
       <c r="L87" t="s">
-        <v>610</v>
+        <v>695</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>611</v>
+        <v>696</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8589,50 +9236,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>610</v>
+        <v>695</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>1910</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>697</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>612</v>
+        <v>698</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>613</v>
+        <v>699</v>
       </c>
       <c r="J88" t="s">
-        <v>614</v>
+        <v>700</v>
       </c>
       <c r="K88" t="s">
-        <v>615</v>
+        <v>701</v>
       </c>
       <c r="L88" t="s">
-        <v>616</v>
+        <v>702</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>617</v>
+        <v>703</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8656,50 +9307,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>618</v>
+        <v>704</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>1910</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>705</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>619</v>
+        <v>706</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>620</v>
+        <v>707</v>
       </c>
       <c r="J89" t="s">
-        <v>621</v>
+        <v>708</v>
       </c>
       <c r="K89" t="s">
-        <v>622</v>
+        <v>709</v>
       </c>
       <c r="L89" t="s">
-        <v>623</v>
+        <v>710</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>624</v>
+        <v>711</v>
       </c>
       <c r="O89" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8723,50 +9378,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>625</v>
+        <v>712</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>1910</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>713</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>626</v>
+        <v>714</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>627</v>
+        <v>715</v>
       </c>
       <c r="J90" t="s">
-        <v>628</v>
+        <v>716</v>
       </c>
       <c r="K90" t="s">
-        <v>629</v>
+        <v>717</v>
       </c>
       <c r="L90" t="s">
-        <v>630</v>
+        <v>718</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>631</v>
+        <v>719</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8788,56 +9447,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="X90" t="s">
-        <v>485</v>
+        <v>552</v>
       </c>
       <c r="Y90" t="s">
-        <v>632</v>
+        <v>720</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>1910</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>721</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>633</v>
+        <v>722</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>634</v>
+        <v>723</v>
       </c>
       <c r="J91" t="s">
-        <v>635</v>
+        <v>724</v>
       </c>
       <c r="K91" t="s">
-        <v>636</v>
+        <v>725</v>
       </c>
       <c r="L91" t="s">
-        <v>637</v>
+        <v>726</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>624</v>
+        <v>711</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -8861,50 +9524,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>638</v>
+        <v>727</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>1910</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>728</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>639</v>
+        <v>729</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>640</v>
+        <v>730</v>
       </c>
       <c r="J92" t="s">
-        <v>641</v>
+        <v>731</v>
       </c>
       <c r="K92" t="s">
-        <v>642</v>
+        <v>732</v>
       </c>
       <c r="L92" t="s">
-        <v>643</v>
+        <v>733</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>631</v>
+        <v>719</v>
       </c>
       <c r="O92" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P92" t="n">
         <v>1</v>
@@ -8926,56 +9593,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="X92" t="s">
-        <v>485</v>
+        <v>552</v>
       </c>
       <c r="Y92" t="s">
-        <v>644</v>
+        <v>734</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>1910</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>735</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>645</v>
+        <v>736</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>646</v>
+        <v>737</v>
       </c>
       <c r="J93" t="s">
-        <v>647</v>
+        <v>738</v>
       </c>
       <c r="K93" t="s">
-        <v>648</v>
+        <v>739</v>
       </c>
       <c r="L93" t="s">
-        <v>649</v>
+        <v>740</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>631</v>
+        <v>719</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8999,41 +9670,45 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>650</v>
+        <v>741</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>1910</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>742</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>651</v>
+        <v>743</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>652</v>
+        <v>744</v>
       </c>
       <c r="J94" t="s">
-        <v>653</v>
+        <v>745</v>
       </c>
       <c r="K94" t="s">
-        <v>654</v>
+        <v>746</v>
       </c>
       <c r="L94" t="s">
-        <v>655</v>
+        <v>747</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
@@ -9050,47 +9725,51 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="X94" t="s">
-        <v>485</v>
+        <v>552</v>
       </c>
       <c r="Y94" t="s">
-        <v>656</v>
+        <v>748</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>1910</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>749</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>657</v>
+        <v>750</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>658</v>
+        <v>751</v>
       </c>
       <c r="J95" t="s">
-        <v>659</v>
+        <v>752</v>
       </c>
       <c r="K95" t="s">
-        <v>660</v>
+        <v>753</v>
       </c>
       <c r="L95" t="s">
-        <v>661</v>
+        <v>754</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
@@ -9117,41 +9796,45 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>661</v>
+        <v>754</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>1910</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>173</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>662</v>
+        <v>755</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>663</v>
+        <v>756</v>
       </c>
       <c r="J96" t="s">
-        <v>664</v>
+        <v>757</v>
       </c>
       <c r="K96" t="s">
-        <v>665</v>
+        <v>758</v>
       </c>
       <c r="L96" t="s">
-        <v>666</v>
+        <v>759</v>
       </c>
       <c r="M96" t="n">
         <v>1</v>
@@ -9176,47 +9859,51 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="X96" t="s">
-        <v>485</v>
+        <v>552</v>
       </c>
       <c r="Y96" t="s">
-        <v>667</v>
+        <v>760</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>1910</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>761</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>668</v>
+        <v>762</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>669</v>
+        <v>763</v>
       </c>
       <c r="J97" t="s">
-        <v>670</v>
+        <v>764</v>
       </c>
       <c r="K97" t="s">
-        <v>671</v>
+        <v>765</v>
       </c>
       <c r="L97" t="s">
-        <v>672</v>
+        <v>766</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
@@ -9241,56 +9928,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="X97" t="s">
-        <v>485</v>
+        <v>552</v>
       </c>
       <c r="Y97" t="s">
-        <v>673</v>
+        <v>767</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>1910</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>173</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>674</v>
+        <v>768</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>675</v>
+        <v>769</v>
       </c>
       <c r="J98" t="s">
-        <v>676</v>
+        <v>770</v>
       </c>
       <c r="K98" t="s">
-        <v>677</v>
+        <v>771</v>
       </c>
       <c r="L98" t="s">
-        <v>678</v>
+        <v>772</v>
       </c>
       <c r="M98" t="n">
         <v>3</v>
       </c>
       <c r="N98" t="s">
-        <v>679</v>
+        <v>773</v>
       </c>
       <c r="O98" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P98" t="n">
         <v>3</v>
@@ -9312,41 +10003,45 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>680</v>
+        <v>774</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>1910</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>775</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>681</v>
+        <v>776</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>682</v>
+        <v>777</v>
       </c>
       <c r="J99" t="s">
-        <v>683</v>
+        <v>778</v>
       </c>
       <c r="K99" t="s">
-        <v>684</v>
+        <v>779</v>
       </c>
       <c r="L99" t="s">
-        <v>685</v>
+        <v>780</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
@@ -9365,41 +10060,45 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>686</v>
+        <v>781</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>1910</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>173</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>687</v>
+        <v>782</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>688</v>
+        <v>783</v>
       </c>
       <c r="J100" t="s">
-        <v>689</v>
+        <v>784</v>
       </c>
       <c r="K100" t="s">
-        <v>690</v>
+        <v>785</v>
       </c>
       <c r="L100" t="s">
-        <v>691</v>
+        <v>786</v>
       </c>
       <c r="M100" t="n">
         <v>1</v>
@@ -9426,41 +10125,45 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>692</v>
+        <v>787</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>1910</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>173</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>693</v>
+        <v>788</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>694</v>
+        <v>789</v>
       </c>
       <c r="J101" t="s">
-        <v>695</v>
+        <v>790</v>
       </c>
       <c r="K101" t="s">
-        <v>696</v>
+        <v>791</v>
       </c>
       <c r="L101" t="s">
-        <v>697</v>
+        <v>792</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
@@ -9487,41 +10190,45 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>698</v>
+        <v>793</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>1910</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>794</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>699</v>
+        <v>795</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>700</v>
+        <v>796</v>
       </c>
       <c r="J102" t="s">
-        <v>701</v>
+        <v>797</v>
       </c>
       <c r="K102" t="s">
-        <v>702</v>
+        <v>798</v>
       </c>
       <c r="L102" t="s">
-        <v>703</v>
+        <v>799</v>
       </c>
       <c r="M102" t="n">
         <v>1</v>
@@ -9548,41 +10255,45 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>704</v>
+        <v>800</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>1910</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>173</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>705</v>
+        <v>801</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>706</v>
+        <v>802</v>
       </c>
       <c r="J103" t="s">
-        <v>707</v>
+        <v>803</v>
       </c>
       <c r="K103" t="s">
-        <v>708</v>
+        <v>804</v>
       </c>
       <c r="L103" t="s">
-        <v>709</v>
+        <v>805</v>
       </c>
       <c r="M103" t="n">
         <v>1</v>
@@ -9609,41 +10320,45 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>710</v>
+        <v>806</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>1910</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>173</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>711</v>
+        <v>807</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>712</v>
+        <v>808</v>
       </c>
       <c r="J104" t="s">
-        <v>713</v>
+        <v>809</v>
       </c>
       <c r="K104" t="s">
-        <v>714</v>
+        <v>810</v>
       </c>
       <c r="L104" t="s">
-        <v>715</v>
+        <v>811</v>
       </c>
       <c r="M104" t="n">
         <v>3</v>
@@ -9670,41 +10385,45 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>715</v>
+        <v>811</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>1910</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>812</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>716</v>
+        <v>813</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>717</v>
+        <v>814</v>
       </c>
       <c r="J105" t="s">
-        <v>718</v>
+        <v>815</v>
       </c>
       <c r="K105" t="s">
-        <v>719</v>
+        <v>816</v>
       </c>
       <c r="L105" t="s">
-        <v>720</v>
+        <v>817</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
@@ -9723,41 +10442,45 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>720</v>
+        <v>817</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>1910</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>173</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>721</v>
+        <v>818</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>722</v>
+        <v>819</v>
       </c>
       <c r="J106" t="s">
-        <v>723</v>
+        <v>820</v>
       </c>
       <c r="K106" t="s">
-        <v>724</v>
+        <v>821</v>
       </c>
       <c r="L106" t="s">
-        <v>725</v>
+        <v>822</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
@@ -9784,41 +10507,45 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>725</v>
+        <v>822</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>1910</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>173</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>726</v>
+        <v>823</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>727</v>
+        <v>824</v>
       </c>
       <c r="J107" t="s">
-        <v>728</v>
+        <v>825</v>
       </c>
       <c r="K107" t="s">
-        <v>729</v>
+        <v>826</v>
       </c>
       <c r="L107" t="s">
-        <v>730</v>
+        <v>827</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
@@ -9845,41 +10572,45 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>731</v>
+        <v>828</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>1910</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>173</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>732</v>
+        <v>829</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>733</v>
+        <v>830</v>
       </c>
       <c r="J108" t="s">
-        <v>734</v>
+        <v>831</v>
       </c>
       <c r="K108" t="s">
-        <v>735</v>
+        <v>832</v>
       </c>
       <c r="L108" t="s">
-        <v>736</v>
+        <v>833</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
@@ -9898,41 +10629,45 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>737</v>
+        <v>834</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>1910</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>173</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>738</v>
+        <v>835</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>739</v>
+        <v>836</v>
       </c>
       <c r="J109" t="s">
-        <v>740</v>
+        <v>837</v>
       </c>
       <c r="K109" t="s">
-        <v>741</v>
+        <v>838</v>
       </c>
       <c r="L109" t="s">
-        <v>742</v>
+        <v>839</v>
       </c>
       <c r="M109" t="n">
         <v>1</v>
@@ -9959,41 +10694,45 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>743</v>
+        <v>840</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>1910</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>173</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>744</v>
+        <v>841</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>745</v>
+        <v>842</v>
       </c>
       <c r="J110" t="s">
-        <v>746</v>
+        <v>843</v>
       </c>
       <c r="K110" t="s">
-        <v>747</v>
+        <v>844</v>
       </c>
       <c r="L110" t="s">
-        <v>748</v>
+        <v>845</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
@@ -10012,41 +10751,45 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>749</v>
+        <v>846</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>1910</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>173</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>750</v>
+        <v>847</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>751</v>
+        <v>848</v>
       </c>
       <c r="J111" t="s">
-        <v>752</v>
+        <v>849</v>
       </c>
       <c r="K111" t="s">
-        <v>753</v>
+        <v>850</v>
       </c>
       <c r="L111" t="s">
-        <v>754</v>
+        <v>851</v>
       </c>
       <c r="M111" t="n">
         <v>2</v>
@@ -10065,41 +10808,45 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>755</v>
+        <v>852</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>1910</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>173</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>756</v>
+        <v>853</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>757</v>
+        <v>854</v>
       </c>
       <c r="J112" t="s">
-        <v>758</v>
+        <v>855</v>
       </c>
       <c r="K112" t="s">
-        <v>759</v>
+        <v>856</v>
       </c>
       <c r="L112" t="s">
-        <v>760</v>
+        <v>857</v>
       </c>
       <c r="M112" t="n">
         <v>4</v>
@@ -10118,41 +10865,45 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>760</v>
+        <v>857</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>1910</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>173</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>761</v>
+        <v>858</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>762</v>
+        <v>859</v>
       </c>
       <c r="J113" t="s">
-        <v>763</v>
+        <v>860</v>
       </c>
       <c r="K113" t="s">
-        <v>764</v>
+        <v>861</v>
       </c>
       <c r="L113" t="s">
-        <v>765</v>
+        <v>862</v>
       </c>
       <c r="M113" t="n">
         <v>5</v>
@@ -10171,41 +10922,45 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>766</v>
+        <v>863</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>1910</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>864</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>767</v>
+        <v>865</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>768</v>
+        <v>866</v>
       </c>
       <c r="J114" t="s">
-        <v>769</v>
+        <v>867</v>
       </c>
       <c r="K114" t="s">
-        <v>770</v>
+        <v>868</v>
       </c>
       <c r="L114" t="s">
-        <v>771</v>
+        <v>869</v>
       </c>
       <c r="M114" t="n">
         <v>4</v>
@@ -10232,35 +10987,39 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>771</v>
+        <v>869</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>1910</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>870</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>772</v>
+        <v>871</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>773</v>
+        <v>872</v>
       </c>
       <c r="J115" t="s">
-        <v>774</v>
+        <v>873</v>
       </c>
       <c r="K115" t="s"/>
       <c r="L115" t="s"/>
@@ -10278,40 +11037,41 @@
       <c r="V115" t="n">
         <v>0</v>
       </c>
-      <c r="W115" t="s"/>
-      <c r="X115" t="s"/>
-      <c r="Y115" t="s"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>1910</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>874</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>776</v>
+        <v>876</v>
       </c>
       <c r="J116" t="s">
-        <v>777</v>
+        <v>877</v>
       </c>
       <c r="K116" t="s"/>
       <c r="L116" t="s">
-        <v>778</v>
+        <v>878</v>
       </c>
       <c r="M116" t="n">
         <v>2</v>
@@ -10330,39 +11090,43 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>779</v>
+        <v>879</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>1910</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>880</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>780</v>
+        <v>881</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>781</v>
+        <v>882</v>
       </c>
       <c r="J117" t="s">
-        <v>782</v>
+        <v>883</v>
       </c>
       <c r="K117" t="s"/>
       <c r="L117" t="s">
-        <v>778</v>
+        <v>878</v>
       </c>
       <c r="M117" t="n">
         <v>1</v>
@@ -10389,39 +11153,43 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>779</v>
+        <v>879</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>1910</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>173</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>783</v>
+        <v>884</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>784</v>
+        <v>885</v>
       </c>
       <c r="J118" t="s">
-        <v>785</v>
+        <v>886</v>
       </c>
       <c r="K118" t="s"/>
       <c r="L118" t="s">
-        <v>778</v>
+        <v>878</v>
       </c>
       <c r="M118" t="n">
         <v>3</v>
@@ -10440,35 +11208,39 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>779</v>
+        <v>879</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>1910</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>173</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>786</v>
+        <v>887</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>787</v>
+        <v>888</v>
       </c>
       <c r="J119" t="s">
-        <v>788</v>
+        <v>889</v>
       </c>
       <c r="K119" t="s"/>
       <c r="L119" t="s"/>
@@ -10486,36 +11258,37 @@
       <c r="V119" t="n">
         <v>0</v>
       </c>
-      <c r="W119" t="s"/>
-      <c r="X119" t="s"/>
-      <c r="Y119" t="s"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>1910</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>173</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>789</v>
+        <v>890</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>790</v>
+        <v>891</v>
       </c>
       <c r="J120" t="s">
-        <v>791</v>
+        <v>892</v>
       </c>
       <c r="K120" t="s"/>
       <c r="L120" t="s"/>
@@ -10533,9 +11306,6 @@
       <c r="V120" t="n">
         <v>0</v>
       </c>
-      <c r="W120" t="s"/>
-      <c r="X120" t="s"/>
-      <c r="Y120" t="s"/>
     </row>
   </sheetData>
 </worksheet>
